--- a/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
+++ b/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +569,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -884,7 +890,6 @@
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>2023-INFRA-01</t>
@@ -925,7 +930,6 @@
           <t>La Abel Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -998,7 +1002,6 @@
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
@@ -1039,7 +1042,6 @@
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1112,7 +1114,6 @@
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
@@ -1153,7 +1154,6 @@
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1226,7 +1226,6 @@
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
@@ -1267,7 +1266,6 @@
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1385,7 +1383,6 @@
           <t>Golden Tiller Construction and Supply</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1438,7 +1435,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1447,17 +1443,6 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1510,7 +1495,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1519,17 +1503,6 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1582,7 +1555,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1591,10 +1563,9 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>45216</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>45085</v>
       </c>
@@ -1603,19 +1574,19 @@
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>45091</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>45098</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="X11" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1623,7 +1594,6 @@
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1676,7 +1646,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1685,10 +1654,9 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>45216</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>45085</v>
       </c>
@@ -1697,19 +1665,19 @@
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>45091</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>45098</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="X12" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1717,7 +1685,6 @@
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1770,7 +1737,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1779,10 +1745,9 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>45216</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>45085</v>
       </c>
@@ -1791,19 +1756,19 @@
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>45091</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>45098</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="X13" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1811,7 +1776,6 @@
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1864,7 +1828,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1873,10 +1836,9 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45216</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>45085</v>
       </c>
@@ -1885,19 +1847,19 @@
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>45091</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>45098</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1905,7 +1867,6 @@
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1958,7 +1919,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1967,10 +1927,9 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>45216</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>45085</v>
       </c>
@@ -1979,19 +1938,19 @@
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>45091</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>45098</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Y15" t="inlineStr">
@@ -1999,7 +1958,6 @@
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2052,7 +2010,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2061,10 +2018,9 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>45216</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>45085</v>
       </c>
@@ -2073,19 +2029,19 @@
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>45091</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>45098</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2093,7 +2049,6 @@
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2146,7 +2101,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2155,10 +2109,9 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45216</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>45085</v>
       </c>
@@ -2167,19 +2120,19 @@
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>45091</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>45098</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2187,7 +2140,6 @@
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2224,7 +2176,6 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
@@ -2238,7 +2189,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2247,10 +2197,9 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45216</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>45085</v>
       </c>
@@ -2259,19 +2208,19 @@
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>45091</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>45098</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>45114</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2279,7 +2228,6 @@
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2332,7 +2280,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2341,17 +2288,6 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2404,7 +2340,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2413,17 +2348,6 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2476,7 +2400,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2485,17 +2408,6 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2548,7 +2460,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2557,17 +2468,6 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2620,7 +2520,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2629,17 +2528,6 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2692,7 +2580,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2701,17 +2588,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2764,7 +2640,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2773,17 +2648,6 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2836,7 +2700,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2845,17 +2708,6 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2908,7 +2760,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2917,17 +2768,6 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2980,7 +2820,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2989,17 +2828,6 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3052,7 +2880,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3061,17 +2888,6 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3124,7 +2940,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3133,17 +2948,6 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3196,7 +3000,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3205,17 +3008,6 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3268,7 +3060,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3277,17 +3068,6 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3340,7 +3120,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3349,17 +3128,6 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3412,7 +3180,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3421,17 +3188,6 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3484,7 +3240,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3493,17 +3248,6 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3556,7 +3300,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3565,17 +3308,6 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3628,7 +3360,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3637,17 +3368,6 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3700,7 +3420,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3709,17 +3428,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3772,7 +3480,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3781,17 +3488,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3844,7 +3540,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3853,17 +3548,6 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3916,7 +3600,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3925,17 +3608,6 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3988,7 +3660,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3997,17 +3668,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4060,7 +3720,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4069,17 +3728,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4132,7 +3780,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4141,17 +3788,6 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4204,7 +3840,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4213,17 +3848,6 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4276,7 +3900,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4285,17 +3908,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4348,7 +3960,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4357,17 +3968,6 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4420,7 +4020,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4429,17 +4028,6 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4492,7 +4080,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4501,17 +4088,6 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4564,7 +4140,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4573,17 +4148,6 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4636,7 +4200,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4645,17 +4208,6 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4708,7 +4260,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4717,17 +4268,6 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4780,7 +4320,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4789,17 +4328,6 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4852,7 +4380,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4861,17 +4388,6 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4924,7 +4440,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4933,10 +4448,9 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" s="2" t="n">
+      <c r="P55" s="3" t="n">
         <v>45306</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -4947,19 +4461,19 @@
           <t>2023-03-042</t>
         </is>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="T55" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U55" s="2" t="n">
+      <c r="U55" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="V55" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W55" s="2" t="n">
+      <c r="W55" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X55" s="2" t="n">
+      <c r="X55" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="Y55" t="inlineStr">
@@ -4967,7 +4481,6 @@
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5020,7 +4533,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5029,10 +4541,9 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" s="2" t="n">
+      <c r="P56" s="3" t="n">
         <v>45306</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -5043,19 +4554,19 @@
           <t>2023-03-042</t>
         </is>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="T56" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U56" s="2" t="n">
+      <c r="U56" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="V56" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W56" s="2" t="n">
+      <c r="W56" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X56" s="2" t="n">
+      <c r="X56" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="Y56" t="inlineStr">
@@ -5063,7 +4574,6 @@
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5116,7 +4626,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5125,10 +4634,9 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>45292</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -5139,19 +4647,19 @@
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="T57" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W57" s="2" t="n">
+      <c r="W57" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X57" s="2" t="n">
+      <c r="X57" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="Y57" t="inlineStr">
@@ -5159,7 +4667,6 @@
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5212,7 +4719,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5221,10 +4727,9 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" s="2" t="n">
+      <c r="P58" s="3" t="n">
         <v>45292</v>
       </c>
-      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -5235,19 +4740,19 @@
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W58" s="2" t="n">
+      <c r="W58" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X58" s="2" t="n">
+      <c r="X58" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="Y58" t="inlineStr">
@@ -5255,7 +4760,6 @@
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5308,7 +4812,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5317,10 +4820,9 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="2" t="n">
+      <c r="P59" s="3" t="n">
         <v>45292</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -5331,19 +4833,19 @@
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="T59" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U59" s="2" t="n">
+      <c r="U59" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W59" s="2" t="n">
+      <c r="W59" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X59" s="2" t="n">
+      <c r="X59" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="Y59" t="inlineStr">
@@ -5351,7 +4853,6 @@
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5404,7 +4905,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5413,10 +4913,9 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>45292</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -5427,19 +4926,19 @@
           <t>2023-11-046</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W60" s="2" t="n">
+      <c r="W60" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X60" s="2" t="n">
+      <c r="X60" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="Y60" t="inlineStr">
@@ -5447,7 +4946,6 @@
           <t>JRMG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5500,7 +4998,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5509,10 +5006,9 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>45292</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -5523,19 +5019,19 @@
           <t>2023-11-046</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X61" s="2" t="n">
+      <c r="X61" s="3" t="n">
         <v>45247</v>
       </c>
       <c r="Y61" t="inlineStr">
@@ -5543,7 +5039,6 @@
           <t>JRMG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5596,7 +5091,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5605,10 +5099,10 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" s="2" t="n">
+      <c r="P62" s="3" t="n">
         <v>45306</v>
       </c>
-      <c r="Q62" s="2" t="n">
+      <c r="Q62" s="3" t="n">
         <v>45299</v>
       </c>
       <c r="R62" t="inlineStr">
@@ -5621,19 +5115,19 @@
           <t>2023-11-043</t>
         </is>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="W62" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X62" s="2" t="n">
+      <c r="X62" s="3" t="n">
         <v>45246</v>
       </c>
       <c r="Y62" t="inlineStr">
@@ -5641,7 +5135,6 @@
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5694,7 +5187,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5703,10 +5195,9 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>45306</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -5717,19 +5208,19 @@
           <t>2023-11-043</t>
         </is>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="T63" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W63" s="2" t="n">
+      <c r="W63" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X63" s="2" t="n">
+      <c r="X63" s="3" t="n">
         <v>45246</v>
       </c>
       <c r="Y63" t="inlineStr">
@@ -5737,7 +5228,6 @@
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5790,7 +5280,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5799,10 +5288,10 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>45306</v>
       </c>
-      <c r="Q64" s="2" t="n">
+      <c r="Q64" s="3" t="n">
         <v>45299</v>
       </c>
       <c r="R64" t="inlineStr">
@@ -5815,19 +5304,19 @@
           <t>2023-11-044</t>
         </is>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="T64" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U64" s="2" t="n">
+      <c r="U64" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W64" s="2" t="n">
+      <c r="W64" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X64" s="2" t="n">
+      <c r="X64" s="3" t="n">
         <v>45246</v>
       </c>
       <c r="Y64" t="inlineStr">
@@ -5835,7 +5324,6 @@
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5888,7 +5376,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5897,10 +5384,9 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" s="2" t="n">
+      <c r="P65" s="3" t="n">
         <v>45306</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
@@ -5911,19 +5397,19 @@
           <t>2023-11-044</t>
         </is>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="T65" s="3" t="n">
         <v>45197</v>
       </c>
-      <c r="U65" s="2" t="n">
+      <c r="U65" s="3" t="n">
         <v>45205</v>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="V65" s="3" t="n">
         <v>45217</v>
       </c>
-      <c r="W65" s="2" t="n">
+      <c r="W65" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="X65" s="2" t="n">
+      <c r="X65" s="3" t="n">
         <v>45246</v>
       </c>
       <c r="Y65" t="inlineStr">
@@ -5931,7 +5417,6 @@
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5995,10 +5480,10 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" s="2" t="n">
+      <c r="P66" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="Q66" s="2" t="n">
+      <c r="Q66" s="3" t="n">
         <v>45210</v>
       </c>
       <c r="R66" t="inlineStr">
@@ -6011,19 +5496,19 @@
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="T66" s="3" t="n">
         <v>44930</v>
       </c>
-      <c r="U66" s="2" t="n">
+      <c r="U66" s="3" t="n">
         <v>44938</v>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="V66" s="3" t="n">
         <v>44950</v>
       </c>
-      <c r="W66" s="2" t="n">
+      <c r="W66" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="X66" s="2" t="n">
+      <c r="X66" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="Y66" t="inlineStr">
@@ -6031,7 +5516,6 @@
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6095,10 +5579,10 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" s="2" t="n">
+      <c r="P67" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="Q67" s="2" t="n">
+      <c r="Q67" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="R67" t="inlineStr">
@@ -6111,19 +5595,19 @@
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T67" s="2" t="n">
+      <c r="T67" s="3" t="n">
         <v>44930</v>
       </c>
-      <c r="U67" s="2" t="n">
+      <c r="U67" s="3" t="n">
         <v>44938</v>
       </c>
-      <c r="V67" s="2" t="n">
+      <c r="V67" s="3" t="n">
         <v>44950</v>
       </c>
-      <c r="W67" s="2" t="n">
+      <c r="W67" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="X67" s="2" t="n">
+      <c r="X67" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="Y67" t="inlineStr">
@@ -6131,7 +5615,6 @@
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6195,10 +5678,10 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" s="2" t="n">
+      <c r="P68" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="Q68" s="2" t="n">
+      <c r="Q68" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="R68" t="inlineStr">
@@ -6211,19 +5694,19 @@
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T68" s="2" t="n">
+      <c r="T68" s="3" t="n">
         <v>44930</v>
       </c>
-      <c r="U68" s="2" t="n">
+      <c r="U68" s="3" t="n">
         <v>44938</v>
       </c>
-      <c r="V68" s="2" t="n">
+      <c r="V68" s="3" t="n">
         <v>44950</v>
       </c>
-      <c r="W68" s="2" t="n">
+      <c r="W68" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="X68" s="2" t="n">
+      <c r="X68" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="Y68" t="inlineStr">
@@ -6231,7 +5714,6 @@
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6295,10 +5777,10 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" s="2" t="n">
+      <c r="P69" s="3" t="n">
         <v>45094</v>
       </c>
-      <c r="Q69" s="2" t="n">
+      <c r="Q69" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="R69" t="inlineStr">
@@ -6311,19 +5793,19 @@
           <t>23-01-001-02</t>
         </is>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="T69" s="3" t="n">
         <v>44930</v>
       </c>
-      <c r="U69" s="2" t="n">
+      <c r="U69" s="3" t="n">
         <v>44938</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="3" t="n">
         <v>44950</v>
       </c>
-      <c r="W69" s="2" t="n">
+      <c r="W69" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="X69" s="2" t="n">
+      <c r="X69" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="Y69" t="inlineStr">
@@ -6331,7 +5813,6 @@
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6395,10 +5876,10 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" s="2" t="n">
+      <c r="P70" s="3" t="n">
         <v>45094</v>
       </c>
-      <c r="Q70" s="2" t="n">
+      <c r="Q70" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="R70" t="inlineStr">
@@ -6411,19 +5892,19 @@
           <t>23-01-001-02</t>
         </is>
       </c>
-      <c r="T70" s="2" t="n">
+      <c r="T70" s="3" t="n">
         <v>44930</v>
       </c>
-      <c r="U70" s="2" t="n">
+      <c r="U70" s="3" t="n">
         <v>44938</v>
       </c>
-      <c r="V70" s="2" t="n">
+      <c r="V70" s="3" t="n">
         <v>44950</v>
       </c>
-      <c r="W70" s="2" t="n">
+      <c r="W70" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="X70" s="2" t="n">
+      <c r="X70" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="Y70" t="inlineStr">
@@ -6431,7 +5912,6 @@
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6495,10 +5975,10 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="Q71" s="2" t="n">
+      <c r="Q71" s="3" t="n">
         <v>45279</v>
       </c>
       <c r="R71" t="inlineStr">
@@ -6511,19 +5991,19 @@
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T71" s="2" t="n">
+      <c r="T71" s="3" t="n">
         <v>44930</v>
       </c>
-      <c r="U71" s="2" t="n">
+      <c r="U71" s="3" t="n">
         <v>44938</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="3" t="n">
         <v>44950</v>
       </c>
-      <c r="W71" s="2" t="n">
+      <c r="W71" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="X71" s="2" t="n">
+      <c r="X71" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="Y71" t="inlineStr">
@@ -6531,7 +6011,6 @@
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6595,10 +6074,10 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="2" t="n">
+      <c r="P72" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="Q72" s="2" t="n">
+      <c r="Q72" s="3" t="n">
         <v>45279</v>
       </c>
       <c r="R72" t="inlineStr">
@@ -6611,19 +6090,19 @@
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T72" s="2" t="n">
+      <c r="T72" s="3" t="n">
         <v>44930</v>
       </c>
-      <c r="U72" s="2" t="n">
+      <c r="U72" s="3" t="n">
         <v>44938</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="3" t="n">
         <v>44950</v>
       </c>
-      <c r="W72" s="2" t="n">
+      <c r="W72" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="X72" s="2" t="n">
+      <c r="X72" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="Y72" t="inlineStr">
@@ -6631,7 +6110,6 @@
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6695,10 +6173,10 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="2" t="n">
+      <c r="P73" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="Q73" s="2" t="n">
+      <c r="Q73" s="3" t="n">
         <v>45279</v>
       </c>
       <c r="R73" t="inlineStr">
@@ -6711,19 +6189,19 @@
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T73" s="2" t="n">
+      <c r="T73" s="3" t="n">
         <v>44930</v>
       </c>
-      <c r="U73" s="2" t="n">
+      <c r="U73" s="3" t="n">
         <v>44938</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="3" t="n">
         <v>44950</v>
       </c>
-      <c r="W73" s="2" t="n">
+      <c r="W73" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="X73" s="2" t="n">
+      <c r="X73" s="3" t="n">
         <v>44967</v>
       </c>
       <c r="Y73" t="inlineStr">
@@ -6731,7 +6209,79 @@
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
+++ b/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA73"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve">  Construction of Water and Sanitation Facilities - 4-Seater, Rain Water Collector and 10 Faucets Handwashing Facility with Roofing, Counter Tile Finish 2 Units</t>
@@ -625,11 +645,6 @@
       <c r="K2" t="n">
         <v>1862376</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>1844368.38</v>
       </c>
@@ -734,11 +749,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary 1 Unit (Option 1A - with Roofing, with Counter, with Tile Finish) and 1 Unit (OPTION 3A - One-Sided, without Roofing, with Counter, with Tile Finish)</t>
@@ -747,11 +757,6 @@
       <c r="K3" t="n">
         <v>586727.75</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M3" t="n">
         <v>586210.48</v>
       </c>
@@ -856,11 +861,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -869,11 +869,6 @@
       <c r="K4" t="n">
         <v>2911074.79</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>2906241.32</v>
       </c>
@@ -968,11 +963,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -981,11 +971,6 @@
       <c r="K5" t="n">
         <v>3192342.78</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M5" t="n">
         <v>3189548.77</v>
       </c>
@@ -1080,11 +1065,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1093,11 +1073,6 @@
       <c r="K6" t="n">
         <v>3201465.5</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>3198180.97</v>
       </c>
@@ -1192,11 +1167,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1205,11 +1175,6 @@
       <c r="K7" t="n">
         <v>3201465.5</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>3181448.42</v>
       </c>
@@ -1304,11 +1269,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1317,11 +1277,6 @@
       <c r="K8" t="n">
         <v>2779451.4</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>2583307.17</v>
       </c>
@@ -6212,7 +6167,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
+++ b/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
@@ -58,13 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,5605 +571,6195 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4" t="n">
         <v>112109</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Camacho Aler Elementary School</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>CAPALONGA</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="inlineStr"/>
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Construction of Water and Sanitation Facilities - 4-Seater, Rain Water Collector and 10 Faucets Handwashing Facility with Roofing, Counter Tile Finish 2 Units</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4" t="n">
         <v>1862376</v>
       </c>
-      <c r="M2" t="n">
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="n">
         <v>1844368.38</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="O2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>August 4, 2024</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>July 30, 2024</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>INFRA07-11-2023CN</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>INFRA07-11-2023CN</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>November 15, 2023</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>December 5, 2023</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>January 16, 2024</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>June 5, 2024</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>Meltri Construction Services</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
+      <c r="AA2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Iriga City</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>114445</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Iriga South CS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>IRIGA CITY</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary 1 Unit (Option 1A - with Roofing, with Counter, with Tile Finish) and 1 Unit (OPTION 3A - One-Sided, without Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4" t="n">
         <v>586727.75</v>
       </c>
-      <c r="M3" t="n">
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="n">
         <v>586210.48</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="O3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>August 29, 2024</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>August 23, 2024</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>2024-01-29-PR-011</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>INFRA-24-06-06-001</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>February 16, 2024</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>February 26, 2024</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>March 12, 2024</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>March 18, 2024</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>Tripartite Eng'g and Construction</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
+      <c r="AA3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Ligao City</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>111844</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Ligao West CES (Binatagan)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>CITY OF LIGAO</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4" t="n">
         <v>2911074.79</v>
       </c>
-      <c r="M4" t="n">
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="n">
         <v>2906241.32</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="O4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr"/>
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>2023-INFRA-01</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>2023-INFRA-01</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>December 4, 2024</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>June 3, 2024</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>La Abel Construction &amp; Supply</t>
         </is>
       </c>
+      <c r="Z4" s="4" t="inlineStr"/>
+      <c r="AA4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>113770</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Monreal Central School</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>MONREAL</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4" t="n">
         <v>3192342.78</v>
       </c>
-      <c r="M5" t="n">
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="n">
         <v>3189548.77</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>2024-024</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
+      <c r="Z5" s="4" t="inlineStr"/>
+      <c r="AA5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>113876</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>San Fernando CS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4" t="n">
         <v>3201465.5</v>
       </c>
-      <c r="M6" t="n">
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="n">
         <v>3198180.97</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr"/>
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>2024-025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
+      <c r="Z6" s="4" t="inlineStr"/>
+      <c r="AA6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>113900</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>San Jacinto CS</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4" t="n">
         <v>3201465.5</v>
       </c>
-      <c r="M7" t="n">
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="n">
         <v>3181448.42</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="O7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>2024-023</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
+      <c r="Z7" s="4" t="inlineStr"/>
+      <c r="AA7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>114183</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Vinisitahan ES</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>DONSOL</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4" t="n">
         <v>2779451.4</v>
       </c>
-      <c r="M8" t="n">
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="n">
         <v>2583307.17</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="O8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>April 24, 2025</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>April 24, 2025</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>24-06-002</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>24-06-002</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>June 29, 2024</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>October 16, 2024</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>Golden Tiller Construction and Supply</t>
         </is>
       </c>
+      <c r="Z8" s="4" t="inlineStr"/>
+      <c r="AA8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>112274</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>San Ramon ES</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>SAN LORENZO RUIZ (IMELDA)</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="G9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4" t="n">
         <v>793742</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
+      <c r="O9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="inlineStr"/>
+      <c r="Q9" s="4" t="inlineStr"/>
+      <c r="R9" s="4" t="inlineStr"/>
+      <c r="S9" s="4" t="inlineStr"/>
+      <c r="T9" s="4" t="inlineStr"/>
+      <c r="U9" s="4" t="inlineStr"/>
+      <c r="V9" s="4" t="inlineStr"/>
+      <c r="W9" s="4" t="inlineStr"/>
+      <c r="X9" s="4" t="inlineStr"/>
+      <c r="Y9" s="4" t="inlineStr"/>
+      <c r="Z9" s="4" t="inlineStr"/>
+      <c r="AA9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>112264</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>L. Opeda Elementary School</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="G10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="4" t="n">
         <v>556309</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr"/>
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
+      <c r="O10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="inlineStr"/>
+      <c r="Q10" s="4" t="inlineStr"/>
+      <c r="R10" s="4" t="inlineStr"/>
+      <c r="S10" s="4" t="inlineStr"/>
+      <c r="T10" s="4" t="inlineStr"/>
+      <c r="U10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="inlineStr"/>
+      <c r="W10" s="4" t="inlineStr"/>
+      <c r="X10" s="4" t="inlineStr"/>
+      <c r="Y10" s="4" t="inlineStr"/>
+      <c r="Z10" s="4" t="inlineStr"/>
+      <c r="AA10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
         <v>112759</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Bombon Central School</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="G11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="n">
+      <c r="O11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="R11" t="n">
+      <c r="Q11" s="4" t="inlineStr"/>
+      <c r="R11" s="4" t="n">
         <v>45085</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="5" t="n">
         <v>45110</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="5" t="n">
         <v>45114</v>
       </c>
-      <c r="X11" s="3" t="n">
+      <c r="X11" s="5" t="n">
         <v>45156</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
+      <c r="Z11" s="4" t="inlineStr"/>
+      <c r="AA11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4" t="n">
         <v>112771</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Sto. Domingo Elementary School</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3" t="n">
+      <c r="O12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="R12" t="n">
+      <c r="Q12" s="4" t="inlineStr"/>
+      <c r="R12" s="4" t="n">
         <v>45085</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="T12" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="U12" s="3" t="n">
+      <c r="U12" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="V12" s="3" t="n">
+      <c r="V12" s="5" t="n">
         <v>45110</v>
       </c>
-      <c r="W12" s="3" t="n">
+      <c r="W12" s="5" t="n">
         <v>45114</v>
       </c>
-      <c r="X12" s="3" t="n">
+      <c r="X12" s="5" t="n">
         <v>45156</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
+      <c r="Z12" s="4" t="inlineStr"/>
+      <c r="AA12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4" t="n">
         <v>309707</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Siembre High School</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3" t="n">
+      <c r="O13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="R13" t="n">
+      <c r="Q13" s="4" t="inlineStr"/>
+      <c r="R13" s="4" t="n">
         <v>45085</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="U13" s="3" t="n">
+      <c r="U13" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="V13" s="3" t="n">
+      <c r="V13" s="5" t="n">
         <v>45110</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="5" t="n">
         <v>45114</v>
       </c>
-      <c r="X13" s="3" t="n">
+      <c r="X13" s="5" t="n">
         <v>45156</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
+      <c r="Z13" s="4" t="inlineStr"/>
+      <c r="AA13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4" t="n">
         <v>302051</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Sta. Lutgarda HS (Junior High)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Cabusao</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="G14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4" t="n">
         <v>569311.1899999999</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3" t="n">
+      <c r="O14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="R14" t="n">
+      <c r="Q14" s="4" t="inlineStr"/>
+      <c r="R14" s="4" t="n">
         <v>45085</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="T14" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="U14" s="3" t="n">
+      <c r="U14" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="V14" s="3" t="n">
+      <c r="V14" s="5" t="n">
         <v>45110</v>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="W14" s="5" t="n">
         <v>45114</v>
       </c>
-      <c r="X14" s="3" t="n">
+      <c r="X14" s="5" t="n">
         <v>45156</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
+      <c r="Z14" s="4" t="inlineStr"/>
+      <c r="AA14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4" t="n">
         <v>112498</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Camaligan Central School</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="G15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4" t="n">
         <v>427582</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3" t="n">
+      <c r="O15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="R15" t="n">
+      <c r="Q15" s="4" t="inlineStr"/>
+      <c r="R15" s="4" t="n">
         <v>45085</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T15" s="3" t="n">
+      <c r="T15" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="U15" s="3" t="n">
+      <c r="U15" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="V15" s="3" t="n">
+      <c r="V15" s="5" t="n">
         <v>45110</v>
       </c>
-      <c r="W15" s="3" t="n">
+      <c r="W15" s="5" t="n">
         <v>45114</v>
       </c>
-      <c r="X15" s="3" t="n">
+      <c r="X15" s="5" t="n">
         <v>45156</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
+      <c r="Z15" s="4" t="inlineStr"/>
+      <c r="AA15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4" t="n">
         <v>112499</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Dugcal ES</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="G16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="n">
+      <c r="O16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="R16" t="n">
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="n">
         <v>45085</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T16" s="3" t="n">
+      <c r="T16" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="U16" s="3" t="n">
+      <c r="U16" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="V16" s="3" t="n">
+      <c r="V16" s="5" t="n">
         <v>45110</v>
       </c>
-      <c r="W16" s="3" t="n">
+      <c r="W16" s="5" t="n">
         <v>45114</v>
       </c>
-      <c r="X16" s="3" t="n">
+      <c r="X16" s="5" t="n">
         <v>45156</v>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
+      <c r="Z16" s="4" t="inlineStr"/>
+      <c r="AA16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4" t="n">
         <v>302052</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Camaligan National High School</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="G17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4" t="n">
         <v>427582</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="n">
+      <c r="O17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="R17" t="n">
+      <c r="Q17" s="4" t="inlineStr"/>
+      <c r="R17" s="4" t="n">
         <v>45085</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T17" s="3" t="n">
+      <c r="T17" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="U17" s="3" t="n">
+      <c r="U17" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="V17" s="3" t="n">
+      <c r="V17" s="5" t="n">
         <v>45110</v>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="W17" s="5" t="n">
         <v>45114</v>
       </c>
-      <c r="X17" s="3" t="n">
+      <c r="X17" s="5" t="n">
         <v>45156</v>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
+      <c r="Z17" s="4" t="inlineStr"/>
+      <c r="AA17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4" t="n">
         <v>112779</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Gainza CS - Gainza</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>GAINZA</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="G18" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="4" t="n">
         <v>573205.47</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="n">
+      <c r="O18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5" t="n">
         <v>45216</v>
       </c>
-      <c r="R18" t="n">
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="n">
         <v>45085</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="T18" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="U18" s="3" t="n">
+      <c r="U18" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="V18" s="3" t="n">
+      <c r="V18" s="5" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="3" t="n">
+      <c r="W18" s="5" t="n">
         <v>45114</v>
       </c>
-      <c r="X18" s="3" t="n">
+      <c r="X18" s="5" t="n">
         <v>45156</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
+      <c r="Z18" s="4" t="inlineStr"/>
+      <c r="AA18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4" t="n">
         <v>113154</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Bugao Central ES</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="G19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
+      <c r="O19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4" t="inlineStr"/>
+      <c r="Q19" s="4" t="inlineStr"/>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="4" t="inlineStr"/>
+      <c r="X19" s="4" t="inlineStr"/>
+      <c r="Y19" s="4" t="inlineStr"/>
+      <c r="Z19" s="4" t="inlineStr"/>
+      <c r="AA19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4" t="n">
         <v>113155</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Cahan Bo. Sch.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="G20" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
+      <c r="O20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4" t="inlineStr"/>
+      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="R20" s="4" t="inlineStr"/>
+      <c r="S20" s="4" t="inlineStr"/>
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
+      <c r="Z20" s="4" t="inlineStr"/>
+      <c r="AA20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4" t="n">
         <v>113161</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Bagamanoc CES</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="G21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
+      <c r="O21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4" t="inlineStr"/>
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr"/>
+      <c r="W21" s="4" t="inlineStr"/>
+      <c r="X21" s="4" t="inlineStr"/>
+      <c r="Y21" s="4" t="inlineStr"/>
+      <c r="Z21" s="4" t="inlineStr"/>
+      <c r="AA21" s="4" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4" t="n">
         <v>113164</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Salvacion ES</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="G22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
+      <c r="O22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4" t="inlineStr"/>
+      <c r="Q22" s="4" t="inlineStr"/>
+      <c r="R22" s="4" t="inlineStr"/>
+      <c r="S22" s="4" t="inlineStr"/>
+      <c r="T22" s="4" t="inlineStr"/>
+      <c r="U22" s="4" t="inlineStr"/>
+      <c r="V22" s="4" t="inlineStr"/>
+      <c r="W22" s="4" t="inlineStr"/>
+      <c r="X22" s="4" t="inlineStr"/>
+      <c r="Y22" s="4" t="inlineStr"/>
+      <c r="Z22" s="4" t="inlineStr"/>
+      <c r="AA22" s="4" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4" t="n">
         <v>113165</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Suchan Elementary School</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="G23" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
+      <c r="O23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="inlineStr"/>
+      <c r="Q23" s="4" t="inlineStr"/>
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr"/>
+      <c r="T23" s="4" t="inlineStr"/>
+      <c r="U23" s="4" t="inlineStr"/>
+      <c r="V23" s="4" t="inlineStr"/>
+      <c r="W23" s="4" t="inlineStr"/>
+      <c r="X23" s="4" t="inlineStr"/>
+      <c r="Y23" s="4" t="inlineStr"/>
+      <c r="Z23" s="4" t="inlineStr"/>
+      <c r="AA23" s="4" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4" t="n">
         <v>302072</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Bagamanoc Rural DHS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="G24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
+      <c r="O24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4" t="inlineStr"/>
+      <c r="Q24" s="4" t="inlineStr"/>
+      <c r="R24" s="4" t="inlineStr"/>
+      <c r="S24" s="4" t="inlineStr"/>
+      <c r="T24" s="4" t="inlineStr"/>
+      <c r="U24" s="4" t="inlineStr"/>
+      <c r="V24" s="4" t="inlineStr"/>
+      <c r="W24" s="4" t="inlineStr"/>
+      <c r="X24" s="4" t="inlineStr"/>
+      <c r="Y24" s="4" t="inlineStr"/>
+      <c r="Z24" s="4" t="inlineStr"/>
+      <c r="AA24" s="4" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4" t="n">
         <v>113166</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Agban Central Elementary School</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="G25" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
+      <c r="O25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
+      <c r="X25" s="4" t="inlineStr"/>
+      <c r="Y25" s="4" t="inlineStr"/>
+      <c r="Z25" s="4" t="inlineStr"/>
+      <c r="AA25" s="4" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4" t="n">
         <v>113172</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Abihao ES</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="G26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
+      <c r="O26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
+      <c r="X26" s="4" t="inlineStr"/>
+      <c r="Y26" s="4" t="inlineStr"/>
+      <c r="Z26" s="4" t="inlineStr"/>
+      <c r="AA26" s="4" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="4" t="n">
         <v>113173</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Baras CES</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="G27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
+      <c r="O27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="inlineStr"/>
+      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr"/>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
+      <c r="X27" s="4" t="inlineStr"/>
+      <c r="Y27" s="4" t="inlineStr"/>
+      <c r="Z27" s="4" t="inlineStr"/>
+      <c r="AA27" s="4" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="4" t="n">
         <v>113175</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Macutal Elementary School</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="G28" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
+      <c r="O28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="inlineStr"/>
+      <c r="Q28" s="4" t="inlineStr"/>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr"/>
+      <c r="T28" s="4" t="inlineStr"/>
+      <c r="U28" s="4" t="inlineStr"/>
+      <c r="V28" s="4" t="inlineStr"/>
+      <c r="W28" s="4" t="inlineStr"/>
+      <c r="X28" s="4" t="inlineStr"/>
+      <c r="Y28" s="4" t="inlineStr"/>
+      <c r="Z28" s="4" t="inlineStr"/>
+      <c r="AA28" s="4" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="4" t="n">
         <v>113176</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Moning Elementary School</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="G29" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
+      <c r="O29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4" t="inlineStr"/>
+      <c r="Q29" s="4" t="inlineStr"/>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr"/>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr"/>
+      <c r="W29" s="4" t="inlineStr"/>
+      <c r="X29" s="4" t="inlineStr"/>
+      <c r="Y29" s="4" t="inlineStr"/>
+      <c r="Z29" s="4" t="inlineStr"/>
+      <c r="AA29" s="4" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="4" t="n">
         <v>302070</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Agban NHS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="G30" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
+      <c r="O30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="inlineStr"/>
+      <c r="Q30" s="4" t="inlineStr"/>
+      <c r="R30" s="4" t="inlineStr"/>
+      <c r="S30" s="4" t="inlineStr"/>
+      <c r="T30" s="4" t="inlineStr"/>
+      <c r="U30" s="4" t="inlineStr"/>
+      <c r="V30" s="4" t="inlineStr"/>
+      <c r="W30" s="4" t="inlineStr"/>
+      <c r="X30" s="4" t="inlineStr"/>
+      <c r="Y30" s="4" t="inlineStr"/>
+      <c r="Z30" s="4" t="inlineStr"/>
+      <c r="AA30" s="4" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="4" t="n">
         <v>302073</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Baras Rural DHS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="G31" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="M31" s="4" t="inlineStr"/>
+      <c r="N31" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
+      <c r="O31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4" t="inlineStr"/>
+      <c r="Q31" s="4" t="inlineStr"/>
+      <c r="R31" s="4" t="inlineStr"/>
+      <c r="S31" s="4" t="inlineStr"/>
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
+      <c r="V31" s="4" t="inlineStr"/>
+      <c r="W31" s="4" t="inlineStr"/>
+      <c r="X31" s="4" t="inlineStr"/>
+      <c r="Y31" s="4" t="inlineStr"/>
+      <c r="Z31" s="4" t="inlineStr"/>
+      <c r="AA31" s="4" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="4" t="n">
         <v>113182</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Bato Central Elementary School</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="G32" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
+      <c r="O32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4" t="inlineStr"/>
+      <c r="Q32" s="4" t="inlineStr"/>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr"/>
+      <c r="T32" s="4" t="inlineStr"/>
+      <c r="U32" s="4" t="inlineStr"/>
+      <c r="V32" s="4" t="inlineStr"/>
+      <c r="W32" s="4" t="inlineStr"/>
+      <c r="X32" s="4" t="inlineStr"/>
+      <c r="Y32" s="4" t="inlineStr"/>
+      <c r="Z32" s="4" t="inlineStr"/>
+      <c r="AA32" s="4" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="4" t="n">
         <v>113192</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Guinobatan Elementay School</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="G33" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="M33" s="4" t="inlineStr"/>
+      <c r="N33" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
+      <c r="O33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4" t="inlineStr"/>
+      <c r="Q33" s="4" t="inlineStr"/>
+      <c r="R33" s="4" t="inlineStr"/>
+      <c r="S33" s="4" t="inlineStr"/>
+      <c r="T33" s="4" t="inlineStr"/>
+      <c r="U33" s="4" t="inlineStr"/>
+      <c r="V33" s="4" t="inlineStr"/>
+      <c r="W33" s="4" t="inlineStr"/>
+      <c r="X33" s="4" t="inlineStr"/>
+      <c r="Y33" s="4" t="inlineStr"/>
+      <c r="Z33" s="4" t="inlineStr"/>
+      <c r="AA33" s="4" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="4" t="n">
         <v>113195</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Sipi Elementary School</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="G34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="M34" s="4" t="inlineStr"/>
+      <c r="N34" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
+      <c r="O34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4" t="inlineStr"/>
+      <c r="Q34" s="4" t="inlineStr"/>
+      <c r="R34" s="4" t="inlineStr"/>
+      <c r="S34" s="4" t="inlineStr"/>
+      <c r="T34" s="4" t="inlineStr"/>
+      <c r="U34" s="4" t="inlineStr"/>
+      <c r="V34" s="4" t="inlineStr"/>
+      <c r="W34" s="4" t="inlineStr"/>
+      <c r="X34" s="4" t="inlineStr"/>
+      <c r="Y34" s="4" t="inlineStr"/>
+      <c r="Z34" s="4" t="inlineStr"/>
+      <c r="AA34" s="4" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="4" t="n">
         <v>302074</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>Bato Rural Development High School</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="G35" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="M35" s="4" t="inlineStr"/>
+      <c r="N35" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
+      <c r="O35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4" t="inlineStr"/>
+      <c r="Q35" s="4" t="inlineStr"/>
+      <c r="R35" s="4" t="inlineStr"/>
+      <c r="S35" s="4" t="inlineStr"/>
+      <c r="T35" s="4" t="inlineStr"/>
+      <c r="U35" s="4" t="inlineStr"/>
+      <c r="V35" s="4" t="inlineStr"/>
+      <c r="W35" s="4" t="inlineStr"/>
+      <c r="X35" s="4" t="inlineStr"/>
+      <c r="Y35" s="4" t="inlineStr"/>
+      <c r="Z35" s="4" t="inlineStr"/>
+      <c r="AA35" s="4" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="4" t="n">
         <v>500032</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>Cabugao IS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="G36" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="M36" s="4" t="inlineStr"/>
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
+      <c r="O36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4" t="inlineStr"/>
+      <c r="Q36" s="4" t="inlineStr"/>
+      <c r="R36" s="4" t="inlineStr"/>
+      <c r="S36" s="4" t="inlineStr"/>
+      <c r="T36" s="4" t="inlineStr"/>
+      <c r="U36" s="4" t="inlineStr"/>
+      <c r="V36" s="4" t="inlineStr"/>
+      <c r="W36" s="4" t="inlineStr"/>
+      <c r="X36" s="4" t="inlineStr"/>
+      <c r="Y36" s="4" t="inlineStr"/>
+      <c r="Z36" s="4" t="inlineStr"/>
+      <c r="AA36" s="4" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="4" t="n">
         <v>500412</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>Bote IS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="G37" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="M37" s="4" t="inlineStr"/>
+      <c r="N37" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
+      <c r="O37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4" t="inlineStr"/>
+      <c r="Q37" s="4" t="inlineStr"/>
+      <c r="R37" s="4" t="inlineStr"/>
+      <c r="S37" s="4" t="inlineStr"/>
+      <c r="T37" s="4" t="inlineStr"/>
+      <c r="U37" s="4" t="inlineStr"/>
+      <c r="V37" s="4" t="inlineStr"/>
+      <c r="W37" s="4" t="inlineStr"/>
+      <c r="X37" s="4" t="inlineStr"/>
+      <c r="Y37" s="4" t="inlineStr"/>
+      <c r="Z37" s="4" t="inlineStr"/>
+      <c r="AA37" s="4" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="4" t="n">
         <v>113220</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>Gigmoto CES</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="G38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="M38" s="4" t="inlineStr"/>
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4" t="inlineStr"/>
+      <c r="Q38" s="4" t="inlineStr"/>
+      <c r="R38" s="4" t="inlineStr"/>
+      <c r="S38" s="4" t="inlineStr"/>
+      <c r="T38" s="4" t="inlineStr"/>
+      <c r="U38" s="4" t="inlineStr"/>
+      <c r="V38" s="4" t="inlineStr"/>
+      <c r="W38" s="4" t="inlineStr"/>
+      <c r="X38" s="4" t="inlineStr"/>
+      <c r="Y38" s="4" t="inlineStr"/>
+      <c r="Z38" s="4" t="inlineStr"/>
+      <c r="AA38" s="4" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="4" t="n">
         <v>113221</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>San Pedro ES</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="G39" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="K39" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
+      <c r="O39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4" t="inlineStr"/>
+      <c r="Q39" s="4" t="inlineStr"/>
+      <c r="R39" s="4" t="inlineStr"/>
+      <c r="S39" s="4" t="inlineStr"/>
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr"/>
+      <c r="W39" s="4" t="inlineStr"/>
+      <c r="X39" s="4" t="inlineStr"/>
+      <c r="Y39" s="4" t="inlineStr"/>
+      <c r="Z39" s="4" t="inlineStr"/>
+      <c r="AA39" s="4" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="4" t="n">
         <v>302088</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>Gigmoto Rural DHS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="G40" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
+      <c r="O40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4" t="inlineStr"/>
+      <c r="Q40" s="4" t="inlineStr"/>
+      <c r="R40" s="4" t="inlineStr"/>
+      <c r="S40" s="4" t="inlineStr"/>
+      <c r="T40" s="4" t="inlineStr"/>
+      <c r="U40" s="4" t="inlineStr"/>
+      <c r="V40" s="4" t="inlineStr"/>
+      <c r="W40" s="4" t="inlineStr"/>
+      <c r="X40" s="4" t="inlineStr"/>
+      <c r="Y40" s="4" t="inlineStr"/>
+      <c r="Z40" s="4" t="inlineStr"/>
+      <c r="AA40" s="4" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="4" t="n">
         <v>500033</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>Sicmil Integrated School</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="G41" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="K41" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="M41" s="4" t="inlineStr"/>
+      <c r="N41" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
+      <c r="O41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4" t="inlineStr"/>
+      <c r="Q41" s="4" t="inlineStr"/>
+      <c r="R41" s="4" t="inlineStr"/>
+      <c r="S41" s="4" t="inlineStr"/>
+      <c r="T41" s="4" t="inlineStr"/>
+      <c r="U41" s="4" t="inlineStr"/>
+      <c r="V41" s="4" t="inlineStr"/>
+      <c r="W41" s="4" t="inlineStr"/>
+      <c r="X41" s="4" t="inlineStr"/>
+      <c r="Y41" s="4" t="inlineStr"/>
+      <c r="Z41" s="4" t="inlineStr"/>
+      <c r="AA41" s="4" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="4" t="n">
         <v>113244</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>Alinawan ES</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="G42" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="M42" s="4" t="inlineStr"/>
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
+      <c r="O42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4" t="inlineStr"/>
+      <c r="Q42" s="4" t="inlineStr"/>
+      <c r="R42" s="4" t="inlineStr"/>
+      <c r="S42" s="4" t="inlineStr"/>
+      <c r="T42" s="4" t="inlineStr"/>
+      <c r="U42" s="4" t="inlineStr"/>
+      <c r="V42" s="4" t="inlineStr"/>
+      <c r="W42" s="4" t="inlineStr"/>
+      <c r="X42" s="4" t="inlineStr"/>
+      <c r="Y42" s="4" t="inlineStr"/>
+      <c r="Z42" s="4" t="inlineStr"/>
+      <c r="AA42" s="4" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="4" t="n">
         <v>113251</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>Maculiw Comm. Sch.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="G43" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr"/>
+      <c r="N43" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
+      <c r="O43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4" t="inlineStr"/>
+      <c r="Q43" s="4" t="inlineStr"/>
+      <c r="R43" s="4" t="inlineStr"/>
+      <c r="S43" s="4" t="inlineStr"/>
+      <c r="T43" s="4" t="inlineStr"/>
+      <c r="U43" s="4" t="inlineStr"/>
+      <c r="V43" s="4" t="inlineStr"/>
+      <c r="W43" s="4" t="inlineStr"/>
+      <c r="X43" s="4" t="inlineStr"/>
+      <c r="Y43" s="4" t="inlineStr"/>
+      <c r="Z43" s="4" t="inlineStr"/>
+      <c r="AA43" s="4" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="4" t="n">
         <v>113252</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
         <is>
           <t>Panay Comm. Sch.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="G44" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="M44" s="4" t="inlineStr"/>
+      <c r="N44" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
+      <c r="O44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4" t="inlineStr"/>
+      <c r="Q44" s="4" t="inlineStr"/>
+      <c r="R44" s="4" t="inlineStr"/>
+      <c r="S44" s="4" t="inlineStr"/>
+      <c r="T44" s="4" t="inlineStr"/>
+      <c r="U44" s="4" t="inlineStr"/>
+      <c r="V44" s="4" t="inlineStr"/>
+      <c r="W44" s="4" t="inlineStr"/>
+      <c r="X44" s="4" t="inlineStr"/>
+      <c r="Y44" s="4" t="inlineStr"/>
+      <c r="Z44" s="4" t="inlineStr"/>
+      <c r="AA44" s="4" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="4" t="n">
         <v>113253</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>Panganiban Central Elementary School</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="G45" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="M45" s="4" t="inlineStr"/>
+      <c r="N45" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
+      <c r="O45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4" t="inlineStr"/>
+      <c r="Q45" s="4" t="inlineStr"/>
+      <c r="R45" s="4" t="inlineStr"/>
+      <c r="S45" s="4" t="inlineStr"/>
+      <c r="T45" s="4" t="inlineStr"/>
+      <c r="U45" s="4" t="inlineStr"/>
+      <c r="V45" s="4" t="inlineStr"/>
+      <c r="W45" s="4" t="inlineStr"/>
+      <c r="X45" s="4" t="inlineStr"/>
+      <c r="Y45" s="4" t="inlineStr"/>
+      <c r="Z45" s="4" t="inlineStr"/>
+      <c r="AA45" s="4" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="4" t="n">
         <v>302095</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>Panganiban National High School</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="G46" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O46" t="n">
-        <v>1</v>
-      </c>
+      <c r="O46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4" t="inlineStr"/>
+      <c r="Q46" s="4" t="inlineStr"/>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr"/>
+      <c r="T46" s="4" t="inlineStr"/>
+      <c r="U46" s="4" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr"/>
+      <c r="W46" s="4" t="inlineStr"/>
+      <c r="X46" s="4" t="inlineStr"/>
+      <c r="Y46" s="4" t="inlineStr"/>
+      <c r="Z46" s="4" t="inlineStr"/>
+      <c r="AA46" s="4" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="4" t="n">
         <v>309801</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>Panganiban NHS (CAIC Compound)</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="G47" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="M47" s="4" t="inlineStr"/>
+      <c r="N47" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O47" t="n">
-        <v>1</v>
-      </c>
+      <c r="O47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4" t="inlineStr"/>
+      <c r="Q47" s="4" t="inlineStr"/>
+      <c r="R47" s="4" t="inlineStr"/>
+      <c r="S47" s="4" t="inlineStr"/>
+      <c r="T47" s="4" t="inlineStr"/>
+      <c r="U47" s="4" t="inlineStr"/>
+      <c r="V47" s="4" t="inlineStr"/>
+      <c r="W47" s="4" t="inlineStr"/>
+      <c r="X47" s="4" t="inlineStr"/>
+      <c r="Y47" s="4" t="inlineStr"/>
+      <c r="Z47" s="4" t="inlineStr"/>
+      <c r="AA47" s="4" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="4" t="n">
         <v>113285</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>Alma Elementary School</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="G48" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
+      <c r="O48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4" t="inlineStr"/>
+      <c r="Q48" s="4" t="inlineStr"/>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr"/>
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr"/>
+      <c r="W48" s="4" t="inlineStr"/>
+      <c r="X48" s="4" t="inlineStr"/>
+      <c r="Y48" s="4" t="inlineStr"/>
+      <c r="Z48" s="4" t="inlineStr"/>
+      <c r="AA48" s="4" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="4" t="n">
         <v>113287</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Caglatawan Elementary School</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="G49" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr"/>
+      <c r="N49" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O49" t="n">
-        <v>1</v>
-      </c>
+      <c r="O49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4" t="inlineStr"/>
+      <c r="Q49" s="4" t="inlineStr"/>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr"/>
+      <c r="T49" s="4" t="inlineStr"/>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr"/>
+      <c r="W49" s="4" t="inlineStr"/>
+      <c r="X49" s="4" t="inlineStr"/>
+      <c r="Y49" s="4" t="inlineStr"/>
+      <c r="Z49" s="4" t="inlineStr"/>
+      <c r="AA49" s="4" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="4" t="n">
         <v>113292</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>Pagsangahan Elementary School</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="G50" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" s="4" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="M50" s="4" t="inlineStr"/>
+      <c r="N50" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
+      <c r="O50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4" t="inlineStr"/>
+      <c r="Q50" s="4" t="inlineStr"/>
+      <c r="R50" s="4" t="inlineStr"/>
+      <c r="S50" s="4" t="inlineStr"/>
+      <c r="T50" s="4" t="inlineStr"/>
+      <c r="U50" s="4" t="inlineStr"/>
+      <c r="V50" s="4" t="inlineStr"/>
+      <c r="W50" s="4" t="inlineStr"/>
+      <c r="X50" s="4" t="inlineStr"/>
+      <c r="Y50" s="4" t="inlineStr"/>
+      <c r="Z50" s="4" t="inlineStr"/>
+      <c r="AA50" s="4" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="4" t="n">
         <v>113298</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>J.M.A.-Tucao ES</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="G51" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="K51" s="4" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O51" t="n">
-        <v>1</v>
-      </c>
+      <c r="O51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4" t="inlineStr"/>
+      <c r="Q51" s="4" t="inlineStr"/>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr"/>
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
+      <c r="V51" s="4" t="inlineStr"/>
+      <c r="W51" s="4" t="inlineStr"/>
+      <c r="X51" s="4" t="inlineStr"/>
+      <c r="Y51" s="4" t="inlineStr"/>
+      <c r="Z51" s="4" t="inlineStr"/>
+      <c r="AA51" s="4" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="4" t="n">
         <v>113305</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>San Miguel CES</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>2</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="G52" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="M52" s="4" t="inlineStr"/>
+      <c r="N52" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
+      <c r="O52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4" t="inlineStr"/>
+      <c r="Q52" s="4" t="inlineStr"/>
+      <c r="R52" s="4" t="inlineStr"/>
+      <c r="S52" s="4" t="inlineStr"/>
+      <c r="T52" s="4" t="inlineStr"/>
+      <c r="U52" s="4" t="inlineStr"/>
+      <c r="V52" s="4" t="inlineStr"/>
+      <c r="W52" s="4" t="inlineStr"/>
+      <c r="X52" s="4" t="inlineStr"/>
+      <c r="Y52" s="4" t="inlineStr"/>
+      <c r="Z52" s="4" t="inlineStr"/>
+      <c r="AA52" s="4" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="4" t="n">
         <v>302098</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>San Miguel Rural DHS</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>2</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="G53" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="K53" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="M53" s="4" t="inlineStr"/>
+      <c r="N53" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
+      <c r="O53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4" t="inlineStr"/>
+      <c r="Q53" s="4" t="inlineStr"/>
+      <c r="R53" s="4" t="inlineStr"/>
+      <c r="S53" s="4" t="inlineStr"/>
+      <c r="T53" s="4" t="inlineStr"/>
+      <c r="U53" s="4" t="inlineStr"/>
+      <c r="V53" s="4" t="inlineStr"/>
+      <c r="W53" s="4" t="inlineStr"/>
+      <c r="X53" s="4" t="inlineStr"/>
+      <c r="Y53" s="4" t="inlineStr"/>
+      <c r="Z53" s="4" t="inlineStr"/>
+      <c r="AA53" s="4" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="4" t="n">
         <v>302099</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>Mabato NHS (SMRDHS Annex)</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G54" t="n">
-        <v>2</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="G54" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" s="4" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" s="4" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="M54" s="4" t="inlineStr"/>
+      <c r="N54" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
+      <c r="O54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4" t="inlineStr"/>
+      <c r="Q54" s="4" t="inlineStr"/>
+      <c r="R54" s="4" t="inlineStr"/>
+      <c r="S54" s="4" t="inlineStr"/>
+      <c r="T54" s="4" t="inlineStr"/>
+      <c r="U54" s="4" t="inlineStr"/>
+      <c r="V54" s="4" t="inlineStr"/>
+      <c r="W54" s="4" t="inlineStr"/>
+      <c r="X54" s="4" t="inlineStr"/>
+      <c r="Y54" s="4" t="inlineStr"/>
+      <c r="Z54" s="4" t="inlineStr"/>
+      <c r="AA54" s="4" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="4" t="n">
         <v>113484</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>Matabao ES</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>BATUAN</t>
         </is>
       </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="G55" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="K55" s="4" t="n">
         <v>725356</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr"/>
+      <c r="N55" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="3" t="n">
+      <c r="O55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="5" t="n">
         <v>45306</v>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="Q55" s="4" t="inlineStr"/>
+      <c r="R55" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="S55" s="4" t="inlineStr">
         <is>
           <t>2023-03-042</t>
         </is>
       </c>
-      <c r="T55" s="3" t="n">
+      <c r="T55" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U55" s="3" t="n">
+      <c r="U55" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V55" s="3" t="n">
+      <c r="V55" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W55" s="3" t="n">
+      <c r="W55" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X55" s="3" t="n">
+      <c r="X55" s="5" t="n">
         <v>45247</v>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="Y55" s="4" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
+      <c r="Z55" s="4" t="inlineStr"/>
+      <c r="AA55" s="4" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="4" t="n">
         <v>500165</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>Antonio Lee Llacer Sr. Integrated School</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>BATUAN</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>2</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="G56" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="K56" s="4" t="n">
         <v>610169</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr"/>
+      <c r="N56" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="3" t="n">
+      <c r="O56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="5" t="n">
         <v>45306</v>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="Q56" s="4" t="inlineStr"/>
+      <c r="R56" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="4" t="inlineStr">
         <is>
           <t>2023-03-042</t>
         </is>
       </c>
-      <c r="T56" s="3" t="n">
+      <c r="T56" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U56" s="3" t="n">
+      <c r="U56" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V56" s="3" t="n">
+      <c r="V56" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W56" s="3" t="n">
+      <c r="W56" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X56" s="3" t="n">
+      <c r="X56" s="5" t="n">
         <v>45247</v>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="Y56" s="4" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
+      <c r="Z56" s="4" t="inlineStr"/>
+      <c r="AA56" s="4" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="4" t="n">
         <v>113620</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>Baras ES</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>2</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="G57" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="4" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="K57" s="4" t="n">
         <v>440032</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="M57" s="4" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="3" t="n">
+      <c r="O57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="5" t="n">
         <v>45292</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="Q57" s="4" t="inlineStr"/>
+      <c r="R57" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="S57" s="4" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T57" s="3" t="n">
+      <c r="T57" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U57" s="3" t="n">
+      <c r="U57" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V57" s="3" t="n">
+      <c r="V57" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W57" s="3" t="n">
+      <c r="W57" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X57" s="3" t="n">
+      <c r="X57" s="5" t="n">
         <v>45247</v>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Y57" s="4" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
+      <c r="Z57" s="4" t="inlineStr"/>
+      <c r="AA57" s="4" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="4" t="n">
         <v>113627</v>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>Masbaranon ES</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>2</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="G58" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="K58" s="4" t="n">
         <v>440031</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="M58" s="4" t="inlineStr"/>
+      <c r="N58" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="3" t="n">
+      <c r="O58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="5" t="n">
         <v>45292</v>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="Q58" s="4" t="inlineStr"/>
+      <c r="R58" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="S58" s="4" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T58" s="3" t="n">
+      <c r="T58" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U58" s="3" t="n">
+      <c r="U58" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V58" s="3" t="n">
+      <c r="V58" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W58" s="3" t="n">
+      <c r="W58" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X58" s="3" t="n">
+      <c r="X58" s="5" t="n">
         <v>45247</v>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="Y58" s="4" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
+      <c r="Z58" s="4" t="inlineStr"/>
+      <c r="AA58" s="4" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="4" t="n">
         <v>113634</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t>Tawad ES</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="G59" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="K59" s="4" t="n">
         <v>440031</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="M59" s="4" t="inlineStr"/>
+      <c r="N59" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="3" t="n">
+      <c r="O59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="5" t="n">
         <v>45292</v>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="Q59" s="4" t="inlineStr"/>
+      <c r="R59" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="S59" s="4" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T59" s="3" t="n">
+      <c r="T59" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U59" s="3" t="n">
+      <c r="U59" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V59" s="3" t="n">
+      <c r="V59" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W59" s="3" t="n">
+      <c r="W59" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X59" s="3" t="n">
+      <c r="X59" s="5" t="n">
         <v>45247</v>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="Y59" s="4" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
+      <c r="Z59" s="4" t="inlineStr"/>
+      <c r="AA59" s="4" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="4" t="n">
         <v>113636</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t>Villa ES</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>2</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="G60" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="K60" s="4" t="n">
         <v>440031</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="M60" s="4" t="inlineStr"/>
+      <c r="N60" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="3" t="n">
+      <c r="O60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="5" t="n">
         <v>45292</v>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="Q60" s="4" t="inlineStr"/>
+      <c r="R60" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="S60" s="4" t="inlineStr">
         <is>
           <t>2023-11-046</t>
         </is>
       </c>
-      <c r="T60" s="3" t="n">
+      <c r="T60" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U60" s="3" t="n">
+      <c r="U60" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V60" s="3" t="n">
+      <c r="V60" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W60" s="3" t="n">
+      <c r="W60" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X60" s="3" t="n">
+      <c r="X60" s="5" t="n">
         <v>45247</v>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="Y60" s="4" t="inlineStr">
         <is>
           <t>JRMG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
+      <c r="Z60" s="4" t="inlineStr"/>
+      <c r="AA60" s="4" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="4" t="n">
         <v>302171</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t>Santos E. Conag National High School</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="G61" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="K61" s="4" t="n">
         <v>440032</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="M61" s="4" t="inlineStr"/>
+      <c r="N61" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="3" t="n">
+      <c r="O61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="5" t="n">
         <v>45292</v>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="Q61" s="4" t="inlineStr"/>
+      <c r="R61" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="4" t="inlineStr">
         <is>
           <t>2023-11-046</t>
         </is>
       </c>
-      <c r="T61" s="3" t="n">
+      <c r="T61" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U61" s="3" t="n">
+      <c r="U61" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V61" s="3" t="n">
+      <c r="V61" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W61" s="3" t="n">
+      <c r="W61" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X61" s="3" t="n">
+      <c r="X61" s="5" t="n">
         <v>45247</v>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Y61" s="4" t="inlineStr">
         <is>
           <t>JRMG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
+      <c r="Z61" s="4" t="inlineStr"/>
+      <c r="AA61" s="4" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="4" t="n">
         <v>113863</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>Buyo ES</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="4" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="G62" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="K62" s="4" t="n">
         <v>717068</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="M62" s="4" t="inlineStr"/>
+      <c r="N62" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="3" t="n">
+      <c r="O62" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="5" t="n">
         <v>45306</v>
       </c>
-      <c r="Q62" s="3" t="n">
+      <c r="Q62" s="5" t="n">
         <v>45299</v>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="R62" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="4" t="inlineStr">
         <is>
           <t>2023-11-043</t>
         </is>
       </c>
-      <c r="T62" s="3" t="n">
+      <c r="T62" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U62" s="3" t="n">
+      <c r="U62" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V62" s="3" t="n">
+      <c r="V62" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W62" s="3" t="n">
+      <c r="W62" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X62" s="3" t="n">
+      <c r="X62" s="5" t="n">
         <v>45246</v>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="Y62" s="4" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
+      <c r="Z62" s="4" t="inlineStr"/>
+      <c r="AA62" s="4" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="4" t="n">
         <v>113872</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t>P. Basas ES</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="4" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G63" t="n">
-        <v>2</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="G63" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="K63" s="4" t="n">
         <v>780368</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="M63" s="4" t="inlineStr"/>
+      <c r="N63" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O63" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="3" t="n">
+      <c r="O63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="5" t="n">
         <v>45306</v>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="Q63" s="4" t="inlineStr"/>
+      <c r="R63" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="S63" s="4" t="inlineStr">
         <is>
           <t>2023-11-043</t>
         </is>
       </c>
-      <c r="T63" s="3" t="n">
+      <c r="T63" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U63" s="3" t="n">
+      <c r="U63" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V63" s="3" t="n">
+      <c r="V63" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W63" s="3" t="n">
+      <c r="W63" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X63" s="3" t="n">
+      <c r="X63" s="5" t="n">
         <v>45246</v>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="Y63" s="4" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
+      <c r="Z63" s="4" t="inlineStr"/>
+      <c r="AA63" s="4" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="4" t="n">
         <v>113873</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>Progreso ES</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G64" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="G64" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="K64" s="4" t="n">
         <v>758724</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="M64" s="4" t="inlineStr"/>
+      <c r="N64" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O64" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="3" t="n">
+      <c r="O64" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="5" t="n">
         <v>45306</v>
       </c>
-      <c r="Q64" s="3" t="n">
+      <c r="Q64" s="5" t="n">
         <v>45299</v>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="R64" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="S64" s="4" t="inlineStr">
         <is>
           <t>2023-11-044</t>
         </is>
       </c>
-      <c r="T64" s="3" t="n">
+      <c r="T64" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U64" s="3" t="n">
+      <c r="U64" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V64" s="3" t="n">
+      <c r="V64" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W64" s="3" t="n">
+      <c r="W64" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X64" s="3" t="n">
+      <c r="X64" s="5" t="n">
         <v>45246</v>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Y64" s="4" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
+      <c r="Z64" s="4" t="inlineStr"/>
+      <c r="AA64" s="4" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="4" t="n">
         <v>113881</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t>Valparaiso ES</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G65" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="G65" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="K65" s="4" t="n">
         <v>710556</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="M65" s="4" t="inlineStr"/>
+      <c r="N65" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="3" t="n">
+      <c r="O65" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="5" t="n">
         <v>45306</v>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="Q65" s="4" t="inlineStr"/>
+      <c r="R65" s="4" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="S65" s="4" t="inlineStr">
         <is>
           <t>2023-11-044</t>
         </is>
       </c>
-      <c r="T65" s="3" t="n">
+      <c r="T65" s="5" t="n">
         <v>45197</v>
       </c>
-      <c r="U65" s="3" t="n">
+      <c r="U65" s="5" t="n">
         <v>45205</v>
       </c>
-      <c r="V65" s="3" t="n">
+      <c r="V65" s="5" t="n">
         <v>45217</v>
       </c>
-      <c r="W65" s="3" t="n">
+      <c r="W65" s="5" t="n">
         <v>45233</v>
       </c>
-      <c r="X65" s="3" t="n">
+      <c r="X65" s="5" t="n">
         <v>45246</v>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="Y65" s="4" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
+      <c r="Z65" s="4" t="inlineStr"/>
+      <c r="AA65" s="4" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="4" t="n">
         <v>113987</v>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t>Macabari Elementary School</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="G66" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="K66" s="4" t="n">
         <v>620000</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="M66" s="4" t="n">
         <v>409181.1</v>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N66" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O66" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" s="3" t="n">
+      <c r="O66" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="5" t="n">
         <v>45086</v>
       </c>
-      <c r="Q66" s="3" t="n">
+      <c r="Q66" s="5" t="n">
         <v>45210</v>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="R66" s="4" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="S66" s="4" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T66" s="3" t="n">
+      <c r="T66" s="5" t="n">
         <v>44930</v>
       </c>
-      <c r="U66" s="3" t="n">
+      <c r="U66" s="5" t="n">
         <v>44938</v>
       </c>
-      <c r="V66" s="3" t="n">
+      <c r="V66" s="5" t="n">
         <v>44950</v>
       </c>
-      <c r="W66" s="3" t="n">
+      <c r="W66" s="5" t="n">
         <v>44956</v>
       </c>
-      <c r="X66" s="3" t="n">
+      <c r="X66" s="5" t="n">
         <v>44967</v>
       </c>
-      <c r="Y66" t="inlineStr">
+      <c r="Y66" s="4" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
+      <c r="Z66" s="4" t="inlineStr"/>
+      <c r="AA66" s="4" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="4" t="n">
         <v>302184</v>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t>Barcelona National Comprehensive High School</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="G67" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="K67" s="4" t="n">
         <v>600000</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="M67" s="4" t="n">
         <v>395982.07</v>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N67" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O67" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" s="3" t="n">
+      <c r="O67" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="5" t="n">
         <v>45086</v>
       </c>
-      <c r="Q67" s="3" t="n">
+      <c r="Q67" s="5" t="n">
         <v>45160</v>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="R67" s="4" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="S67" s="4" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T67" s="3" t="n">
+      <c r="T67" s="5" t="n">
         <v>44930</v>
       </c>
-      <c r="U67" s="3" t="n">
+      <c r="U67" s="5" t="n">
         <v>44938</v>
       </c>
-      <c r="V67" s="3" t="n">
+      <c r="V67" s="5" t="n">
         <v>44950</v>
       </c>
-      <c r="W67" s="3" t="n">
+      <c r="W67" s="5" t="n">
         <v>44956</v>
       </c>
-      <c r="X67" s="3" t="n">
+      <c r="X67" s="5" t="n">
         <v>44967</v>
       </c>
-      <c r="Y67" t="inlineStr">
+      <c r="Y67" s="4" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
+      <c r="Z67" s="4" t="inlineStr"/>
+      <c r="AA67" s="4" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="4" t="n">
         <v>302218</v>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" s="4" t="inlineStr">
         <is>
           <t>Celso F. Falcotelo National High School</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" s="4" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G68" t="n">
-        <v>2</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="G68" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="K68" s="4" t="n">
         <v>650000</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" s="4" t="n">
         <v>428986.32</v>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N68" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O68" t="n">
-        <v>1</v>
-      </c>
-      <c r="P68" s="3" t="n">
+      <c r="O68" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="5" t="n">
         <v>45086</v>
       </c>
-      <c r="Q68" s="3" t="n">
+      <c r="Q68" s="5" t="n">
         <v>45160</v>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="R68" s="4" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="S68" s="4" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T68" s="3" t="n">
+      <c r="T68" s="5" t="n">
         <v>44930</v>
       </c>
-      <c r="U68" s="3" t="n">
+      <c r="U68" s="5" t="n">
         <v>44938</v>
       </c>
-      <c r="V68" s="3" t="n">
+      <c r="V68" s="5" t="n">
         <v>44950</v>
       </c>
-      <c r="W68" s="3" t="n">
+      <c r="W68" s="5" t="n">
         <v>44956</v>
       </c>
-      <c r="X68" s="3" t="n">
+      <c r="X68" s="5" t="n">
         <v>44967</v>
       </c>
-      <c r="Y68" t="inlineStr">
+      <c r="Y68" s="4" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
+      <c r="Z68" s="4" t="inlineStr"/>
+      <c r="AA68" s="4" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="4" t="n">
         <v>114391</v>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" s="4" t="inlineStr">
         <is>
           <t>Calao ES</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="4" t="inlineStr">
         <is>
           <t>PRIETO DIAZ</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>2</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="G69" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="K69" s="4" t="n">
         <v>650000</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" s="4" t="n">
         <v>428922.22</v>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N69" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O69" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="3" t="n">
+      <c r="O69" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="5" t="n">
         <v>45094</v>
       </c>
-      <c r="Q69" s="3" t="n">
+      <c r="Q69" s="5" t="n">
         <v>45142</v>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="R69" s="4" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="S69" s="4" t="inlineStr">
         <is>
           <t>23-01-001-02</t>
         </is>
       </c>
-      <c r="T69" s="3" t="n">
+      <c r="T69" s="5" t="n">
         <v>44930</v>
       </c>
-      <c r="U69" s="3" t="n">
+      <c r="U69" s="5" t="n">
         <v>44938</v>
       </c>
-      <c r="V69" s="3" t="n">
+      <c r="V69" s="5" t="n">
         <v>44950</v>
       </c>
-      <c r="W69" s="3" t="n">
+      <c r="W69" s="5" t="n">
         <v>44956</v>
       </c>
-      <c r="X69" s="3" t="n">
+      <c r="X69" s="5" t="n">
         <v>44967</v>
       </c>
-      <c r="Y69" t="inlineStr">
+      <c r="Y69" s="4" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
+      <c r="Z69" s="4" t="inlineStr"/>
+      <c r="AA69" s="4" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="4" t="n">
         <v>302223</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="4" t="inlineStr">
         <is>
           <t>Manlabong National High School</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="4" t="inlineStr">
         <is>
           <t>PRIETO DIAZ</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>2</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="G70" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="K70" s="4" t="n">
         <v>653305.03</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" s="4" t="n">
         <v>431102.51</v>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P70" s="3" t="n">
+      <c r="O70" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" s="5" t="n">
         <v>45094</v>
       </c>
-      <c r="Q70" s="3" t="n">
+      <c r="Q70" s="5" t="n">
         <v>45142</v>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="R70" s="4" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="4" t="inlineStr">
         <is>
           <t>23-01-001-02</t>
         </is>
       </c>
-      <c r="T70" s="3" t="n">
+      <c r="T70" s="5" t="n">
         <v>44930</v>
       </c>
-      <c r="U70" s="3" t="n">
+      <c r="U70" s="5" t="n">
         <v>44938</v>
       </c>
-      <c r="V70" s="3" t="n">
+      <c r="V70" s="5" t="n">
         <v>44950</v>
       </c>
-      <c r="W70" s="3" t="n">
+      <c r="W70" s="5" t="n">
         <v>44956</v>
       </c>
-      <c r="X70" s="3" t="n">
+      <c r="X70" s="5" t="n">
         <v>44967</v>
       </c>
-      <c r="Y70" t="inlineStr">
+      <c r="Y70" s="4" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
+      <c r="Z70" s="4" t="inlineStr"/>
+      <c r="AA70" s="4" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="4" t="n">
         <v>114411</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="4" t="inlineStr">
         <is>
           <t>Salvacion ES</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" s="4" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>2</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="G71" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="K71" s="4" t="n">
         <v>650000</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="M71" s="4" t="n">
         <v>429065.08</v>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N71" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O71" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="3" t="n">
+      <c r="O71" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="5" t="n">
         <v>45096</v>
       </c>
-      <c r="Q71" s="3" t="n">
+      <c r="Q71" s="5" t="n">
         <v>45279</v>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="R71" s="4" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="S71" s="4" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T71" s="3" t="n">
+      <c r="T71" s="5" t="n">
         <v>44930</v>
       </c>
-      <c r="U71" s="3" t="n">
+      <c r="U71" s="5" t="n">
         <v>44938</v>
       </c>
-      <c r="V71" s="3" t="n">
+      <c r="V71" s="5" t="n">
         <v>44950</v>
       </c>
-      <c r="W71" s="3" t="n">
+      <c r="W71" s="5" t="n">
         <v>44956</v>
       </c>
-      <c r="X71" s="3" t="n">
+      <c r="X71" s="5" t="n">
         <v>44967</v>
       </c>
-      <c r="Y71" t="inlineStr">
+      <c r="Y71" s="4" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
+      <c r="Z71" s="4" t="inlineStr"/>
+      <c r="AA71" s="4" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="4" t="n">
         <v>114416</v>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" s="4" t="inlineStr">
         <is>
           <t>Talaonga ES</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G72" t="n">
-        <v>2</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="G72" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="K72" s="4" t="n">
         <v>580000</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="M72" s="4" t="n">
         <v>382655.47</v>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N72" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P72" s="3" t="n">
+      <c r="O72" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" s="5" t="n">
         <v>45096</v>
       </c>
-      <c r="Q72" s="3" t="n">
+      <c r="Q72" s="5" t="n">
         <v>45279</v>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="R72" s="4" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="S72" s="4" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T72" s="3" t="n">
+      <c r="T72" s="5" t="n">
         <v>44930</v>
       </c>
-      <c r="U72" s="3" t="n">
+      <c r="U72" s="5" t="n">
         <v>44938</v>
       </c>
-      <c r="V72" s="3" t="n">
+      <c r="V72" s="5" t="n">
         <v>44950</v>
       </c>
-      <c r="W72" s="3" t="n">
+      <c r="W72" s="5" t="n">
         <v>44956</v>
       </c>
-      <c r="X72" s="3" t="n">
+      <c r="X72" s="5" t="n">
         <v>44967</v>
       </c>
-      <c r="Y72" t="inlineStr">
+      <c r="Y72" s="4" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
+      <c r="Z72" s="4" t="inlineStr"/>
+      <c r="AA72" s="4" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="4" t="n">
         <v>302245</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="4" t="inlineStr">
         <is>
           <t>Sta. Magdalena National High School</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G73" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="G73" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="K73" s="4" t="n">
         <v>650000</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="M73" s="4" t="n">
         <v>429065.46</v>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N73" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O73" t="n">
-        <v>1</v>
-      </c>
-      <c r="P73" s="3" t="n">
+      <c r="O73" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" s="5" t="n">
         <v>45096</v>
       </c>
-      <c r="Q73" s="3" t="n">
+      <c r="Q73" s="5" t="n">
         <v>45279</v>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="R73" s="4" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="S73" s="4" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T73" s="3" t="n">
+      <c r="T73" s="5" t="n">
         <v>44930</v>
       </c>
-      <c r="U73" s="3" t="n">
+      <c r="U73" s="5" t="n">
         <v>44938</v>
       </c>
-      <c r="V73" s="3" t="n">
+      <c r="V73" s="5" t="n">
         <v>44950</v>
       </c>
-      <c r="W73" s="3" t="n">
+      <c r="W73" s="5" t="n">
         <v>44956</v>
       </c>
-      <c r="X73" s="3" t="n">
+      <c r="X73" s="5" t="n">
         <v>44967</v>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="Y73" s="4" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
+      <c r="Z73" s="4" t="inlineStr"/>
+      <c r="AA73" s="4" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AF2:AF73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
+++ b/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,6327 +447,6357 @@
   <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="46" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="211" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="61" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>112109</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Camacho Aler Elementary School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>CAPALONGA</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="inlineStr"/>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="inlineStr"/>
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">  Construction of Water and Sanitation Facilities - 4-Seater, Rain Water Collector and 10 Faucets Handwashing Facility with Roofing, Counter Tile Finish 2 Units</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>1862376</v>
       </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="n">
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="n">
         <v>1844368.38</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>August 4, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>July 30, 2024</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>INFRA07-11-2023CN</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>INFRA07-11-2023CN</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>November 15, 2023</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>December 5, 2023</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>January 16, 2024</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>June 5, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>Meltri Construction Services</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="n"/>
+      <c r="AA2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Iriga City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>114445</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Iriga South CS</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>IRIGA CITY</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary 1 Unit (Option 1A - with Roofing, with Counter, with Tile Finish) and 1 Unit (OPTION 3A - One-Sided, without Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>586727.75</v>
       </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="n">
         <v>586210.48</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>August 29, 2024</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>August 23, 2024</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>2024-01-29-PR-011</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>INFRA-24-06-06-001</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>February 16, 2024</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>February 26, 2024</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>March 12, 2024</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>March 18, 2024</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>Tripartite Eng'g and Construction</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="n"/>
+      <c r="AA3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Ligao City</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>111844</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Ligao West CES (Binatagan)</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>CITY OF LIGAO</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>2911074.79</v>
       </c>
-      <c r="L4" s="4" t="inlineStr"/>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
         <v>2906241.32</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>2023-INFRA-01</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>2023-INFRA-01</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>December 4, 2024</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>June 3, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>La Abel Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr"/>
-      <c r="AA4" s="4" t="n"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>113770</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Monreal Central School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>MONREAL</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>3192342.78</v>
       </c>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
         <v>3189548.77</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>2024-024</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr"/>
-      <c r="AA5" s="4" t="n"/>
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>113876</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>San Fernando CS</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>3201465.5</v>
       </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
         <v>3198180.97</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>2024-025</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="n"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>113900</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>San Jacinto CS</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>3201465.5</v>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
         <v>3181448.42</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>2024-023</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="4" t="n"/>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>114183</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Vinisitahan ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>DONSOL</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>2779451.4</v>
       </c>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="n">
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
         <v>2583307.17</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>April 24, 2025</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>April 24, 2025</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>24-06-002</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>24-06-002</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>June 29, 2024</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>October 16, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>Golden Tiller Construction and Supply</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="4" t="n"/>
+      <c r="Z8" s="5" t="inlineStr"/>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>112274</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>San Ramon ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO RUIZ (IMELDA)</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="G9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>793742</v>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="inlineStr"/>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr"/>
-      <c r="Z9" s="4" t="inlineStr"/>
-      <c r="AA9" s="4" t="n"/>
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="5" t="inlineStr"/>
+      <c r="W9" s="5" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr"/>
+      <c r="Y9" s="5" t="inlineStr"/>
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>112264</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>L. Opeda Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>556309</v>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr"/>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="inlineStr"/>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr"/>
-      <c r="S10" s="4" t="inlineStr"/>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
-      <c r="X10" s="4" t="inlineStr"/>
-      <c r="Y10" s="4" t="inlineStr"/>
-      <c r="Z10" s="4" t="inlineStr"/>
-      <c r="AA10" s="4" t="n"/>
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr"/>
+      <c r="W10" s="5" t="inlineStr"/>
+      <c r="X10" s="5" t="inlineStr"/>
+      <c r="Y10" s="5" t="inlineStr"/>
+      <c r="Z10" s="5" t="inlineStr"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>112759</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Bombon Central School</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5" t="n">
+      <c r="O11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="n">
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T11" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X11" s="5" t="n">
+      <c r="X11" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr"/>
-      <c r="AA11" s="4" t="n"/>
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>112771</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Sto. Domingo Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr"/>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="4" t="n">
+      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="R12" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X12" s="5" t="n">
+      <c r="X12" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr"/>
-      <c r="AA12" s="4" t="n"/>
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>309707</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Siembre High School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr"/>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q13" s="4" t="inlineStr"/>
-      <c r="R13" s="4" t="n">
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X13" s="5" t="n">
+      <c r="X13" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr"/>
-      <c r="AA13" s="4" t="n"/>
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>302051</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Sta. Lutgarda HS (Junior High)</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Cabusao</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="G14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>569311.1899999999</v>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr"/>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5" t="n">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="4" t="n">
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X14" s="5" t="n">
+      <c r="X14" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="4" t="n"/>
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>112498</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Camaligan Central School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="G15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>427582</v>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="n">
+      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="R15" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="T15" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="4" t="n"/>
+      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="AA15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>112499</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Dugcal ES</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr"/>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr"/>
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q16" s="4" t="inlineStr"/>
-      <c r="R16" s="4" t="n">
+      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="R16" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T16" s="5" t="n">
+      <c r="T16" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X16" s="5" t="n">
+      <c r="X16" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr"/>
-      <c r="AA16" s="4" t="n"/>
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>302052</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Camaligan National High School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>427582</v>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr"/>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr"/>
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5" t="n">
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="n">
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="T17" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X17" s="5" t="n">
+      <c r="X17" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr"/>
-      <c r="AA17" s="4" t="n"/>
+      <c r="Z17" s="5" t="inlineStr"/>
+      <c r="AA17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>112779</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Gainza CS - Gainza</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>GAINZA</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="G18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>573205.47</v>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr"/>
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="5" t="n">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q18" s="4" t="inlineStr"/>
-      <c r="R18" s="4" t="n">
+      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="R18" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X18" s="5" t="n">
+      <c r="X18" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr"/>
-      <c r="AA18" s="4" t="n"/>
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>113154</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Bugao Central ES</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="G19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="L19" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
-      <c r="Y19" s="4" t="inlineStr"/>
-      <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="4" t="n"/>
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5" t="inlineStr"/>
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr"/>
+      <c r="V19" s="5" t="inlineStr"/>
+      <c r="W19" s="5" t="inlineStr"/>
+      <c r="X19" s="5" t="inlineStr"/>
+      <c r="Y19" s="5" t="inlineStr"/>
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>113155</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Cahan Bo. Sch.</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="G20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr"/>
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4" t="inlineStr"/>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="inlineStr"/>
-      <c r="U20" s="4" t="inlineStr"/>
-      <c r="V20" s="4" t="inlineStr"/>
-      <c r="W20" s="4" t="inlineStr"/>
-      <c r="X20" s="4" t="inlineStr"/>
-      <c r="Y20" s="4" t="inlineStr"/>
-      <c r="Z20" s="4" t="inlineStr"/>
-      <c r="AA20" s="4" t="n"/>
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5" t="inlineStr"/>
+      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr"/>
+      <c r="U20" s="5" t="inlineStr"/>
+      <c r="V20" s="5" t="inlineStr"/>
+      <c r="W20" s="5" t="inlineStr"/>
+      <c r="X20" s="5" t="inlineStr"/>
+      <c r="Y20" s="5" t="inlineStr"/>
+      <c r="Z20" s="5" t="inlineStr"/>
+      <c r="AA20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>113161</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Bagamanoc CES</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="G21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="L21" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr"/>
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="4" t="inlineStr"/>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr"/>
-      <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr"/>
-      <c r="V21" s="4" t="inlineStr"/>
-      <c r="W21" s="4" t="inlineStr"/>
-      <c r="X21" s="4" t="inlineStr"/>
-      <c r="Y21" s="4" t="inlineStr"/>
-      <c r="Z21" s="4" t="inlineStr"/>
-      <c r="AA21" s="4" t="n"/>
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5" t="inlineStr"/>
+      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr"/>
+      <c r="U21" s="5" t="inlineStr"/>
+      <c r="V21" s="5" t="inlineStr"/>
+      <c r="W21" s="5" t="inlineStr"/>
+      <c r="X21" s="5" t="inlineStr"/>
+      <c r="Y21" s="5" t="inlineStr"/>
+      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="AA21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>113164</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Salvacion ES</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr"/>
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4" t="inlineStr"/>
-      <c r="Q22" s="4" t="inlineStr"/>
-      <c r="R22" s="4" t="inlineStr"/>
-      <c r="S22" s="4" t="inlineStr"/>
-      <c r="T22" s="4" t="inlineStr"/>
-      <c r="U22" s="4" t="inlineStr"/>
-      <c r="V22" s="4" t="inlineStr"/>
-      <c r="W22" s="4" t="inlineStr"/>
-      <c r="X22" s="4" t="inlineStr"/>
-      <c r="Y22" s="4" t="inlineStr"/>
-      <c r="Z22" s="4" t="inlineStr"/>
-      <c r="AA22" s="4" t="n"/>
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5" t="inlineStr"/>
+      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr"/>
+      <c r="U22" s="5" t="inlineStr"/>
+      <c r="V22" s="5" t="inlineStr"/>
+      <c r="W22" s="5" t="inlineStr"/>
+      <c r="X22" s="5" t="inlineStr"/>
+      <c r="Y22" s="5" t="inlineStr"/>
+      <c r="Z22" s="5" t="inlineStr"/>
+      <c r="AA22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>113165</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Suchan Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="L23" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr"/>
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4" t="inlineStr"/>
-      <c r="Q23" s="4" t="inlineStr"/>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr"/>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="4" t="inlineStr"/>
-      <c r="V23" s="4" t="inlineStr"/>
-      <c r="W23" s="4" t="inlineStr"/>
-      <c r="X23" s="4" t="inlineStr"/>
-      <c r="Y23" s="4" t="inlineStr"/>
-      <c r="Z23" s="4" t="inlineStr"/>
-      <c r="AA23" s="4" t="n"/>
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5" t="inlineStr"/>
+      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="5" t="inlineStr"/>
+      <c r="V23" s="5" t="inlineStr"/>
+      <c r="W23" s="5" t="inlineStr"/>
+      <c r="X23" s="5" t="inlineStr"/>
+      <c r="Y23" s="5" t="inlineStr"/>
+      <c r="Z23" s="5" t="inlineStr"/>
+      <c r="AA23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>302072</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Bagamanoc Rural DHS</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="L24" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr"/>
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4" t="inlineStr"/>
-      <c r="Q24" s="4" t="inlineStr"/>
-      <c r="R24" s="4" t="inlineStr"/>
-      <c r="S24" s="4" t="inlineStr"/>
-      <c r="T24" s="4" t="inlineStr"/>
-      <c r="U24" s="4" t="inlineStr"/>
-      <c r="V24" s="4" t="inlineStr"/>
-      <c r="W24" s="4" t="inlineStr"/>
-      <c r="X24" s="4" t="inlineStr"/>
-      <c r="Y24" s="4" t="inlineStr"/>
-      <c r="Z24" s="4" t="inlineStr"/>
-      <c r="AA24" s="4" t="n"/>
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="inlineStr"/>
+      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr"/>
+      <c r="T24" s="5" t="inlineStr"/>
+      <c r="U24" s="5" t="inlineStr"/>
+      <c r="V24" s="5" t="inlineStr"/>
+      <c r="W24" s="5" t="inlineStr"/>
+      <c r="X24" s="5" t="inlineStr"/>
+      <c r="Y24" s="5" t="inlineStr"/>
+      <c r="Z24" s="5" t="inlineStr"/>
+      <c r="AA24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>113166</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Agban Central Elementary School</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="L25" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr"/>
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
-      <c r="X25" s="4" t="inlineStr"/>
-      <c r="Y25" s="4" t="inlineStr"/>
-      <c r="Z25" s="4" t="inlineStr"/>
-      <c r="AA25" s="4" t="n"/>
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5" t="inlineStr"/>
+      <c r="Q25" s="5" t="inlineStr"/>
+      <c r="R25" s="5" t="inlineStr"/>
+      <c r="S25" s="5" t="inlineStr"/>
+      <c r="T25" s="5" t="inlineStr"/>
+      <c r="U25" s="5" t="inlineStr"/>
+      <c r="V25" s="5" t="inlineStr"/>
+      <c r="W25" s="5" t="inlineStr"/>
+      <c r="X25" s="5" t="inlineStr"/>
+      <c r="Y25" s="5" t="inlineStr"/>
+      <c r="Z25" s="5" t="inlineStr"/>
+      <c r="AA25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>113172</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Abihao ES</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="L26" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
-      <c r="Y26" s="4" t="inlineStr"/>
-      <c r="Z26" s="4" t="inlineStr"/>
-      <c r="AA26" s="4" t="n"/>
+      <c r="O26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5" t="inlineStr"/>
+      <c r="Q26" s="5" t="inlineStr"/>
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr"/>
+      <c r="T26" s="5" t="inlineStr"/>
+      <c r="U26" s="5" t="inlineStr"/>
+      <c r="V26" s="5" t="inlineStr"/>
+      <c r="W26" s="5" t="inlineStr"/>
+      <c r="X26" s="5" t="inlineStr"/>
+      <c r="Y26" s="5" t="inlineStr"/>
+      <c r="Z26" s="5" t="inlineStr"/>
+      <c r="AA26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>113173</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Baras CES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="G27" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr"/>
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr"/>
-      <c r="T27" s="4" t="inlineStr"/>
-      <c r="U27" s="4" t="inlineStr"/>
-      <c r="V27" s="4" t="inlineStr"/>
-      <c r="W27" s="4" t="inlineStr"/>
-      <c r="X27" s="4" t="inlineStr"/>
-      <c r="Y27" s="4" t="inlineStr"/>
-      <c r="Z27" s="4" t="inlineStr"/>
-      <c r="AA27" s="4" t="n"/>
+      <c r="O27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="inlineStr"/>
+      <c r="Q27" s="5" t="inlineStr"/>
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr"/>
+      <c r="T27" s="5" t="inlineStr"/>
+      <c r="U27" s="5" t="inlineStr"/>
+      <c r="V27" s="5" t="inlineStr"/>
+      <c r="W27" s="5" t="inlineStr"/>
+      <c r="X27" s="5" t="inlineStr"/>
+      <c r="Y27" s="5" t="inlineStr"/>
+      <c r="Z27" s="5" t="inlineStr"/>
+      <c r="AA27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>113175</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Macutal Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
-      <c r="Y28" s="4" t="inlineStr"/>
-      <c r="Z28" s="4" t="inlineStr"/>
-      <c r="AA28" s="4" t="n"/>
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="inlineStr"/>
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr"/>
+      <c r="W28" s="5" t="inlineStr"/>
+      <c r="X28" s="5" t="inlineStr"/>
+      <c r="Y28" s="5" t="inlineStr"/>
+      <c r="Z28" s="5" t="inlineStr"/>
+      <c r="AA28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>113176</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Moning Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4" t="inlineStr"/>
-      <c r="Q29" s="4" t="inlineStr"/>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="4" t="inlineStr"/>
-      <c r="U29" s="4" t="inlineStr"/>
-      <c r="V29" s="4" t="inlineStr"/>
-      <c r="W29" s="4" t="inlineStr"/>
-      <c r="X29" s="4" t="inlineStr"/>
-      <c r="Y29" s="4" t="inlineStr"/>
-      <c r="Z29" s="4" t="inlineStr"/>
-      <c r="AA29" s="4" t="n"/>
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="inlineStr"/>
+      <c r="Q29" s="5" t="inlineStr"/>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr"/>
+      <c r="T29" s="5" t="inlineStr"/>
+      <c r="U29" s="5" t="inlineStr"/>
+      <c r="V29" s="5" t="inlineStr"/>
+      <c r="W29" s="5" t="inlineStr"/>
+      <c r="X29" s="5" t="inlineStr"/>
+      <c r="Y29" s="5" t="inlineStr"/>
+      <c r="Z29" s="5" t="inlineStr"/>
+      <c r="AA29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>302070</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Agban NHS</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L30" s="4" t="inlineStr">
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr"/>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4" t="inlineStr"/>
-      <c r="Q30" s="4" t="inlineStr"/>
-      <c r="R30" s="4" t="inlineStr"/>
-      <c r="S30" s="4" t="inlineStr"/>
-      <c r="T30" s="4" t="inlineStr"/>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
-      <c r="Z30" s="4" t="inlineStr"/>
-      <c r="AA30" s="4" t="n"/>
+      <c r="O30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5" t="inlineStr"/>
+      <c r="Q30" s="5" t="inlineStr"/>
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr"/>
+      <c r="V30" s="5" t="inlineStr"/>
+      <c r="W30" s="5" t="inlineStr"/>
+      <c r="X30" s="5" t="inlineStr"/>
+      <c r="Y30" s="5" t="inlineStr"/>
+      <c r="Z30" s="5" t="inlineStr"/>
+      <c r="AA30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>302073</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Baras Rural DHS</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="G31" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L31" s="4" t="inlineStr">
+      <c r="L31" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr"/>
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr"/>
-      <c r="W31" s="4" t="inlineStr"/>
-      <c r="X31" s="4" t="inlineStr"/>
-      <c r="Y31" s="4" t="inlineStr"/>
-      <c r="Z31" s="4" t="inlineStr"/>
-      <c r="AA31" s="4" t="n"/>
+      <c r="O31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5" t="inlineStr"/>
+      <c r="Q31" s="5" t="inlineStr"/>
+      <c r="R31" s="5" t="inlineStr"/>
+      <c r="S31" s="5" t="inlineStr"/>
+      <c r="T31" s="5" t="inlineStr"/>
+      <c r="U31" s="5" t="inlineStr"/>
+      <c r="V31" s="5" t="inlineStr"/>
+      <c r="W31" s="5" t="inlineStr"/>
+      <c r="X31" s="5" t="inlineStr"/>
+      <c r="Y31" s="5" t="inlineStr"/>
+      <c r="Z31" s="5" t="inlineStr"/>
+      <c r="AA31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>113182</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Bato Central Elementary School</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="G32" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L32" s="4" t="inlineStr">
+      <c r="L32" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M32" s="4" t="inlineStr"/>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr"/>
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4" t="inlineStr"/>
-      <c r="Q32" s="4" t="inlineStr"/>
-      <c r="R32" s="4" t="inlineStr"/>
-      <c r="S32" s="4" t="inlineStr"/>
-      <c r="T32" s="4" t="inlineStr"/>
-      <c r="U32" s="4" t="inlineStr"/>
-      <c r="V32" s="4" t="inlineStr"/>
-      <c r="W32" s="4" t="inlineStr"/>
-      <c r="X32" s="4" t="inlineStr"/>
-      <c r="Y32" s="4" t="inlineStr"/>
-      <c r="Z32" s="4" t="inlineStr"/>
-      <c r="AA32" s="4" t="n"/>
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5" t="inlineStr"/>
+      <c r="Q32" s="5" t="inlineStr"/>
+      <c r="R32" s="5" t="inlineStr"/>
+      <c r="S32" s="5" t="inlineStr"/>
+      <c r="T32" s="5" t="inlineStr"/>
+      <c r="U32" s="5" t="inlineStr"/>
+      <c r="V32" s="5" t="inlineStr"/>
+      <c r="W32" s="5" t="inlineStr"/>
+      <c r="X32" s="5" t="inlineStr"/>
+      <c r="Y32" s="5" t="inlineStr"/>
+      <c r="Z32" s="5" t="inlineStr"/>
+      <c r="AA32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>113192</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Guinobatan Elementay School</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="L33" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr"/>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr"/>
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4" t="inlineStr"/>
-      <c r="Q33" s="4" t="inlineStr"/>
-      <c r="R33" s="4" t="inlineStr"/>
-      <c r="S33" s="4" t="inlineStr"/>
-      <c r="T33" s="4" t="inlineStr"/>
-      <c r="U33" s="4" t="inlineStr"/>
-      <c r="V33" s="4" t="inlineStr"/>
-      <c r="W33" s="4" t="inlineStr"/>
-      <c r="X33" s="4" t="inlineStr"/>
-      <c r="Y33" s="4" t="inlineStr"/>
-      <c r="Z33" s="4" t="inlineStr"/>
-      <c r="AA33" s="4" t="n"/>
+      <c r="O33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5" t="inlineStr"/>
+      <c r="Q33" s="5" t="inlineStr"/>
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="inlineStr"/>
+      <c r="T33" s="5" t="inlineStr"/>
+      <c r="U33" s="5" t="inlineStr"/>
+      <c r="V33" s="5" t="inlineStr"/>
+      <c r="W33" s="5" t="inlineStr"/>
+      <c r="X33" s="5" t="inlineStr"/>
+      <c r="Y33" s="5" t="inlineStr"/>
+      <c r="Z33" s="5" t="inlineStr"/>
+      <c r="AA33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>113195</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Sipi Elementary School</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="L34" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M34" s="4" t="inlineStr"/>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr"/>
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4" t="inlineStr"/>
-      <c r="Q34" s="4" t="inlineStr"/>
-      <c r="R34" s="4" t="inlineStr"/>
-      <c r="S34" s="4" t="inlineStr"/>
-      <c r="T34" s="4" t="inlineStr"/>
-      <c r="U34" s="4" t="inlineStr"/>
-      <c r="V34" s="4" t="inlineStr"/>
-      <c r="W34" s="4" t="inlineStr"/>
-      <c r="X34" s="4" t="inlineStr"/>
-      <c r="Y34" s="4" t="inlineStr"/>
-      <c r="Z34" s="4" t="inlineStr"/>
-      <c r="AA34" s="4" t="n"/>
+      <c r="O34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5" t="inlineStr"/>
+      <c r="Q34" s="5" t="inlineStr"/>
+      <c r="R34" s="5" t="inlineStr"/>
+      <c r="S34" s="5" t="inlineStr"/>
+      <c r="T34" s="5" t="inlineStr"/>
+      <c r="U34" s="5" t="inlineStr"/>
+      <c r="V34" s="5" t="inlineStr"/>
+      <c r="W34" s="5" t="inlineStr"/>
+      <c r="X34" s="5" t="inlineStr"/>
+      <c r="Y34" s="5" t="inlineStr"/>
+      <c r="Z34" s="5" t="inlineStr"/>
+      <c r="AA34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>302074</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Bato Rural Development High School</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L35" s="4" t="inlineStr">
+      <c r="L35" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr"/>
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="4" t="inlineStr"/>
-      <c r="Q35" s="4" t="inlineStr"/>
-      <c r="R35" s="4" t="inlineStr"/>
-      <c r="S35" s="4" t="inlineStr"/>
-      <c r="T35" s="4" t="inlineStr"/>
-      <c r="U35" s="4" t="inlineStr"/>
-      <c r="V35" s="4" t="inlineStr"/>
-      <c r="W35" s="4" t="inlineStr"/>
-      <c r="X35" s="4" t="inlineStr"/>
-      <c r="Y35" s="4" t="inlineStr"/>
-      <c r="Z35" s="4" t="inlineStr"/>
-      <c r="AA35" s="4" t="n"/>
+      <c r="O35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="5" t="inlineStr"/>
+      <c r="Q35" s="5" t="inlineStr"/>
+      <c r="R35" s="5" t="inlineStr"/>
+      <c r="S35" s="5" t="inlineStr"/>
+      <c r="T35" s="5" t="inlineStr"/>
+      <c r="U35" s="5" t="inlineStr"/>
+      <c r="V35" s="5" t="inlineStr"/>
+      <c r="W35" s="5" t="inlineStr"/>
+      <c r="X35" s="5" t="inlineStr"/>
+      <c r="Y35" s="5" t="inlineStr"/>
+      <c r="Z35" s="5" t="inlineStr"/>
+      <c r="AA35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>500032</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Cabugao IS</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G36" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="G36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L36" s="4" t="inlineStr">
+      <c r="L36" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr"/>
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4" t="inlineStr"/>
-      <c r="Q36" s="4" t="inlineStr"/>
-      <c r="R36" s="4" t="inlineStr"/>
-      <c r="S36" s="4" t="inlineStr"/>
-      <c r="T36" s="4" t="inlineStr"/>
-      <c r="U36" s="4" t="inlineStr"/>
-      <c r="V36" s="4" t="inlineStr"/>
-      <c r="W36" s="4" t="inlineStr"/>
-      <c r="X36" s="4" t="inlineStr"/>
-      <c r="Y36" s="4" t="inlineStr"/>
-      <c r="Z36" s="4" t="inlineStr"/>
-      <c r="AA36" s="4" t="n"/>
+      <c r="O36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="inlineStr"/>
+      <c r="Q36" s="5" t="inlineStr"/>
+      <c r="R36" s="5" t="inlineStr"/>
+      <c r="S36" s="5" t="inlineStr"/>
+      <c r="T36" s="5" t="inlineStr"/>
+      <c r="U36" s="5" t="inlineStr"/>
+      <c r="V36" s="5" t="inlineStr"/>
+      <c r="W36" s="5" t="inlineStr"/>
+      <c r="X36" s="5" t="inlineStr"/>
+      <c r="Y36" s="5" t="inlineStr"/>
+      <c r="Z36" s="5" t="inlineStr"/>
+      <c r="AA36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>500412</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Bote IS</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G37" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L37" s="4" t="inlineStr">
+      <c r="L37" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr"/>
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4" t="inlineStr"/>
-      <c r="Q37" s="4" t="inlineStr"/>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr"/>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr"/>
-      <c r="W37" s="4" t="inlineStr"/>
-      <c r="X37" s="4" t="inlineStr"/>
-      <c r="Y37" s="4" t="inlineStr"/>
-      <c r="Z37" s="4" t="inlineStr"/>
-      <c r="AA37" s="4" t="n"/>
+      <c r="O37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="5" t="inlineStr"/>
+      <c r="Q37" s="5" t="inlineStr"/>
+      <c r="R37" s="5" t="inlineStr"/>
+      <c r="S37" s="5" t="inlineStr"/>
+      <c r="T37" s="5" t="inlineStr"/>
+      <c r="U37" s="5" t="inlineStr"/>
+      <c r="V37" s="5" t="inlineStr"/>
+      <c r="W37" s="5" t="inlineStr"/>
+      <c r="X37" s="5" t="inlineStr"/>
+      <c r="Y37" s="5" t="inlineStr"/>
+      <c r="Z37" s="5" t="inlineStr"/>
+      <c r="AA37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>113220</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>Gigmoto CES</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L38" s="4" t="inlineStr">
+      <c r="L38" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr"/>
-      <c r="N38" s="4" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr"/>
+      <c r="N38" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4" t="inlineStr"/>
-      <c r="Q38" s="4" t="inlineStr"/>
-      <c r="R38" s="4" t="inlineStr"/>
-      <c r="S38" s="4" t="inlineStr"/>
-      <c r="T38" s="4" t="inlineStr"/>
-      <c r="U38" s="4" t="inlineStr"/>
-      <c r="V38" s="4" t="inlineStr"/>
-      <c r="W38" s="4" t="inlineStr"/>
-      <c r="X38" s="4" t="inlineStr"/>
-      <c r="Y38" s="4" t="inlineStr"/>
-      <c r="Z38" s="4" t="inlineStr"/>
-      <c r="AA38" s="4" t="n"/>
+      <c r="O38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5" t="inlineStr"/>
+      <c r="Q38" s="5" t="inlineStr"/>
+      <c r="R38" s="5" t="inlineStr"/>
+      <c r="S38" s="5" t="inlineStr"/>
+      <c r="T38" s="5" t="inlineStr"/>
+      <c r="U38" s="5" t="inlineStr"/>
+      <c r="V38" s="5" t="inlineStr"/>
+      <c r="W38" s="5" t="inlineStr"/>
+      <c r="X38" s="5" t="inlineStr"/>
+      <c r="Y38" s="5" t="inlineStr"/>
+      <c r="Z38" s="5" t="inlineStr"/>
+      <c r="AA38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>113221</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>San Pedro ES</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G39" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="L39" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr"/>
+      <c r="N39" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4" t="inlineStr"/>
-      <c r="Q39" s="4" t="inlineStr"/>
-      <c r="R39" s="4" t="inlineStr"/>
-      <c r="S39" s="4" t="inlineStr"/>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr"/>
-      <c r="W39" s="4" t="inlineStr"/>
-      <c r="X39" s="4" t="inlineStr"/>
-      <c r="Y39" s="4" t="inlineStr"/>
-      <c r="Z39" s="4" t="inlineStr"/>
-      <c r="AA39" s="4" t="n"/>
+      <c r="O39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5" t="inlineStr"/>
+      <c r="Q39" s="5" t="inlineStr"/>
+      <c r="R39" s="5" t="inlineStr"/>
+      <c r="S39" s="5" t="inlineStr"/>
+      <c r="T39" s="5" t="inlineStr"/>
+      <c r="U39" s="5" t="inlineStr"/>
+      <c r="V39" s="5" t="inlineStr"/>
+      <c r="W39" s="5" t="inlineStr"/>
+      <c r="X39" s="5" t="inlineStr"/>
+      <c r="Y39" s="5" t="inlineStr"/>
+      <c r="Z39" s="5" t="inlineStr"/>
+      <c r="AA39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>302088</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>Gigmoto Rural DHS</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="G40" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L40" s="4" t="inlineStr">
+      <c r="L40" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M40" s="4" t="inlineStr"/>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr"/>
+      <c r="N40" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4" t="inlineStr"/>
-      <c r="Q40" s="4" t="inlineStr"/>
-      <c r="R40" s="4" t="inlineStr"/>
-      <c r="S40" s="4" t="inlineStr"/>
-      <c r="T40" s="4" t="inlineStr"/>
-      <c r="U40" s="4" t="inlineStr"/>
-      <c r="V40" s="4" t="inlineStr"/>
-      <c r="W40" s="4" t="inlineStr"/>
-      <c r="X40" s="4" t="inlineStr"/>
-      <c r="Y40" s="4" t="inlineStr"/>
-      <c r="Z40" s="4" t="inlineStr"/>
-      <c r="AA40" s="4" t="n"/>
+      <c r="O40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="5" t="inlineStr"/>
+      <c r="Q40" s="5" t="inlineStr"/>
+      <c r="R40" s="5" t="inlineStr"/>
+      <c r="S40" s="5" t="inlineStr"/>
+      <c r="T40" s="5" t="inlineStr"/>
+      <c r="U40" s="5" t="inlineStr"/>
+      <c r="V40" s="5" t="inlineStr"/>
+      <c r="W40" s="5" t="inlineStr"/>
+      <c r="X40" s="5" t="inlineStr"/>
+      <c r="Y40" s="5" t="inlineStr"/>
+      <c r="Z40" s="5" t="inlineStr"/>
+      <c r="AA40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>500033</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>Sicmil Integrated School</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G41" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="G41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L41" s="4" t="inlineStr">
+      <c r="L41" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr">
+      <c r="M41" s="5" t="inlineStr"/>
+      <c r="N41" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4" t="inlineStr"/>
-      <c r="Q41" s="4" t="inlineStr"/>
-      <c r="R41" s="4" t="inlineStr"/>
-      <c r="S41" s="4" t="inlineStr"/>
-      <c r="T41" s="4" t="inlineStr"/>
-      <c r="U41" s="4" t="inlineStr"/>
-      <c r="V41" s="4" t="inlineStr"/>
-      <c r="W41" s="4" t="inlineStr"/>
-      <c r="X41" s="4" t="inlineStr"/>
-      <c r="Y41" s="4" t="inlineStr"/>
-      <c r="Z41" s="4" t="inlineStr"/>
-      <c r="AA41" s="4" t="n"/>
+      <c r="O41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5" t="inlineStr"/>
+      <c r="Q41" s="5" t="inlineStr"/>
+      <c r="R41" s="5" t="inlineStr"/>
+      <c r="S41" s="5" t="inlineStr"/>
+      <c r="T41" s="5" t="inlineStr"/>
+      <c r="U41" s="5" t="inlineStr"/>
+      <c r="V41" s="5" t="inlineStr"/>
+      <c r="W41" s="5" t="inlineStr"/>
+      <c r="X41" s="5" t="inlineStr"/>
+      <c r="Y41" s="5" t="inlineStr"/>
+      <c r="Z41" s="5" t="inlineStr"/>
+      <c r="AA41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="5" t="n">
         <v>113244</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>Alinawan ES</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G42" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="G42" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="K42" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L42" s="4" t="inlineStr">
+      <c r="L42" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M42" s="4" t="inlineStr"/>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="M42" s="5" t="inlineStr"/>
+      <c r="N42" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4" t="inlineStr"/>
-      <c r="Q42" s="4" t="inlineStr"/>
-      <c r="R42" s="4" t="inlineStr"/>
-      <c r="S42" s="4" t="inlineStr"/>
-      <c r="T42" s="4" t="inlineStr"/>
-      <c r="U42" s="4" t="inlineStr"/>
-      <c r="V42" s="4" t="inlineStr"/>
-      <c r="W42" s="4" t="inlineStr"/>
-      <c r="X42" s="4" t="inlineStr"/>
-      <c r="Y42" s="4" t="inlineStr"/>
-      <c r="Z42" s="4" t="inlineStr"/>
-      <c r="AA42" s="4" t="n"/>
+      <c r="O42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5" t="inlineStr"/>
+      <c r="Q42" s="5" t="inlineStr"/>
+      <c r="R42" s="5" t="inlineStr"/>
+      <c r="S42" s="5" t="inlineStr"/>
+      <c r="T42" s="5" t="inlineStr"/>
+      <c r="U42" s="5" t="inlineStr"/>
+      <c r="V42" s="5" t="inlineStr"/>
+      <c r="W42" s="5" t="inlineStr"/>
+      <c r="X42" s="5" t="inlineStr"/>
+      <c r="Y42" s="5" t="inlineStr"/>
+      <c r="Z42" s="5" t="inlineStr"/>
+      <c r="AA42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="5" t="n">
         <v>113251</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>Maculiw Comm. Sch.</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G43" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="G43" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="K43" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L43" s="4" t="inlineStr">
+      <c r="L43" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M43" s="4" t="inlineStr"/>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr"/>
+      <c r="N43" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="4" t="inlineStr"/>
-      <c r="Q43" s="4" t="inlineStr"/>
-      <c r="R43" s="4" t="inlineStr"/>
-      <c r="S43" s="4" t="inlineStr"/>
-      <c r="T43" s="4" t="inlineStr"/>
-      <c r="U43" s="4" t="inlineStr"/>
-      <c r="V43" s="4" t="inlineStr"/>
-      <c r="W43" s="4" t="inlineStr"/>
-      <c r="X43" s="4" t="inlineStr"/>
-      <c r="Y43" s="4" t="inlineStr"/>
-      <c r="Z43" s="4" t="inlineStr"/>
-      <c r="AA43" s="4" t="n"/>
+      <c r="O43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5" t="inlineStr"/>
+      <c r="Q43" s="5" t="inlineStr"/>
+      <c r="R43" s="5" t="inlineStr"/>
+      <c r="S43" s="5" t="inlineStr"/>
+      <c r="T43" s="5" t="inlineStr"/>
+      <c r="U43" s="5" t="inlineStr"/>
+      <c r="V43" s="5" t="inlineStr"/>
+      <c r="W43" s="5" t="inlineStr"/>
+      <c r="X43" s="5" t="inlineStr"/>
+      <c r="Y43" s="5" t="inlineStr"/>
+      <c r="Z43" s="5" t="inlineStr"/>
+      <c r="AA43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="5" t="n">
         <v>113252</v>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t>Panay Comm. Sch.</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G44" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="G44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="K44" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L44" s="4" t="inlineStr">
+      <c r="L44" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M44" s="4" t="inlineStr"/>
-      <c r="N44" s="4" t="inlineStr">
+      <c r="M44" s="5" t="inlineStr"/>
+      <c r="N44" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="4" t="inlineStr"/>
-      <c r="Q44" s="4" t="inlineStr"/>
-      <c r="R44" s="4" t="inlineStr"/>
-      <c r="S44" s="4" t="inlineStr"/>
-      <c r="T44" s="4" t="inlineStr"/>
-      <c r="U44" s="4" t="inlineStr"/>
-      <c r="V44" s="4" t="inlineStr"/>
-      <c r="W44" s="4" t="inlineStr"/>
-      <c r="X44" s="4" t="inlineStr"/>
-      <c r="Y44" s="4" t="inlineStr"/>
-      <c r="Z44" s="4" t="inlineStr"/>
-      <c r="AA44" s="4" t="n"/>
+      <c r="O44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="5" t="inlineStr"/>
+      <c r="Q44" s="5" t="inlineStr"/>
+      <c r="R44" s="5" t="inlineStr"/>
+      <c r="S44" s="5" t="inlineStr"/>
+      <c r="T44" s="5" t="inlineStr"/>
+      <c r="U44" s="5" t="inlineStr"/>
+      <c r="V44" s="5" t="inlineStr"/>
+      <c r="W44" s="5" t="inlineStr"/>
+      <c r="X44" s="5" t="inlineStr"/>
+      <c r="Y44" s="5" t="inlineStr"/>
+      <c r="Z44" s="5" t="inlineStr"/>
+      <c r="AA44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="5" t="n">
         <v>113253</v>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>Panganiban Central Elementary School</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G45" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="G45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="K45" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L45" s="4" t="inlineStr">
+      <c r="L45" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="4" t="inlineStr">
+      <c r="M45" s="5" t="inlineStr"/>
+      <c r="N45" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="4" t="inlineStr"/>
-      <c r="Q45" s="4" t="inlineStr"/>
-      <c r="R45" s="4" t="inlineStr"/>
-      <c r="S45" s="4" t="inlineStr"/>
-      <c r="T45" s="4" t="inlineStr"/>
-      <c r="U45" s="4" t="inlineStr"/>
-      <c r="V45" s="4" t="inlineStr"/>
-      <c r="W45" s="4" t="inlineStr"/>
-      <c r="X45" s="4" t="inlineStr"/>
-      <c r="Y45" s="4" t="inlineStr"/>
-      <c r="Z45" s="4" t="inlineStr"/>
-      <c r="AA45" s="4" t="n"/>
+      <c r="O45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5" t="inlineStr"/>
+      <c r="Q45" s="5" t="inlineStr"/>
+      <c r="R45" s="5" t="inlineStr"/>
+      <c r="S45" s="5" t="inlineStr"/>
+      <c r="T45" s="5" t="inlineStr"/>
+      <c r="U45" s="5" t="inlineStr"/>
+      <c r="V45" s="5" t="inlineStr"/>
+      <c r="W45" s="5" t="inlineStr"/>
+      <c r="X45" s="5" t="inlineStr"/>
+      <c r="Y45" s="5" t="inlineStr"/>
+      <c r="Z45" s="5" t="inlineStr"/>
+      <c r="AA45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="5" t="n">
         <v>302095</v>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>Panganiban National High School</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G46" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="G46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="K46" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L46" s="4" t="inlineStr">
+      <c r="L46" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr">
+      <c r="M46" s="5" t="inlineStr"/>
+      <c r="N46" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="4" t="inlineStr"/>
-      <c r="Q46" s="4" t="inlineStr"/>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr"/>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr"/>
-      <c r="W46" s="4" t="inlineStr"/>
-      <c r="X46" s="4" t="inlineStr"/>
-      <c r="Y46" s="4" t="inlineStr"/>
-      <c r="Z46" s="4" t="inlineStr"/>
-      <c r="AA46" s="4" t="n"/>
+      <c r="O46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="5" t="inlineStr"/>
+      <c r="Q46" s="5" t="inlineStr"/>
+      <c r="R46" s="5" t="inlineStr"/>
+      <c r="S46" s="5" t="inlineStr"/>
+      <c r="T46" s="5" t="inlineStr"/>
+      <c r="U46" s="5" t="inlineStr"/>
+      <c r="V46" s="5" t="inlineStr"/>
+      <c r="W46" s="5" t="inlineStr"/>
+      <c r="X46" s="5" t="inlineStr"/>
+      <c r="Y46" s="5" t="inlineStr"/>
+      <c r="Z46" s="5" t="inlineStr"/>
+      <c r="AA46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="5" t="n">
         <v>309801</v>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr">
         <is>
           <t>Panganiban NHS (CAIC Compound)</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G47" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4" t="n">
+      <c r="G47" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="J47" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K47" s="4" t="n">
+      <c r="K47" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L47" s="4" t="inlineStr">
+      <c r="L47" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr">
+      <c r="M47" s="5" t="inlineStr"/>
+      <c r="N47" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="4" t="inlineStr"/>
-      <c r="Q47" s="4" t="inlineStr"/>
-      <c r="R47" s="4" t="inlineStr"/>
-      <c r="S47" s="4" t="inlineStr"/>
-      <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr"/>
-      <c r="V47" s="4" t="inlineStr"/>
-      <c r="W47" s="4" t="inlineStr"/>
-      <c r="X47" s="4" t="inlineStr"/>
-      <c r="Y47" s="4" t="inlineStr"/>
-      <c r="Z47" s="4" t="inlineStr"/>
-      <c r="AA47" s="4" t="n"/>
+      <c r="O47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="5" t="inlineStr"/>
+      <c r="Q47" s="5" t="inlineStr"/>
+      <c r="R47" s="5" t="inlineStr"/>
+      <c r="S47" s="5" t="inlineStr"/>
+      <c r="T47" s="5" t="inlineStr"/>
+      <c r="U47" s="5" t="inlineStr"/>
+      <c r="V47" s="5" t="inlineStr"/>
+      <c r="W47" s="5" t="inlineStr"/>
+      <c r="X47" s="5" t="inlineStr"/>
+      <c r="Y47" s="5" t="inlineStr"/>
+      <c r="Z47" s="5" t="inlineStr"/>
+      <c r="AA47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="5" t="n">
         <v>113285</v>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t>Alma Elementary School</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G48" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
+      <c r="G48" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K48" s="4" t="n">
+      <c r="K48" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L48" s="4" t="inlineStr">
+      <c r="L48" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr">
+      <c r="M48" s="5" t="inlineStr"/>
+      <c r="N48" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4" t="inlineStr"/>
-      <c r="Q48" s="4" t="inlineStr"/>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr"/>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
-      <c r="V48" s="4" t="inlineStr"/>
-      <c r="W48" s="4" t="inlineStr"/>
-      <c r="X48" s="4" t="inlineStr"/>
-      <c r="Y48" s="4" t="inlineStr"/>
-      <c r="Z48" s="4" t="inlineStr"/>
-      <c r="AA48" s="4" t="n"/>
+      <c r="O48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="5" t="inlineStr"/>
+      <c r="Q48" s="5" t="inlineStr"/>
+      <c r="R48" s="5" t="inlineStr"/>
+      <c r="S48" s="5" t="inlineStr"/>
+      <c r="T48" s="5" t="inlineStr"/>
+      <c r="U48" s="5" t="inlineStr"/>
+      <c r="V48" s="5" t="inlineStr"/>
+      <c r="W48" s="5" t="inlineStr"/>
+      <c r="X48" s="5" t="inlineStr"/>
+      <c r="Y48" s="5" t="inlineStr"/>
+      <c r="Z48" s="5" t="inlineStr"/>
+      <c r="AA48" s="6" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="5" t="n">
         <v>113287</v>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>Caglatawan Elementary School</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G49" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="G49" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K49" s="4" t="n">
+      <c r="K49" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="L49" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M49" s="4" t="inlineStr"/>
-      <c r="N49" s="4" t="inlineStr">
+      <c r="M49" s="5" t="inlineStr"/>
+      <c r="N49" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="4" t="inlineStr"/>
-      <c r="Q49" s="4" t="inlineStr"/>
-      <c r="R49" s="4" t="inlineStr"/>
-      <c r="S49" s="4" t="inlineStr"/>
-      <c r="T49" s="4" t="inlineStr"/>
-      <c r="U49" s="4" t="inlineStr"/>
-      <c r="V49" s="4" t="inlineStr"/>
-      <c r="W49" s="4" t="inlineStr"/>
-      <c r="X49" s="4" t="inlineStr"/>
-      <c r="Y49" s="4" t="inlineStr"/>
-      <c r="Z49" s="4" t="inlineStr"/>
-      <c r="AA49" s="4" t="n"/>
+      <c r="O49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="5" t="inlineStr"/>
+      <c r="Q49" s="5" t="inlineStr"/>
+      <c r="R49" s="5" t="inlineStr"/>
+      <c r="S49" s="5" t="inlineStr"/>
+      <c r="T49" s="5" t="inlineStr"/>
+      <c r="U49" s="5" t="inlineStr"/>
+      <c r="V49" s="5" t="inlineStr"/>
+      <c r="W49" s="5" t="inlineStr"/>
+      <c r="X49" s="5" t="inlineStr"/>
+      <c r="Y49" s="5" t="inlineStr"/>
+      <c r="Z49" s="5" t="inlineStr"/>
+      <c r="AA49" s="6" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="5" t="n">
         <v>113292</v>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t>Pagsangahan Elementary School</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G50" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" s="4" t="inlineStr">
+      <c r="G50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K50" s="4" t="n">
+      <c r="K50" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L50" s="4" t="inlineStr">
+      <c r="L50" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr">
+      <c r="M50" s="5" t="inlineStr"/>
+      <c r="N50" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4" t="inlineStr"/>
-      <c r="Q50" s="4" t="inlineStr"/>
-      <c r="R50" s="4" t="inlineStr"/>
-      <c r="S50" s="4" t="inlineStr"/>
-      <c r="T50" s="4" t="inlineStr"/>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr"/>
-      <c r="W50" s="4" t="inlineStr"/>
-      <c r="X50" s="4" t="inlineStr"/>
-      <c r="Y50" s="4" t="inlineStr"/>
-      <c r="Z50" s="4" t="inlineStr"/>
-      <c r="AA50" s="4" t="n"/>
+      <c r="O50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="5" t="inlineStr"/>
+      <c r="Q50" s="5" t="inlineStr"/>
+      <c r="R50" s="5" t="inlineStr"/>
+      <c r="S50" s="5" t="inlineStr"/>
+      <c r="T50" s="5" t="inlineStr"/>
+      <c r="U50" s="5" t="inlineStr"/>
+      <c r="V50" s="5" t="inlineStr"/>
+      <c r="W50" s="5" t="inlineStr"/>
+      <c r="X50" s="5" t="inlineStr"/>
+      <c r="Y50" s="5" t="inlineStr"/>
+      <c r="Z50" s="5" t="inlineStr"/>
+      <c r="AA50" s="6" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="5" t="n">
         <v>113298</v>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>J.M.A.-Tucao ES</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G51" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="G51" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K51" s="4" t="n">
+      <c r="K51" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L51" s="4" t="inlineStr">
+      <c r="L51" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr">
+      <c r="M51" s="5" t="inlineStr"/>
+      <c r="N51" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="4" t="inlineStr"/>
-      <c r="Q51" s="4" t="inlineStr"/>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="4" t="inlineStr"/>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
-      <c r="V51" s="4" t="inlineStr"/>
-      <c r="W51" s="4" t="inlineStr"/>
-      <c r="X51" s="4" t="inlineStr"/>
-      <c r="Y51" s="4" t="inlineStr"/>
-      <c r="Z51" s="4" t="inlineStr"/>
-      <c r="AA51" s="4" t="n"/>
+      <c r="O51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="5" t="inlineStr"/>
+      <c r="Q51" s="5" t="inlineStr"/>
+      <c r="R51" s="5" t="inlineStr"/>
+      <c r="S51" s="5" t="inlineStr"/>
+      <c r="T51" s="5" t="inlineStr"/>
+      <c r="U51" s="5" t="inlineStr"/>
+      <c r="V51" s="5" t="inlineStr"/>
+      <c r="W51" s="5" t="inlineStr"/>
+      <c r="X51" s="5" t="inlineStr"/>
+      <c r="Y51" s="5" t="inlineStr"/>
+      <c r="Z51" s="5" t="inlineStr"/>
+      <c r="AA51" s="6" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="5" t="n">
         <v>113305</v>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>San Miguel CES</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G52" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4" t="n">
+      <c r="G52" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J52" s="4" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K52" s="4" t="n">
+      <c r="K52" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L52" s="4" t="inlineStr">
+      <c r="L52" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M52" s="4" t="inlineStr"/>
-      <c r="N52" s="4" t="inlineStr">
+      <c r="M52" s="5" t="inlineStr"/>
+      <c r="N52" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="4" t="inlineStr"/>
-      <c r="Q52" s="4" t="inlineStr"/>
-      <c r="R52" s="4" t="inlineStr"/>
-      <c r="S52" s="4" t="inlineStr"/>
-      <c r="T52" s="4" t="inlineStr"/>
-      <c r="U52" s="4" t="inlineStr"/>
-      <c r="V52" s="4" t="inlineStr"/>
-      <c r="W52" s="4" t="inlineStr"/>
-      <c r="X52" s="4" t="inlineStr"/>
-      <c r="Y52" s="4" t="inlineStr"/>
-      <c r="Z52" s="4" t="inlineStr"/>
-      <c r="AA52" s="4" t="n"/>
+      <c r="O52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="5" t="inlineStr"/>
+      <c r="Q52" s="5" t="inlineStr"/>
+      <c r="R52" s="5" t="inlineStr"/>
+      <c r="S52" s="5" t="inlineStr"/>
+      <c r="T52" s="5" t="inlineStr"/>
+      <c r="U52" s="5" t="inlineStr"/>
+      <c r="V52" s="5" t="inlineStr"/>
+      <c r="W52" s="5" t="inlineStr"/>
+      <c r="X52" s="5" t="inlineStr"/>
+      <c r="Y52" s="5" t="inlineStr"/>
+      <c r="Z52" s="5" t="inlineStr"/>
+      <c r="AA52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="5" t="n">
         <v>302098</v>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>San Miguel Rural DHS</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G53" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4" t="n">
+      <c r="G53" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J53" s="4" t="inlineStr">
+      <c r="J53" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K53" s="4" t="n">
+      <c r="K53" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="L53" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M53" s="4" t="inlineStr"/>
-      <c r="N53" s="4" t="inlineStr">
+      <c r="M53" s="5" t="inlineStr"/>
+      <c r="N53" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="4" t="inlineStr"/>
-      <c r="Q53" s="4" t="inlineStr"/>
-      <c r="R53" s="4" t="inlineStr"/>
-      <c r="S53" s="4" t="inlineStr"/>
-      <c r="T53" s="4" t="inlineStr"/>
-      <c r="U53" s="4" t="inlineStr"/>
-      <c r="V53" s="4" t="inlineStr"/>
-      <c r="W53" s="4" t="inlineStr"/>
-      <c r="X53" s="4" t="inlineStr"/>
-      <c r="Y53" s="4" t="inlineStr"/>
-      <c r="Z53" s="4" t="inlineStr"/>
-      <c r="AA53" s="4" t="n"/>
+      <c r="O53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="5" t="inlineStr"/>
+      <c r="Q53" s="5" t="inlineStr"/>
+      <c r="R53" s="5" t="inlineStr"/>
+      <c r="S53" s="5" t="inlineStr"/>
+      <c r="T53" s="5" t="inlineStr"/>
+      <c r="U53" s="5" t="inlineStr"/>
+      <c r="V53" s="5" t="inlineStr"/>
+      <c r="W53" s="5" t="inlineStr"/>
+      <c r="X53" s="5" t="inlineStr"/>
+      <c r="Y53" s="5" t="inlineStr"/>
+      <c r="Z53" s="5" t="inlineStr"/>
+      <c r="AA53" s="6" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="5" t="n">
         <v>302099</v>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr">
         <is>
           <t>Mabato NHS (SMRDHS Annex)</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G54" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4" t="n">
+      <c r="G54" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J54" s="4" t="inlineStr">
+      <c r="J54" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K54" s="4" t="n">
+      <c r="K54" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L54" s="4" t="inlineStr">
+      <c r="L54" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M54" s="4" t="inlineStr"/>
-      <c r="N54" s="4" t="inlineStr">
+      <c r="M54" s="5" t="inlineStr"/>
+      <c r="N54" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="4" t="inlineStr"/>
-      <c r="Q54" s="4" t="inlineStr"/>
-      <c r="R54" s="4" t="inlineStr"/>
-      <c r="S54" s="4" t="inlineStr"/>
-      <c r="T54" s="4" t="inlineStr"/>
-      <c r="U54" s="4" t="inlineStr"/>
-      <c r="V54" s="4" t="inlineStr"/>
-      <c r="W54" s="4" t="inlineStr"/>
-      <c r="X54" s="4" t="inlineStr"/>
-      <c r="Y54" s="4" t="inlineStr"/>
-      <c r="Z54" s="4" t="inlineStr"/>
-      <c r="AA54" s="4" t="n"/>
+      <c r="O54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="5" t="inlineStr"/>
+      <c r="Q54" s="5" t="inlineStr"/>
+      <c r="R54" s="5" t="inlineStr"/>
+      <c r="S54" s="5" t="inlineStr"/>
+      <c r="T54" s="5" t="inlineStr"/>
+      <c r="U54" s="5" t="inlineStr"/>
+      <c r="V54" s="5" t="inlineStr"/>
+      <c r="W54" s="5" t="inlineStr"/>
+      <c r="X54" s="5" t="inlineStr"/>
+      <c r="Y54" s="5" t="inlineStr"/>
+      <c r="Z54" s="5" t="inlineStr"/>
+      <c r="AA54" s="6" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="5" t="n">
         <v>113484</v>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>Matabao ES</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>BATUAN</t>
         </is>
       </c>
-      <c r="G55" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="4" t="inlineStr">
+      <c r="G55" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K55" s="4" t="n">
+      <c r="K55" s="5" t="n">
         <v>725356</v>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="L55" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M55" s="4" t="inlineStr"/>
-      <c r="N55" s="4" t="inlineStr">
+      <c r="M55" s="5" t="inlineStr"/>
+      <c r="N55" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="5" t="n">
+      <c r="O55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q55" s="4" t="inlineStr"/>
-      <c r="R55" s="4" t="inlineStr">
+      <c r="Q55" s="5" t="inlineStr"/>
+      <c r="R55" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S55" s="4" t="inlineStr">
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>2023-03-042</t>
         </is>
       </c>
-      <c r="T55" s="5" t="n">
+      <c r="T55" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U55" s="5" t="n">
+      <c r="U55" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V55" s="5" t="n">
+      <c r="V55" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W55" s="5" t="n">
+      <c r="W55" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X55" s="5" t="n">
+      <c r="X55" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y55" s="4" t="inlineStr">
+      <c r="Y55" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z55" s="4" t="inlineStr"/>
-      <c r="AA55" s="4" t="n"/>
+      <c r="Z55" s="5" t="inlineStr"/>
+      <c r="AA55" s="6" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="5" t="n">
         <v>500165</v>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>Antonio Lee Llacer Sr. Integrated School</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>BATUAN</t>
         </is>
       </c>
-      <c r="G56" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="G56" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K56" s="4" t="n">
+      <c r="K56" s="5" t="n">
         <v>610169</v>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="L56" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M56" s="4" t="inlineStr"/>
-      <c r="N56" s="4" t="inlineStr">
+      <c r="M56" s="5" t="inlineStr"/>
+      <c r="N56" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="5" t="n">
+      <c r="O56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q56" s="4" t="inlineStr"/>
-      <c r="R56" s="4" t="inlineStr">
+      <c r="Q56" s="5" t="inlineStr"/>
+      <c r="R56" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S56" s="4" t="inlineStr">
+      <c r="S56" s="5" t="inlineStr">
         <is>
           <t>2023-03-042</t>
         </is>
       </c>
-      <c r="T56" s="5" t="n">
+      <c r="T56" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U56" s="5" t="n">
+      <c r="U56" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V56" s="5" t="n">
+      <c r="V56" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W56" s="5" t="n">
+      <c r="W56" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X56" s="5" t="n">
+      <c r="X56" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y56" s="4" t="inlineStr">
+      <c r="Y56" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z56" s="4" t="inlineStr"/>
-      <c r="AA56" s="4" t="n"/>
+      <c r="Z56" s="5" t="inlineStr"/>
+      <c r="AA56" s="6" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="5" t="n">
         <v>113620</v>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>Baras ES</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G57" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="4" t="inlineStr">
+      <c r="G57" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K57" s="4" t="n">
+      <c r="K57" s="5" t="n">
         <v>440032</v>
       </c>
-      <c r="L57" s="4" t="inlineStr">
+      <c r="L57" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M57" s="4" t="inlineStr"/>
-      <c r="N57" s="4" t="inlineStr">
+      <c r="M57" s="5" t="inlineStr"/>
+      <c r="N57" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="5" t="n">
+      <c r="O57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q57" s="4" t="inlineStr"/>
-      <c r="R57" s="4" t="inlineStr">
+      <c r="Q57" s="5" t="inlineStr"/>
+      <c r="R57" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S57" s="4" t="inlineStr">
+      <c r="S57" s="5" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T57" s="5" t="n">
+      <c r="T57" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U57" s="5" t="n">
+      <c r="U57" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V57" s="5" t="n">
+      <c r="V57" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W57" s="5" t="n">
+      <c r="W57" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X57" s="5" t="n">
+      <c r="X57" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y57" s="4" t="inlineStr">
+      <c r="Y57" s="5" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z57" s="4" t="inlineStr"/>
-      <c r="AA57" s="4" t="n"/>
+      <c r="Z57" s="5" t="inlineStr"/>
+      <c r="AA57" s="6" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="5" t="n">
         <v>113627</v>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E58" s="5" t="inlineStr">
         <is>
           <t>Masbaranon ES</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G58" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="4" t="inlineStr">
+      <c r="G58" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K58" s="4" t="n">
+      <c r="K58" s="5" t="n">
         <v>440031</v>
       </c>
-      <c r="L58" s="4" t="inlineStr">
+      <c r="L58" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M58" s="4" t="inlineStr"/>
-      <c r="N58" s="4" t="inlineStr">
+      <c r="M58" s="5" t="inlineStr"/>
+      <c r="N58" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="5" t="n">
+      <c r="O58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q58" s="4" t="inlineStr"/>
-      <c r="R58" s="4" t="inlineStr">
+      <c r="Q58" s="5" t="inlineStr"/>
+      <c r="R58" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S58" s="4" t="inlineStr">
+      <c r="S58" s="5" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T58" s="5" t="n">
+      <c r="T58" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U58" s="5" t="n">
+      <c r="U58" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V58" s="5" t="n">
+      <c r="V58" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W58" s="5" t="n">
+      <c r="W58" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X58" s="5" t="n">
+      <c r="X58" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y58" s="4" t="inlineStr">
+      <c r="Y58" s="5" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z58" s="4" t="inlineStr"/>
-      <c r="AA58" s="4" t="n"/>
+      <c r="Z58" s="5" t="inlineStr"/>
+      <c r="AA58" s="6" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="5" t="n">
         <v>113634</v>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E59" s="5" t="inlineStr">
         <is>
           <t>Tawad ES</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G59" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="G59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K59" s="4" t="n">
+      <c r="K59" s="5" t="n">
         <v>440031</v>
       </c>
-      <c r="L59" s="4" t="inlineStr">
+      <c r="L59" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M59" s="4" t="inlineStr"/>
-      <c r="N59" s="4" t="inlineStr">
+      <c r="M59" s="5" t="inlineStr"/>
+      <c r="N59" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="5" t="n">
+      <c r="O59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q59" s="4" t="inlineStr"/>
-      <c r="R59" s="4" t="inlineStr">
+      <c r="Q59" s="5" t="inlineStr"/>
+      <c r="R59" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S59" s="4" t="inlineStr">
+      <c r="S59" s="5" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T59" s="5" t="n">
+      <c r="T59" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U59" s="5" t="n">
+      <c r="U59" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V59" s="5" t="n">
+      <c r="V59" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W59" s="5" t="n">
+      <c r="W59" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X59" s="5" t="n">
+      <c r="X59" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y59" s="4" t="inlineStr">
+      <c r="Y59" s="5" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z59" s="4" t="inlineStr"/>
-      <c r="AA59" s="4" t="n"/>
+      <c r="Z59" s="5" t="inlineStr"/>
+      <c r="AA59" s="6" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="5" t="n">
         <v>113636</v>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t>Villa ES</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G60" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="4" t="inlineStr">
+      <c r="G60" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K60" s="4" t="n">
+      <c r="K60" s="5" t="n">
         <v>440031</v>
       </c>
-      <c r="L60" s="4" t="inlineStr">
+      <c r="L60" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M60" s="4" t="inlineStr"/>
-      <c r="N60" s="4" t="inlineStr">
+      <c r="M60" s="5" t="inlineStr"/>
+      <c r="N60" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="5" t="n">
+      <c r="O60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q60" s="4" t="inlineStr"/>
-      <c r="R60" s="4" t="inlineStr">
+      <c r="Q60" s="5" t="inlineStr"/>
+      <c r="R60" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S60" s="4" t="inlineStr">
+      <c r="S60" s="5" t="inlineStr">
         <is>
           <t>2023-11-046</t>
         </is>
       </c>
-      <c r="T60" s="5" t="n">
+      <c r="T60" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U60" s="5" t="n">
+      <c r="U60" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V60" s="5" t="n">
+      <c r="V60" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W60" s="5" t="n">
+      <c r="W60" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X60" s="5" t="n">
+      <c r="X60" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y60" s="4" t="inlineStr">
+      <c r="Y60" s="5" t="inlineStr">
         <is>
           <t>JRMG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z60" s="4" t="inlineStr"/>
-      <c r="AA60" s="4" t="n"/>
+      <c r="Z60" s="5" t="inlineStr"/>
+      <c r="AA60" s="6" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="5" t="n">
         <v>302171</v>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t>Santos E. Conag National High School</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G61" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4" t="inlineStr">
+      <c r="G61" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K61" s="4" t="n">
+      <c r="K61" s="5" t="n">
         <v>440032</v>
       </c>
-      <c r="L61" s="4" t="inlineStr">
+      <c r="L61" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M61" s="4" t="inlineStr"/>
-      <c r="N61" s="4" t="inlineStr">
+      <c r="M61" s="5" t="inlineStr"/>
+      <c r="N61" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="5" t="n">
+      <c r="O61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q61" s="4" t="inlineStr"/>
-      <c r="R61" s="4" t="inlineStr">
+      <c r="Q61" s="5" t="inlineStr"/>
+      <c r="R61" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S61" s="4" t="inlineStr">
+      <c r="S61" s="5" t="inlineStr">
         <is>
           <t>2023-11-046</t>
         </is>
       </c>
-      <c r="T61" s="5" t="n">
+      <c r="T61" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U61" s="5" t="n">
+      <c r="U61" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V61" s="5" t="n">
+      <c r="V61" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W61" s="5" t="n">
+      <c r="W61" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X61" s="5" t="n">
+      <c r="X61" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y61" s="4" t="inlineStr">
+      <c r="Y61" s="5" t="inlineStr">
         <is>
           <t>JRMG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z61" s="4" t="inlineStr"/>
-      <c r="AA61" s="4" t="n"/>
+      <c r="Z61" s="5" t="inlineStr"/>
+      <c r="AA61" s="6" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="5" t="n">
         <v>113863</v>
       </c>
-      <c r="E62" s="4" t="inlineStr">
+      <c r="E62" s="5" t="inlineStr">
         <is>
           <t>Buyo ES</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G62" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4" t="inlineStr">
+      <c r="G62" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K62" s="4" t="n">
+      <c r="K62" s="5" t="n">
         <v>717068</v>
       </c>
-      <c r="L62" s="4" t="inlineStr">
+      <c r="L62" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M62" s="4" t="inlineStr"/>
-      <c r="N62" s="4" t="inlineStr">
+      <c r="M62" s="5" t="inlineStr"/>
+      <c r="N62" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="5" t="n">
+      <c r="O62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q62" s="5" t="n">
+      <c r="Q62" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="R62" s="4" t="inlineStr">
+      <c r="R62" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S62" s="4" t="inlineStr">
+      <c r="S62" s="5" t="inlineStr">
         <is>
           <t>2023-11-043</t>
         </is>
       </c>
-      <c r="T62" s="5" t="n">
+      <c r="T62" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U62" s="5" t="n">
+      <c r="U62" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V62" s="5" t="n">
+      <c r="V62" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W62" s="5" t="n">
+      <c r="W62" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X62" s="5" t="n">
+      <c r="X62" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="Y62" s="4" t="inlineStr">
+      <c r="Y62" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z62" s="4" t="inlineStr"/>
-      <c r="AA62" s="4" t="n"/>
+      <c r="Z62" s="5" t="inlineStr"/>
+      <c r="AA62" s="6" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="5" t="n">
         <v>113872</v>
       </c>
-      <c r="E63" s="4" t="inlineStr">
+      <c r="E63" s="5" t="inlineStr">
         <is>
           <t>P. Basas ES</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G63" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4" t="inlineStr">
+      <c r="G63" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K63" s="4" t="n">
+      <c r="K63" s="5" t="n">
         <v>780368</v>
       </c>
-      <c r="L63" s="4" t="inlineStr">
+      <c r="L63" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M63" s="4" t="inlineStr"/>
-      <c r="N63" s="4" t="inlineStr">
+      <c r="M63" s="5" t="inlineStr"/>
+      <c r="N63" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="5" t="n">
+      <c r="O63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q63" s="4" t="inlineStr"/>
-      <c r="R63" s="4" t="inlineStr">
+      <c r="Q63" s="5" t="inlineStr"/>
+      <c r="R63" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S63" s="4" t="inlineStr">
+      <c r="S63" s="5" t="inlineStr">
         <is>
           <t>2023-11-043</t>
         </is>
       </c>
-      <c r="T63" s="5" t="n">
+      <c r="T63" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U63" s="5" t="n">
+      <c r="U63" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V63" s="5" t="n">
+      <c r="V63" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W63" s="5" t="n">
+      <c r="W63" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X63" s="5" t="n">
+      <c r="X63" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="Y63" s="4" t="inlineStr">
+      <c r="Y63" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z63" s="4" t="inlineStr"/>
-      <c r="AA63" s="4" t="n"/>
+      <c r="Z63" s="5" t="inlineStr"/>
+      <c r="AA63" s="6" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="5" t="n">
         <v>113873</v>
       </c>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="E64" s="5" t="inlineStr">
         <is>
           <t>Progreso ES</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G64" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" s="4" t="inlineStr">
+      <c r="G64" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K64" s="4" t="n">
+      <c r="K64" s="5" t="n">
         <v>758724</v>
       </c>
-      <c r="L64" s="4" t="inlineStr">
+      <c r="L64" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M64" s="4" t="inlineStr"/>
-      <c r="N64" s="4" t="inlineStr">
+      <c r="M64" s="5" t="inlineStr"/>
+      <c r="N64" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="5" t="n">
+      <c r="O64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q64" s="5" t="n">
+      <c r="Q64" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="R64" s="4" t="inlineStr">
+      <c r="R64" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S64" s="4" t="inlineStr">
+      <c r="S64" s="5" t="inlineStr">
         <is>
           <t>2023-11-044</t>
         </is>
       </c>
-      <c r="T64" s="5" t="n">
+      <c r="T64" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U64" s="5" t="n">
+      <c r="U64" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V64" s="5" t="n">
+      <c r="V64" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W64" s="5" t="n">
+      <c r="W64" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X64" s="5" t="n">
+      <c r="X64" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="Y64" s="4" t="inlineStr">
+      <c r="Y64" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z64" s="4" t="inlineStr"/>
-      <c r="AA64" s="4" t="n"/>
+      <c r="Z64" s="5" t="inlineStr"/>
+      <c r="AA64" s="6" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="inlineStr">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D65" s="4" t="n">
+      <c r="D65" s="5" t="n">
         <v>113881</v>
       </c>
-      <c r="E65" s="4" t="inlineStr">
+      <c r="E65" s="5" t="inlineStr">
         <is>
           <t>Valparaiso ES</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
+      <c r="F65" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G65" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" s="4" t="inlineStr">
+      <c r="G65" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K65" s="4" t="n">
+      <c r="K65" s="5" t="n">
         <v>710556</v>
       </c>
-      <c r="L65" s="4" t="inlineStr">
+      <c r="L65" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M65" s="4" t="inlineStr"/>
-      <c r="N65" s="4" t="inlineStr">
+      <c r="M65" s="5" t="inlineStr"/>
+      <c r="N65" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="5" t="n">
+      <c r="O65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q65" s="4" t="inlineStr"/>
-      <c r="R65" s="4" t="inlineStr">
+      <c r="Q65" s="5" t="inlineStr"/>
+      <c r="R65" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S65" s="4" t="inlineStr">
+      <c r="S65" s="5" t="inlineStr">
         <is>
           <t>2023-11-044</t>
         </is>
       </c>
-      <c r="T65" s="5" t="n">
+      <c r="T65" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U65" s="5" t="n">
+      <c r="U65" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V65" s="5" t="n">
+      <c r="V65" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W65" s="5" t="n">
+      <c r="W65" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X65" s="5" t="n">
+      <c r="X65" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="Y65" s="4" t="inlineStr">
+      <c r="Y65" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z65" s="4" t="inlineStr"/>
-      <c r="AA65" s="4" t="n"/>
+      <c r="Z65" s="5" t="inlineStr"/>
+      <c r="AA65" s="6" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="inlineStr">
+      <c r="A66" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B66" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C66" s="4" t="inlineStr">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D66" s="4" t="n">
+      <c r="D66" s="5" t="n">
         <v>113987</v>
       </c>
-      <c r="E66" s="4" t="inlineStr">
+      <c r="E66" s="5" t="inlineStr">
         <is>
           <t>Macabari Elementary School</t>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr">
+      <c r="F66" s="5" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G66" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H66" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4" t="inlineStr">
+      <c r="G66" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K66" s="4" t="n">
+      <c r="K66" s="5" t="n">
         <v>620000</v>
       </c>
-      <c r="L66" s="4" t="inlineStr">
+      <c r="L66" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M66" s="4" t="n">
+      <c r="M66" s="5" t="n">
         <v>409181.1</v>
       </c>
-      <c r="N66" s="4" t="inlineStr">
+      <c r="N66" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O66" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" s="5" t="n">
+      <c r="O66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="7" t="n">
         <v>45086</v>
       </c>
-      <c r="Q66" s="5" t="n">
+      <c r="Q66" s="7" t="n">
         <v>45210</v>
       </c>
-      <c r="R66" s="4" t="inlineStr">
+      <c r="R66" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S66" s="4" t="inlineStr">
+      <c r="S66" s="5" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T66" s="5" t="n">
+      <c r="T66" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U66" s="5" t="n">
+      <c r="U66" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V66" s="5" t="n">
+      <c r="V66" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W66" s="5" t="n">
+      <c r="W66" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X66" s="5" t="n">
+      <c r="X66" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y66" s="4" t="inlineStr">
+      <c r="Y66" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z66" s="4" t="inlineStr"/>
-      <c r="AA66" s="4" t="n"/>
+      <c r="Z66" s="5" t="inlineStr"/>
+      <c r="AA66" s="6" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="inlineStr">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B67" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C67" s="4" t="inlineStr">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D67" s="4" t="n">
+      <c r="D67" s="5" t="n">
         <v>302184</v>
       </c>
-      <c r="E67" s="4" t="inlineStr">
+      <c r="E67" s="5" t="inlineStr">
         <is>
           <t>Barcelona National Comprehensive High School</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
+      <c r="F67" s="5" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G67" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" s="4" t="inlineStr">
+      <c r="G67" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K67" s="4" t="n">
+      <c r="K67" s="5" t="n">
         <v>600000</v>
       </c>
-      <c r="L67" s="4" t="inlineStr">
+      <c r="L67" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M67" s="4" t="n">
+      <c r="M67" s="5" t="n">
         <v>395982.07</v>
       </c>
-      <c r="N67" s="4" t="inlineStr">
+      <c r="N67" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O67" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" s="5" t="n">
+      <c r="O67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="7" t="n">
         <v>45086</v>
       </c>
-      <c r="Q67" s="5" t="n">
+      <c r="Q67" s="7" t="n">
         <v>45160</v>
       </c>
-      <c r="R67" s="4" t="inlineStr">
+      <c r="R67" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S67" s="4" t="inlineStr">
+      <c r="S67" s="5" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T67" s="5" t="n">
+      <c r="T67" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U67" s="5" t="n">
+      <c r="U67" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V67" s="5" t="n">
+      <c r="V67" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W67" s="5" t="n">
+      <c r="W67" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X67" s="5" t="n">
+      <c r="X67" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y67" s="4" t="inlineStr">
+      <c r="Y67" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z67" s="4" t="inlineStr"/>
-      <c r="AA67" s="4" t="n"/>
+      <c r="Z67" s="5" t="inlineStr"/>
+      <c r="AA67" s="6" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="inlineStr">
+      <c r="A68" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C68" s="4" t="inlineStr">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D68" s="4" t="n">
+      <c r="D68" s="5" t="n">
         <v>302218</v>
       </c>
-      <c r="E68" s="4" t="inlineStr">
+      <c r="E68" s="5" t="inlineStr">
         <is>
           <t>Celso F. Falcotelo National High School</t>
         </is>
       </c>
-      <c r="F68" s="4" t="inlineStr">
+      <c r="F68" s="5" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G68" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H68" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" s="4" t="inlineStr">
+      <c r="G68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K68" s="4" t="n">
+      <c r="K68" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="L68" s="4" t="inlineStr">
+      <c r="L68" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M68" s="4" t="n">
+      <c r="M68" s="5" t="n">
         <v>428986.32</v>
       </c>
-      <c r="N68" s="4" t="inlineStr">
+      <c r="N68" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O68" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P68" s="5" t="n">
+      <c r="O68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="7" t="n">
         <v>45086</v>
       </c>
-      <c r="Q68" s="5" t="n">
+      <c r="Q68" s="7" t="n">
         <v>45160</v>
       </c>
-      <c r="R68" s="4" t="inlineStr">
+      <c r="R68" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S68" s="4" t="inlineStr">
+      <c r="S68" s="5" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T68" s="5" t="n">
+      <c r="T68" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U68" s="5" t="n">
+      <c r="U68" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V68" s="5" t="n">
+      <c r="V68" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W68" s="5" t="n">
+      <c r="W68" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X68" s="5" t="n">
+      <c r="X68" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y68" s="4" t="inlineStr">
+      <c r="Y68" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z68" s="4" t="inlineStr"/>
-      <c r="AA68" s="4" t="n"/>
+      <c r="Z68" s="5" t="inlineStr"/>
+      <c r="AA68" s="6" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C69" s="4" t="inlineStr">
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D69" s="4" t="n">
+      <c r="D69" s="5" t="n">
         <v>114391</v>
       </c>
-      <c r="E69" s="4" t="inlineStr">
+      <c r="E69" s="5" t="inlineStr">
         <is>
           <t>Calao ES</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
+      <c r="F69" s="5" t="inlineStr">
         <is>
           <t>PRIETO DIAZ</t>
         </is>
       </c>
-      <c r="G69" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H69" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" s="4" t="inlineStr">
+      <c r="G69" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K69" s="4" t="n">
+      <c r="K69" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="L69" s="4" t="inlineStr">
+      <c r="L69" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M69" s="4" t="n">
+      <c r="M69" s="5" t="n">
         <v>428922.22</v>
       </c>
-      <c r="N69" s="4" t="inlineStr">
+      <c r="N69" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O69" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="5" t="n">
+      <c r="O69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="7" t="n">
         <v>45094</v>
       </c>
-      <c r="Q69" s="5" t="n">
+      <c r="Q69" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="R69" s="4" t="inlineStr">
+      <c r="R69" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S69" s="4" t="inlineStr">
+      <c r="S69" s="5" t="inlineStr">
         <is>
           <t>23-01-001-02</t>
         </is>
       </c>
-      <c r="T69" s="5" t="n">
+      <c r="T69" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U69" s="5" t="n">
+      <c r="U69" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V69" s="5" t="n">
+      <c r="V69" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W69" s="5" t="n">
+      <c r="W69" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X69" s="5" t="n">
+      <c r="X69" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y69" s="4" t="inlineStr">
+      <c r="Y69" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z69" s="4" t="inlineStr"/>
-      <c r="AA69" s="4" t="n"/>
+      <c r="Z69" s="5" t="inlineStr"/>
+      <c r="AA69" s="6" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="inlineStr">
+      <c r="A70" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C70" s="4" t="inlineStr">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D70" s="4" t="n">
+      <c r="D70" s="5" t="n">
         <v>302223</v>
       </c>
-      <c r="E70" s="4" t="inlineStr">
+      <c r="E70" s="5" t="inlineStr">
         <is>
           <t>Manlabong National High School</t>
         </is>
       </c>
-      <c r="F70" s="4" t="inlineStr">
+      <c r="F70" s="5" t="inlineStr">
         <is>
           <t>PRIETO DIAZ</t>
         </is>
       </c>
-      <c r="G70" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H70" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" s="4" t="inlineStr">
+      <c r="G70" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K70" s="4" t="n">
+      <c r="K70" s="5" t="n">
         <v>653305.03</v>
       </c>
-      <c r="L70" s="4" t="inlineStr">
+      <c r="L70" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M70" s="4" t="n">
+      <c r="M70" s="5" t="n">
         <v>431102.51</v>
       </c>
-      <c r="N70" s="4" t="inlineStr">
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O70" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P70" s="5" t="n">
+      <c r="O70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" s="7" t="n">
         <v>45094</v>
       </c>
-      <c r="Q70" s="5" t="n">
+      <c r="Q70" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="R70" s="4" t="inlineStr">
+      <c r="R70" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S70" s="4" t="inlineStr">
+      <c r="S70" s="5" t="inlineStr">
         <is>
           <t>23-01-001-02</t>
         </is>
       </c>
-      <c r="T70" s="5" t="n">
+      <c r="T70" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U70" s="5" t="n">
+      <c r="U70" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V70" s="5" t="n">
+      <c r="V70" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W70" s="5" t="n">
+      <c r="W70" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X70" s="5" t="n">
+      <c r="X70" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y70" s="4" t="inlineStr">
+      <c r="Y70" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z70" s="4" t="inlineStr"/>
-      <c r="AA70" s="4" t="n"/>
+      <c r="Z70" s="5" t="inlineStr"/>
+      <c r="AA70" s="6" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="inlineStr">
+      <c r="A71" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B71" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C71" s="4" t="inlineStr">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D71" s="4" t="n">
+      <c r="D71" s="5" t="n">
         <v>114411</v>
       </c>
-      <c r="E71" s="4" t="inlineStr">
+      <c r="E71" s="5" t="inlineStr">
         <is>
           <t>Salvacion ES</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr">
+      <c r="F71" s="5" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G71" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="4" t="inlineStr">
+      <c r="G71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K71" s="4" t="n">
+      <c r="K71" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="L71" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M71" s="4" t="n">
+      <c r="M71" s="5" t="n">
         <v>429065.08</v>
       </c>
-      <c r="N71" s="4" t="inlineStr">
+      <c r="N71" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="5" t="n">
+      <c r="O71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="Q71" s="5" t="n">
+      <c r="Q71" s="7" t="n">
         <v>45279</v>
       </c>
-      <c r="R71" s="4" t="inlineStr">
+      <c r="R71" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S71" s="4" t="inlineStr">
+      <c r="S71" s="5" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T71" s="5" t="n">
+      <c r="T71" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U71" s="5" t="n">
+      <c r="U71" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V71" s="5" t="n">
+      <c r="V71" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W71" s="5" t="n">
+      <c r="W71" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X71" s="5" t="n">
+      <c r="X71" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y71" s="4" t="inlineStr">
+      <c r="Y71" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z71" s="4" t="inlineStr"/>
-      <c r="AA71" s="4" t="n"/>
+      <c r="Z71" s="5" t="inlineStr"/>
+      <c r="AA71" s="6" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="inlineStr">
+      <c r="A72" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C72" s="4" t="inlineStr">
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D72" s="4" t="n">
+      <c r="D72" s="5" t="n">
         <v>114416</v>
       </c>
-      <c r="E72" s="4" t="inlineStr">
+      <c r="E72" s="5" t="inlineStr">
         <is>
           <t>Talaonga ES</t>
         </is>
       </c>
-      <c r="F72" s="4" t="inlineStr">
+      <c r="F72" s="5" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G72" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H72" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" s="4" t="inlineStr">
+      <c r="G72" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K72" s="4" t="n">
+      <c r="K72" s="5" t="n">
         <v>580000</v>
       </c>
-      <c r="L72" s="4" t="inlineStr">
+      <c r="L72" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M72" s="4" t="n">
+      <c r="M72" s="5" t="n">
         <v>382655.47</v>
       </c>
-      <c r="N72" s="4" t="inlineStr">
+      <c r="N72" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O72" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P72" s="5" t="n">
+      <c r="O72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="Q72" s="5" t="n">
+      <c r="Q72" s="7" t="n">
         <v>45279</v>
       </c>
-      <c r="R72" s="4" t="inlineStr">
+      <c r="R72" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S72" s="4" t="inlineStr">
+      <c r="S72" s="5" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T72" s="5" t="n">
+      <c r="T72" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U72" s="5" t="n">
+      <c r="U72" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V72" s="5" t="n">
+      <c r="V72" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W72" s="5" t="n">
+      <c r="W72" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X72" s="5" t="n">
+      <c r="X72" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y72" s="4" t="inlineStr">
+      <c r="Y72" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z72" s="4" t="inlineStr"/>
-      <c r="AA72" s="4" t="n"/>
+      <c r="Z72" s="5" t="inlineStr"/>
+      <c r="AA72" s="6" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="inlineStr">
+      <c r="A73" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>Region V</t>
-        </is>
-      </c>
-      <c r="C73" s="4" t="inlineStr">
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>Region V</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D73" s="4" t="n">
+      <c r="D73" s="5" t="n">
         <v>302245</v>
       </c>
-      <c r="E73" s="4" t="inlineStr">
+      <c r="E73" s="5" t="inlineStr">
         <is>
           <t>Sta. Magdalena National High School</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
+      <c r="F73" s="5" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G73" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" s="4" t="inlineStr">
+      <c r="G73" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K73" s="4" t="n">
+      <c r="K73" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="L73" s="4" t="inlineStr">
+      <c r="L73" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M73" s="4" t="n">
+      <c r="M73" s="5" t="n">
         <v>429065.46</v>
       </c>
-      <c r="N73" s="4" t="inlineStr">
+      <c r="N73" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O73" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P73" s="5" t="n">
+      <c r="O73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="Q73" s="5" t="n">
+      <c r="Q73" s="7" t="n">
         <v>45279</v>
       </c>
-      <c r="R73" s="4" t="inlineStr">
+      <c r="R73" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S73" s="4" t="inlineStr">
+      <c r="S73" s="5" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T73" s="5" t="n">
+      <c r="T73" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U73" s="5" t="n">
+      <c r="U73" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V73" s="5" t="n">
+      <c r="V73" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W73" s="5" t="n">
+      <c r="W73" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X73" s="5" t="n">
+      <c r="X73" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y73" s="4" t="inlineStr">
+      <c r="Y73" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z73" s="4" t="inlineStr"/>
-      <c r="AA73" s="4" t="n"/>
+      <c r="Z73" s="5" t="inlineStr"/>
+      <c r="AA73" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
+++ b/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
+++ b/Filtered_By_Region/Region V/Region V_HEALTH.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA73"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,1002 +453,1031 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="46" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="211" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="46" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="211" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="19" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="61" customWidth="1" min="25" max="25"/>
-    <col width="15" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="61" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AA1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>112109</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Camacho Aler Elementary School</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>CAPALONGA</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="inlineStr"/>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="inlineStr"/>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">  Construction of Water and Sanitation Facilities - 4-Seater, Rain Water Collector and 10 Faucets Handwashing Facility with Roofing, Counter Tile Finish 2 Units</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>1862376</v>
       </c>
-      <c r="L2" s="5" t="inlineStr"/>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="n">
         <v>1844368.38</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>August 4, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>July 30, 2024</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>INFRA07-11-2023CN</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>INFRA07-11-2023CN</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>November 7, 2023</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>November 15, 2023</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>December 5, 2023</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>January 16, 2024</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>June 5, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>Meltri Construction Services</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AA2" s="6" t="n"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Iriga City</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>114445</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Iriga South CS</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>IRIGA CITY</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="inlineStr"/>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="inlineStr"/>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary 1 Unit (Option 1A - with Roofing, with Counter, with Tile Finish) and 1 Unit (OPTION 3A - One-Sided, without Roofing, with Counter, with Tile Finish)</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>586727.75</v>
       </c>
-      <c r="L3" s="5" t="inlineStr"/>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="n">
         <v>586210.48</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>August 29, 2024</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>August 23, 2024</t>
         </is>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>2024-01-29-PR-011</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>INFRA-24-06-06-001</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>February 16, 2024</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>February 26, 2024</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>March 12, 2024</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>March 18, 2024</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>Tripartite Eng'g and Construction</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="AA3" s="6" t="n"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Ligao City</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>111844</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Ligao West CES (Binatagan)</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>CITY OF LIGAO</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>2911074.79</v>
       </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="n">
         <v>2906241.32</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr"/>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>2023-INFRA-01</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>2023-INFRA-01</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>November 20, 2024</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>December 4, 2024</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>June 3, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>La Abel Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr"/>
-      <c r="AA4" s="6" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>128</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>113770</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Monreal Central School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>MONREAL</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>3192342.78</v>
       </c>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="n">
         <v>3189548.77</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="P5" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="P5" s="5" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="inlineStr"/>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>2024-024</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr"/>
-      <c r="AA5" s="6" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>113876</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>San Fernando CS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>3201465.5</v>
       </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="n">
         <v>3198180.97</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="P6" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="P6" s="5" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr"/>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>2024-025</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr"/>
-      <c r="AA6" s="6" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>113900</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>San Jacinto CS</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>3201465.5</v>
       </c>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="n">
         <v>3181448.42</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>May 27, 2025</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr"/>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-001</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>2024-023</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>August 12, 2024</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>December 28, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr"/>
-      <c r="AA7" s="6" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>114183</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Vinisitahan ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>DONSOL</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>2779451.4</v>
       </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="n">
         <v>2583307.17</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>April 24, 2025</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>April 24, 2025</t>
         </is>
       </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>24-06-002</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>24-06-002</t>
         </is>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>June 29, 2024</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>August 5, 2024</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>August 27, 2024</t>
         </is>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>October 16, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>Golden Tiller Construction and Supply</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr"/>
-      <c r="AA8" s="6" t="n"/>
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>633</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>112274</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>San Ramon ES</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO RUIZ (IMELDA)</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H9" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>793742</v>
       </c>
-      <c r="L9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
@@ -1459,69 +1488,72 @@
       <c r="X9" s="5" t="inlineStr"/>
       <c r="Y9" s="5" t="inlineStr"/>
       <c r="Z9" s="5" t="inlineStr"/>
-      <c r="AA9" s="6" t="n"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>634</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>112264</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>L. Opeda Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>SAN VICENTE</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>556309</v>
       </c>
-      <c r="L10" s="5" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
       <c r="R10" s="5" t="inlineStr"/>
       <c r="S10" s="5" t="inlineStr"/>
@@ -1532,827 +1564,854 @@
       <c r="X10" s="5" t="inlineStr"/>
       <c r="Y10" s="5" t="inlineStr"/>
       <c r="Z10" s="5" t="inlineStr"/>
-      <c r="AA10" s="6" t="n"/>
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>112759</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Bombon Central School</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H11" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7" t="n">
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q11" s="5" t="inlineStr"/>
-      <c r="R11" s="5" t="n">
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T11" s="7" t="n">
+      <c r="U11" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U11" s="7" t="n">
+      <c r="V11" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V11" s="7" t="n">
+      <c r="W11" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W11" s="7" t="n">
+      <c r="X11" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X11" s="7" t="n">
+      <c r="Y11" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z11" s="5" t="inlineStr"/>
-      <c r="AA11" s="6" t="n"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>112771</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Sto. Domingo Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H12" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L12" s="5" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7" t="n">
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q12" s="5" t="inlineStr"/>
-      <c r="R12" s="5" t="n">
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S12" s="5" t="inlineStr">
+      <c r="T12" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T12" s="7" t="n">
+      <c r="U12" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U12" s="7" t="n">
+      <c r="V12" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V12" s="7" t="n">
+      <c r="W12" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W12" s="7" t="n">
+      <c r="X12" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X12" s="7" t="n">
+      <c r="Y12" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z12" s="5" t="inlineStr"/>
-      <c r="AA12" s="6" t="n"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>1282</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>309707</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Siembre High School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>BOMBON</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H13" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L13" s="5" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="7" t="n">
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr"/>
-      <c r="R13" s="5" t="n">
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T13" s="7" t="n">
+      <c r="U13" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U13" s="7" t="n">
+      <c r="V13" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V13" s="7" t="n">
+      <c r="W13" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W13" s="7" t="n">
+      <c r="X13" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X13" s="7" t="n">
+      <c r="Y13" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z13" s="5" t="inlineStr"/>
-      <c r="AA13" s="6" t="n"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>302051</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Sta. Lutgarda HS (Junior High)</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Cabusao</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H14" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="J14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>569311.1899999999</v>
       </c>
-      <c r="L14" s="5" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7" t="n">
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr"/>
-      <c r="R14" s="5" t="n">
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T14" s="7" t="n">
+      <c r="U14" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U14" s="7" t="n">
+      <c r="V14" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V14" s="7" t="n">
+      <c r="W14" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="X14" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X14" s="7" t="n">
+      <c r="Y14" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z14" s="5" t="inlineStr"/>
-      <c r="AA14" s="6" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>112498</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Camaligan Central School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>427582</v>
       </c>
-      <c r="L15" s="5" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr"/>
-      <c r="R15" s="5" t="n">
+      <c r="R15" s="5" t="inlineStr"/>
+      <c r="S15" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T15" s="7" t="n">
+      <c r="U15" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="V15" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V15" s="7" t="n">
+      <c r="W15" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W15" s="7" t="n">
+      <c r="X15" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X15" s="7" t="n">
+      <c r="Y15" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr"/>
-      <c r="AA15" s="6" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>112499</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Dugcal ES</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H16" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="J16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>216359.09</v>
       </c>
-      <c r="L16" s="5" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q16" s="5" t="inlineStr"/>
-      <c r="R16" s="5" t="n">
+      <c r="R16" s="5" t="inlineStr"/>
+      <c r="S16" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="U16" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U16" s="7" t="n">
+      <c r="V16" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V16" s="7" t="n">
+      <c r="W16" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W16" s="7" t="n">
+      <c r="X16" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X16" s="7" t="n">
+      <c r="Y16" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z16" s="5" t="inlineStr"/>
-      <c r="AA16" s="6" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>302052</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Camaligan National High School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>CAMALIGAN</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H17" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>427582</v>
       </c>
-      <c r="L17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr"/>
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7" t="n">
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr"/>
-      <c r="R17" s="5" t="n">
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T17" s="7" t="n">
+      <c r="U17" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U17" s="7" t="n">
+      <c r="V17" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V17" s="7" t="n">
+      <c r="W17" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W17" s="7" t="n">
+      <c r="X17" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X17" s="7" t="n">
+      <c r="Y17" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z17" s="5" t="inlineStr"/>
-      <c r="AA17" s="6" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>112779</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Gainza CS - Gainza</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>GAINZA</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="inlineStr"/>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>573205.47</v>
       </c>
-      <c r="L18" s="5" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7" t="n">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7" t="n">
         <v>45216</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr"/>
-      <c r="R18" s="5" t="n">
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>2023-07-030</t>
         </is>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="U18" s="7" t="n">
         <v>45091</v>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="V18" s="7" t="n">
         <v>45098</v>
       </c>
-      <c r="V18" s="7" t="n">
+      <c r="W18" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="7" t="n">
+      <c r="X18" s="7" t="n">
         <v>45114</v>
       </c>
-      <c r="X18" s="7" t="n">
+      <c r="Y18" s="7" t="n">
         <v>45156</v>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>Riders Corners Building and Reality Development Corporation</t>
         </is>
       </c>
-      <c r="Z18" s="5" t="inlineStr"/>
-      <c r="AA18" s="6" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>113154</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Bugao Central ES</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H19" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L19" s="5" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="5" t="inlineStr"/>
+      <c r="P19" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" s="5" t="inlineStr"/>
       <c r="R19" s="5" t="inlineStr"/>
       <c r="S19" s="5" t="inlineStr"/>
@@ -2363,69 +2422,72 @@
       <c r="X19" s="5" t="inlineStr"/>
       <c r="Y19" s="5" t="inlineStr"/>
       <c r="Z19" s="5" t="inlineStr"/>
-      <c r="AA19" s="6" t="n"/>
+      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>113155</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Cahan Bo. Sch.</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H20" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L20" s="5" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="5" t="inlineStr"/>
+      <c r="P20" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" s="5" t="inlineStr"/>
       <c r="R20" s="5" t="inlineStr"/>
       <c r="S20" s="5" t="inlineStr"/>
@@ -2436,69 +2498,72 @@
       <c r="X20" s="5" t="inlineStr"/>
       <c r="Y20" s="5" t="inlineStr"/>
       <c r="Z20" s="5" t="inlineStr"/>
-      <c r="AA20" s="6" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>113161</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Bagamanoc CES</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H21" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L21" s="5" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="5" t="inlineStr"/>
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" s="5" t="inlineStr"/>
       <c r="R21" s="5" t="inlineStr"/>
       <c r="S21" s="5" t="inlineStr"/>
@@ -2509,69 +2574,72 @@
       <c r="X21" s="5" t="inlineStr"/>
       <c r="Y21" s="5" t="inlineStr"/>
       <c r="Z21" s="5" t="inlineStr"/>
-      <c r="AA21" s="6" t="n"/>
+      <c r="AA21" s="5" t="inlineStr"/>
+      <c r="AB21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>113164</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Salvacion ES</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H22" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L22" s="5" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr"/>
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="5" t="inlineStr"/>
+      <c r="P22" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q22" s="5" t="inlineStr"/>
       <c r="R22" s="5" t="inlineStr"/>
       <c r="S22" s="5" t="inlineStr"/>
@@ -2582,69 +2650,72 @@
       <c r="X22" s="5" t="inlineStr"/>
       <c r="Y22" s="5" t="inlineStr"/>
       <c r="Z22" s="5" t="inlineStr"/>
-      <c r="AA22" s="6" t="n"/>
+      <c r="AA22" s="5" t="inlineStr"/>
+      <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>113165</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Suchan Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H23" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L23" s="5" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="5" t="inlineStr"/>
+      <c r="P23" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" s="5" t="inlineStr"/>
       <c r="R23" s="5" t="inlineStr"/>
       <c r="S23" s="5" t="inlineStr"/>
@@ -2655,69 +2726,72 @@
       <c r="X23" s="5" t="inlineStr"/>
       <c r="Y23" s="5" t="inlineStr"/>
       <c r="Z23" s="5" t="inlineStr"/>
-      <c r="AA23" s="6" t="n"/>
+      <c r="AA23" s="5" t="inlineStr"/>
+      <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>302072</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Bagamanoc Rural DHS</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>BAGAMANOC</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H24" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L24" s="5" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr"/>
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" s="5" t="inlineStr"/>
       <c r="R24" s="5" t="inlineStr"/>
       <c r="S24" s="5" t="inlineStr"/>
@@ -2728,69 +2802,72 @@
       <c r="X24" s="5" t="inlineStr"/>
       <c r="Y24" s="5" t="inlineStr"/>
       <c r="Z24" s="5" t="inlineStr"/>
-      <c r="AA24" s="6" t="n"/>
+      <c r="AA24" s="5" t="inlineStr"/>
+      <c r="AB24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>113166</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Agban Central Elementary School</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H25" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L25" s="5" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M25" s="5" t="inlineStr"/>
-      <c r="N25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="5" t="inlineStr"/>
+      <c r="P25" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q25" s="5" t="inlineStr"/>
       <c r="R25" s="5" t="inlineStr"/>
       <c r="S25" s="5" t="inlineStr"/>
@@ -2801,69 +2878,72 @@
       <c r="X25" s="5" t="inlineStr"/>
       <c r="Y25" s="5" t="inlineStr"/>
       <c r="Z25" s="5" t="inlineStr"/>
-      <c r="AA25" s="6" t="n"/>
+      <c r="AA25" s="5" t="inlineStr"/>
+      <c r="AB25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>113172</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Abihao ES</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G26" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H26" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="J26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L26" s="5" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q26" s="5" t="inlineStr"/>
       <c r="R26" s="5" t="inlineStr"/>
       <c r="S26" s="5" t="inlineStr"/>
@@ -2874,69 +2954,72 @@
       <c r="X26" s="5" t="inlineStr"/>
       <c r="Y26" s="5" t="inlineStr"/>
       <c r="Z26" s="5" t="inlineStr"/>
-      <c r="AA26" s="6" t="n"/>
+      <c r="AA26" s="5" t="inlineStr"/>
+      <c r="AB26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>113173</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Baras CES</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H27" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="5" t="inlineStr"/>
+      <c r="P27" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q27" s="5" t="inlineStr"/>
       <c r="R27" s="5" t="inlineStr"/>
       <c r="S27" s="5" t="inlineStr"/>
@@ -2947,69 +3030,72 @@
       <c r="X27" s="5" t="inlineStr"/>
       <c r="Y27" s="5" t="inlineStr"/>
       <c r="Z27" s="5" t="inlineStr"/>
-      <c r="AA27" s="6" t="n"/>
+      <c r="AA27" s="5" t="inlineStr"/>
+      <c r="AB27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>1297</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>113175</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Macutal Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G28" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H28" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L28" s="5" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="5" t="inlineStr"/>
+      <c r="P28" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q28" s="5" t="inlineStr"/>
       <c r="R28" s="5" t="inlineStr"/>
       <c r="S28" s="5" t="inlineStr"/>
@@ -3020,69 +3106,72 @@
       <c r="X28" s="5" t="inlineStr"/>
       <c r="Y28" s="5" t="inlineStr"/>
       <c r="Z28" s="5" t="inlineStr"/>
-      <c r="AA28" s="6" t="n"/>
+      <c r="AA28" s="5" t="inlineStr"/>
+      <c r="AB28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>113176</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Moning Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G29" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H29" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="J29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L29" s="5" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5" t="inlineStr"/>
+      <c r="P29" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q29" s="5" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr"/>
       <c r="S29" s="5" t="inlineStr"/>
@@ -3093,69 +3182,72 @@
       <c r="X29" s="5" t="inlineStr"/>
       <c r="Y29" s="5" t="inlineStr"/>
       <c r="Z29" s="5" t="inlineStr"/>
-      <c r="AA29" s="6" t="n"/>
+      <c r="AA29" s="5" t="inlineStr"/>
+      <c r="AB29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>302070</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Agban NHS</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G30" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H30" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L30" s="5" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="5" t="inlineStr"/>
+      <c r="P30" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q30" s="5" t="inlineStr"/>
       <c r="R30" s="5" t="inlineStr"/>
       <c r="S30" s="5" t="inlineStr"/>
@@ -3166,69 +3258,72 @@
       <c r="X30" s="5" t="inlineStr"/>
       <c r="Y30" s="5" t="inlineStr"/>
       <c r="Z30" s="5" t="inlineStr"/>
-      <c r="AA30" s="6" t="n"/>
+      <c r="AA30" s="5" t="inlineStr"/>
+      <c r="AB30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>302073</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Baras Rural DHS</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H31" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L31" s="5" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M31" s="5" t="inlineStr"/>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="5" t="inlineStr"/>
+      <c r="P31" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" s="5" t="inlineStr"/>
       <c r="R31" s="5" t="inlineStr"/>
       <c r="S31" s="5" t="inlineStr"/>
@@ -3239,69 +3334,72 @@
       <c r="X31" s="5" t="inlineStr"/>
       <c r="Y31" s="5" t="inlineStr"/>
       <c r="Z31" s="5" t="inlineStr"/>
-      <c r="AA31" s="6" t="n"/>
+      <c r="AA31" s="5" t="inlineStr"/>
+      <c r="AB31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>113182</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Bato Central Elementary School</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G32" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H32" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L32" s="5" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M32" s="5" t="inlineStr"/>
-      <c r="N32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr"/>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="5" t="inlineStr"/>
+      <c r="P32" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" s="5" t="inlineStr"/>
       <c r="R32" s="5" t="inlineStr"/>
       <c r="S32" s="5" t="inlineStr"/>
@@ -3312,69 +3410,72 @@
       <c r="X32" s="5" t="inlineStr"/>
       <c r="Y32" s="5" t="inlineStr"/>
       <c r="Z32" s="5" t="inlineStr"/>
-      <c r="AA32" s="6" t="n"/>
+      <c r="AA32" s="5" t="inlineStr"/>
+      <c r="AB32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>113192</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Guinobatan Elementay School</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G33" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H33" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L33" s="5" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M33" s="5" t="inlineStr"/>
-      <c r="N33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr"/>
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="5" t="inlineStr"/>
+      <c r="P33" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q33" s="5" t="inlineStr"/>
       <c r="R33" s="5" t="inlineStr"/>
       <c r="S33" s="5" t="inlineStr"/>
@@ -3385,69 +3486,72 @@
       <c r="X33" s="5" t="inlineStr"/>
       <c r="Y33" s="5" t="inlineStr"/>
       <c r="Z33" s="5" t="inlineStr"/>
-      <c r="AA33" s="6" t="n"/>
+      <c r="AA33" s="5" t="inlineStr"/>
+      <c r="AB33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>113195</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Sipi Elementary School</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G34" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H34" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L34" s="5" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M34" s="5" t="inlineStr"/>
-      <c r="N34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr"/>
+      <c r="O34" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="5" t="inlineStr"/>
+      <c r="P34" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q34" s="5" t="inlineStr"/>
       <c r="R34" s="5" t="inlineStr"/>
       <c r="S34" s="5" t="inlineStr"/>
@@ -3458,69 +3562,72 @@
       <c r="X34" s="5" t="inlineStr"/>
       <c r="Y34" s="5" t="inlineStr"/>
       <c r="Z34" s="5" t="inlineStr"/>
-      <c r="AA34" s="6" t="n"/>
+      <c r="AA34" s="5" t="inlineStr"/>
+      <c r="AB34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>302074</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Bato Rural Development High School</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G35" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H35" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L35" s="5" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M35" s="5" t="inlineStr"/>
-      <c r="N35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr"/>
+      <c r="O35" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="5" t="inlineStr"/>
+      <c r="P35" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q35" s="5" t="inlineStr"/>
       <c r="R35" s="5" t="inlineStr"/>
       <c r="S35" s="5" t="inlineStr"/>
@@ -3531,69 +3638,72 @@
       <c r="X35" s="5" t="inlineStr"/>
       <c r="Y35" s="5" t="inlineStr"/>
       <c r="Z35" s="5" t="inlineStr"/>
-      <c r="AA35" s="6" t="n"/>
+      <c r="AA35" s="5" t="inlineStr"/>
+      <c r="AB35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>500032</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Cabugao IS</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G36" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H36" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L36" s="5" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M36" s="5" t="inlineStr"/>
-      <c r="N36" s="5" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr"/>
+      <c r="O36" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="5" t="inlineStr"/>
+      <c r="P36" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q36" s="5" t="inlineStr"/>
       <c r="R36" s="5" t="inlineStr"/>
       <c r="S36" s="5" t="inlineStr"/>
@@ -3604,69 +3714,72 @@
       <c r="X36" s="5" t="inlineStr"/>
       <c r="Y36" s="5" t="inlineStr"/>
       <c r="Z36" s="5" t="inlineStr"/>
-      <c r="AA36" s="6" t="n"/>
+      <c r="AA36" s="5" t="inlineStr"/>
+      <c r="AB36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>500412</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Bote IS</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G37" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H37" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L37" s="5" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M37" s="5" t="inlineStr"/>
-      <c r="N37" s="5" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr"/>
+      <c r="O37" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="5" t="inlineStr"/>
+      <c r="P37" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q37" s="5" t="inlineStr"/>
       <c r="R37" s="5" t="inlineStr"/>
       <c r="S37" s="5" t="inlineStr"/>
@@ -3677,69 +3790,72 @@
       <c r="X37" s="5" t="inlineStr"/>
       <c r="Y37" s="5" t="inlineStr"/>
       <c r="Z37" s="5" t="inlineStr"/>
-      <c r="AA37" s="6" t="n"/>
+      <c r="AA37" s="5" t="inlineStr"/>
+      <c r="AB37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>113220</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Gigmoto CES</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G38" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H38" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L38" s="5" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M38" s="5" t="inlineStr"/>
-      <c r="N38" s="5" t="inlineStr">
+      <c r="N38" s="5" t="inlineStr"/>
+      <c r="O38" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="5" t="inlineStr"/>
+      <c r="P38" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" s="5" t="inlineStr"/>
       <c r="R38" s="5" t="inlineStr"/>
       <c r="S38" s="5" t="inlineStr"/>
@@ -3750,69 +3866,72 @@
       <c r="X38" s="5" t="inlineStr"/>
       <c r="Y38" s="5" t="inlineStr"/>
       <c r="Z38" s="5" t="inlineStr"/>
-      <c r="AA38" s="6" t="n"/>
+      <c r="AA38" s="5" t="inlineStr"/>
+      <c r="AB38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="E39" s="5" t="n">
         <v>113221</v>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>San Pedro ES</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G39" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H39" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="J39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="L39" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L39" s="5" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M39" s="5" t="inlineStr"/>
-      <c r="N39" s="5" t="inlineStr">
+      <c r="N39" s="5" t="inlineStr"/>
+      <c r="O39" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="5" t="inlineStr"/>
+      <c r="P39" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q39" s="5" t="inlineStr"/>
       <c r="R39" s="5" t="inlineStr"/>
       <c r="S39" s="5" t="inlineStr"/>
@@ -3823,69 +3942,72 @@
       <c r="X39" s="5" t="inlineStr"/>
       <c r="Y39" s="5" t="inlineStr"/>
       <c r="Z39" s="5" t="inlineStr"/>
-      <c r="AA39" s="6" t="n"/>
+      <c r="AA39" s="5" t="inlineStr"/>
+      <c r="AB39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="5" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="E40" s="5" t="n">
         <v>302088</v>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Gigmoto Rural DHS</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G40" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H40" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="L40" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L40" s="5" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M40" s="5" t="inlineStr"/>
-      <c r="N40" s="5" t="inlineStr">
+      <c r="N40" s="5" t="inlineStr"/>
+      <c r="O40" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="5" t="inlineStr"/>
+      <c r="P40" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q40" s="5" t="inlineStr"/>
       <c r="R40" s="5" t="inlineStr"/>
       <c r="S40" s="5" t="inlineStr"/>
@@ -3896,69 +4018,72 @@
       <c r="X40" s="5" t="inlineStr"/>
       <c r="Y40" s="5" t="inlineStr"/>
       <c r="Z40" s="5" t="inlineStr"/>
-      <c r="AA40" s="6" t="n"/>
+      <c r="AA40" s="5" t="inlineStr"/>
+      <c r="AB40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="5" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="E41" s="5" t="n">
         <v>500033</v>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Sicmil Integrated School</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G41" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H41" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="L41" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L41" s="5" t="inlineStr">
+      <c r="M41" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M41" s="5" t="inlineStr"/>
-      <c r="N41" s="5" t="inlineStr">
+      <c r="N41" s="5" t="inlineStr"/>
+      <c r="O41" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="5" t="inlineStr"/>
+      <c r="P41" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q41" s="5" t="inlineStr"/>
       <c r="R41" s="5" t="inlineStr"/>
       <c r="S41" s="5" t="inlineStr"/>
@@ -3969,69 +4094,72 @@
       <c r="X41" s="5" t="inlineStr"/>
       <c r="Y41" s="5" t="inlineStr"/>
       <c r="Z41" s="5" t="inlineStr"/>
-      <c r="AA41" s="6" t="n"/>
+      <c r="AA41" s="5" t="inlineStr"/>
+      <c r="AB41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="5" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="E42" s="5" t="n">
         <v>113244</v>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>Alinawan ES</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G42" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H42" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="J42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="L42" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L42" s="5" t="inlineStr">
+      <c r="M42" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M42" s="5" t="inlineStr"/>
-      <c r="N42" s="5" t="inlineStr">
+      <c r="N42" s="5" t="inlineStr"/>
+      <c r="O42" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="5" t="inlineStr"/>
+      <c r="P42" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q42" s="5" t="inlineStr"/>
       <c r="R42" s="5" t="inlineStr"/>
       <c r="S42" s="5" t="inlineStr"/>
@@ -4042,69 +4170,72 @@
       <c r="X42" s="5" t="inlineStr"/>
       <c r="Y42" s="5" t="inlineStr"/>
       <c r="Z42" s="5" t="inlineStr"/>
-      <c r="AA42" s="6" t="n"/>
+      <c r="AA42" s="5" t="inlineStr"/>
+      <c r="AB42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="A43" s="5" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="E43" s="5" t="n">
         <v>113251</v>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Maculiw Comm. Sch.</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G43" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H43" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J43" s="5" t="inlineStr">
+      <c r="J43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="L43" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L43" s="5" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M43" s="5" t="inlineStr"/>
-      <c r="N43" s="5" t="inlineStr">
+      <c r="N43" s="5" t="inlineStr"/>
+      <c r="O43" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="5" t="inlineStr"/>
+      <c r="P43" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q43" s="5" t="inlineStr"/>
       <c r="R43" s="5" t="inlineStr"/>
       <c r="S43" s="5" t="inlineStr"/>
@@ -4115,69 +4246,72 @@
       <c r="X43" s="5" t="inlineStr"/>
       <c r="Y43" s="5" t="inlineStr"/>
       <c r="Z43" s="5" t="inlineStr"/>
-      <c r="AA43" s="6" t="n"/>
+      <c r="AA43" s="5" t="inlineStr"/>
+      <c r="AB43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="A44" s="5" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="E44" s="5" t="n">
         <v>113252</v>
       </c>
-      <c r="E44" s="5" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>Panay Comm. Sch.</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G44" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H44" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="J44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="L44" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L44" s="5" t="inlineStr">
+      <c r="M44" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M44" s="5" t="inlineStr"/>
-      <c r="N44" s="5" t="inlineStr">
+      <c r="N44" s="5" t="inlineStr"/>
+      <c r="O44" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="5" t="inlineStr"/>
+      <c r="P44" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q44" s="5" t="inlineStr"/>
       <c r="R44" s="5" t="inlineStr"/>
       <c r="S44" s="5" t="inlineStr"/>
@@ -4188,69 +4322,72 @@
       <c r="X44" s="5" t="inlineStr"/>
       <c r="Y44" s="5" t="inlineStr"/>
       <c r="Z44" s="5" t="inlineStr"/>
-      <c r="AA44" s="6" t="n"/>
+      <c r="AA44" s="5" t="inlineStr"/>
+      <c r="AB44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="5" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="E45" s="5" t="n">
         <v>113253</v>
       </c>
-      <c r="E45" s="5" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>Panganiban Central Elementary School</t>
         </is>
       </c>
-      <c r="F45" s="5" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G45" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H45" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="L45" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L45" s="5" t="inlineStr">
+      <c r="M45" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M45" s="5" t="inlineStr"/>
-      <c r="N45" s="5" t="inlineStr">
+      <c r="N45" s="5" t="inlineStr"/>
+      <c r="O45" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="5" t="inlineStr"/>
+      <c r="P45" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q45" s="5" t="inlineStr"/>
       <c r="R45" s="5" t="inlineStr"/>
       <c r="S45" s="5" t="inlineStr"/>
@@ -4261,69 +4398,72 @@
       <c r="X45" s="5" t="inlineStr"/>
       <c r="Y45" s="5" t="inlineStr"/>
       <c r="Z45" s="5" t="inlineStr"/>
-      <c r="AA45" s="6" t="n"/>
+      <c r="AA45" s="5" t="inlineStr"/>
+      <c r="AB45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="A46" s="5" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="E46" s="5" t="n">
         <v>302095</v>
       </c>
-      <c r="E46" s="5" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>Panganiban National High School</t>
         </is>
       </c>
-      <c r="F46" s="5" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G46" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H46" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="L46" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L46" s="5" t="inlineStr">
+      <c r="M46" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M46" s="5" t="inlineStr"/>
-      <c r="N46" s="5" t="inlineStr">
+      <c r="N46" s="5" t="inlineStr"/>
+      <c r="O46" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="5" t="inlineStr"/>
+      <c r="P46" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q46" s="5" t="inlineStr"/>
       <c r="R46" s="5" t="inlineStr"/>
       <c r="S46" s="5" t="inlineStr"/>
@@ -4334,69 +4474,72 @@
       <c r="X46" s="5" t="inlineStr"/>
       <c r="Y46" s="5" t="inlineStr"/>
       <c r="Z46" s="5" t="inlineStr"/>
-      <c r="AA46" s="6" t="n"/>
+      <c r="AA46" s="5" t="inlineStr"/>
+      <c r="AB46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+      <c r="A47" s="5" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="E47" s="5" t="n">
         <v>309801</v>
       </c>
-      <c r="E47" s="5" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>Panganiban NHS (CAIC Compound)</t>
         </is>
       </c>
-      <c r="F47" s="5" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>PANGANIBAN (PAYO)</t>
         </is>
       </c>
-      <c r="G47" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H47" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J47" s="5" t="inlineStr">
+      <c r="K47" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="L47" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L47" s="5" t="inlineStr">
+      <c r="M47" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M47" s="5" t="inlineStr"/>
-      <c r="N47" s="5" t="inlineStr">
+      <c r="N47" s="5" t="inlineStr"/>
+      <c r="O47" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O47" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="5" t="inlineStr"/>
+      <c r="P47" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q47" s="5" t="inlineStr"/>
       <c r="R47" s="5" t="inlineStr"/>
       <c r="S47" s="5" t="inlineStr"/>
@@ -4407,69 +4550,72 @@
       <c r="X47" s="5" t="inlineStr"/>
       <c r="Y47" s="5" t="inlineStr"/>
       <c r="Z47" s="5" t="inlineStr"/>
-      <c r="AA47" s="6" t="n"/>
+      <c r="AA47" s="5" t="inlineStr"/>
+      <c r="AB47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+      <c r="A48" s="5" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="E48" s="5" t="n">
         <v>113285</v>
       </c>
-      <c r="E48" s="5" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>Alma Elementary School</t>
         </is>
       </c>
-      <c r="F48" s="5" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G48" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H48" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="L48" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L48" s="5" t="inlineStr">
+      <c r="M48" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M48" s="5" t="inlineStr"/>
-      <c r="N48" s="5" t="inlineStr">
+      <c r="N48" s="5" t="inlineStr"/>
+      <c r="O48" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O48" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="5" t="inlineStr"/>
+      <c r="P48" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q48" s="5" t="inlineStr"/>
       <c r="R48" s="5" t="inlineStr"/>
       <c r="S48" s="5" t="inlineStr"/>
@@ -4480,69 +4626,72 @@
       <c r="X48" s="5" t="inlineStr"/>
       <c r="Y48" s="5" t="inlineStr"/>
       <c r="Z48" s="5" t="inlineStr"/>
-      <c r="AA48" s="6" t="n"/>
+      <c r="AA48" s="5" t="inlineStr"/>
+      <c r="AB48" s="6" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
+      <c r="A49" s="5" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D49" s="5" t="n">
+      <c r="E49" s="5" t="n">
         <v>113287</v>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>Caglatawan Elementary School</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G49" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H49" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J49" s="5" t="inlineStr">
+      <c r="J49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="L49" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L49" s="5" t="inlineStr">
+      <c r="M49" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M49" s="5" t="inlineStr"/>
-      <c r="N49" s="5" t="inlineStr">
+      <c r="N49" s="5" t="inlineStr"/>
+      <c r="O49" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O49" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="5" t="inlineStr"/>
+      <c r="P49" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q49" s="5" t="inlineStr"/>
       <c r="R49" s="5" t="inlineStr"/>
       <c r="S49" s="5" t="inlineStr"/>
@@ -4553,69 +4702,72 @@
       <c r="X49" s="5" t="inlineStr"/>
       <c r="Y49" s="5" t="inlineStr"/>
       <c r="Z49" s="5" t="inlineStr"/>
-      <c r="AA49" s="6" t="n"/>
+      <c r="AA49" s="5" t="inlineStr"/>
+      <c r="AB49" s="6" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="A50" s="5" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D50" s="5" t="n">
+      <c r="E50" s="5" t="n">
         <v>113292</v>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>Pagsangahan Elementary School</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G50" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H50" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" s="5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="L50" s="5" t="n">
         <v>247498.91</v>
       </c>
-      <c r="L50" s="5" t="inlineStr">
+      <c r="M50" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M50" s="5" t="inlineStr"/>
-      <c r="N50" s="5" t="inlineStr">
+      <c r="N50" s="5" t="inlineStr"/>
+      <c r="O50" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O50" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="5" t="inlineStr"/>
+      <c r="P50" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q50" s="5" t="inlineStr"/>
       <c r="R50" s="5" t="inlineStr"/>
       <c r="S50" s="5" t="inlineStr"/>
@@ -4626,69 +4778,72 @@
       <c r="X50" s="5" t="inlineStr"/>
       <c r="Y50" s="5" t="inlineStr"/>
       <c r="Z50" s="5" t="inlineStr"/>
-      <c r="AA50" s="6" t="n"/>
+      <c r="AA50" s="5" t="inlineStr"/>
+      <c r="AB50" s="6" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="A51" s="5" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="E51" s="5" t="n">
         <v>113298</v>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>J.M.A.-Tucao ES</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G51" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H51" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="J51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="L51" s="5" t="n">
         <v>123749.45</v>
       </c>
-      <c r="L51" s="5" t="inlineStr">
+      <c r="M51" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M51" s="5" t="inlineStr"/>
-      <c r="N51" s="5" t="inlineStr">
+      <c r="N51" s="5" t="inlineStr"/>
+      <c r="O51" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="5" t="inlineStr"/>
+      <c r="P51" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q51" s="5" t="inlineStr"/>
       <c r="R51" s="5" t="inlineStr"/>
       <c r="S51" s="5" t="inlineStr"/>
@@ -4699,69 +4854,72 @@
       <c r="X51" s="5" t="inlineStr"/>
       <c r="Y51" s="5" t="inlineStr"/>
       <c r="Z51" s="5" t="inlineStr"/>
-      <c r="AA51" s="6" t="n"/>
+      <c r="AA51" s="5" t="inlineStr"/>
+      <c r="AB51" s="6" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="A52" s="5" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D52" s="5" t="n">
+      <c r="E52" s="5" t="n">
         <v>113305</v>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>San Miguel CES</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G52" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H52" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="L52" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L52" s="5" t="inlineStr">
+      <c r="M52" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M52" s="5" t="inlineStr"/>
-      <c r="N52" s="5" t="inlineStr">
+      <c r="N52" s="5" t="inlineStr"/>
+      <c r="O52" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O52" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="5" t="inlineStr"/>
+      <c r="P52" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q52" s="5" t="inlineStr"/>
       <c r="R52" s="5" t="inlineStr"/>
       <c r="S52" s="5" t="inlineStr"/>
@@ -4772,69 +4930,72 @@
       <c r="X52" s="5" t="inlineStr"/>
       <c r="Y52" s="5" t="inlineStr"/>
       <c r="Z52" s="5" t="inlineStr"/>
-      <c r="AA52" s="6" t="n"/>
+      <c r="AA52" s="5" t="inlineStr"/>
+      <c r="AB52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+      <c r="A53" s="5" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D53" s="5" t="n">
+      <c r="E53" s="5" t="n">
         <v>302098</v>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>San Miguel Rural DHS</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G53" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H53" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J53" s="5" t="inlineStr">
+      <c r="K53" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="L53" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L53" s="5" t="inlineStr">
+      <c r="M53" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M53" s="5" t="inlineStr"/>
-      <c r="N53" s="5" t="inlineStr">
+      <c r="N53" s="5" t="inlineStr"/>
+      <c r="O53" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O53" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="5" t="inlineStr"/>
+      <c r="P53" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q53" s="5" t="inlineStr"/>
       <c r="R53" s="5" t="inlineStr"/>
       <c r="S53" s="5" t="inlineStr"/>
@@ -4845,69 +5006,72 @@
       <c r="X53" s="5" t="inlineStr"/>
       <c r="Y53" s="5" t="inlineStr"/>
       <c r="Z53" s="5" t="inlineStr"/>
-      <c r="AA53" s="6" t="n"/>
+      <c r="AA53" s="5" t="inlineStr"/>
+      <c r="AB53" s="6" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="A54" s="5" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D54" s="5" t="n">
+      <c r="E54" s="5" t="n">
         <v>302099</v>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>Mabato NHS (SMRDHS Annex)</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G54" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H54" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J54" s="5" t="inlineStr">
+      <c r="K54" s="5" t="inlineStr">
         <is>
           <t>Construction Of Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="L54" s="5" t="n">
         <v>371248.36</v>
       </c>
-      <c r="L54" s="5" t="inlineStr">
+      <c r="M54" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M54" s="5" t="inlineStr"/>
-      <c r="N54" s="5" t="inlineStr">
+      <c r="N54" s="5" t="inlineStr"/>
+      <c r="O54" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="5" t="inlineStr"/>
+      <c r="P54" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q54" s="5" t="inlineStr"/>
       <c r="R54" s="5" t="inlineStr"/>
       <c r="S54" s="5" t="inlineStr"/>
@@ -4918,1890 +5082,1948 @@
       <c r="X54" s="5" t="inlineStr"/>
       <c r="Y54" s="5" t="inlineStr"/>
       <c r="Z54" s="5" t="inlineStr"/>
-      <c r="AA54" s="6" t="n"/>
+      <c r="AA54" s="5" t="inlineStr"/>
+      <c r="AB54" s="6" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="5" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D55" s="5" t="n">
+      <c r="E55" s="5" t="n">
         <v>113484</v>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>Matabao ES</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>BATUAN</t>
         </is>
       </c>
-      <c r="G55" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H55" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="J55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="L55" s="5" t="n">
         <v>725356</v>
       </c>
-      <c r="L55" s="5" t="inlineStr">
+      <c r="M55" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M55" s="5" t="inlineStr"/>
-      <c r="N55" s="5" t="inlineStr">
+      <c r="N55" s="5" t="inlineStr"/>
+      <c r="O55" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="7" t="n">
+      <c r="P55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q55" s="5" t="inlineStr"/>
-      <c r="R55" s="5" t="inlineStr">
+      <c r="R55" s="5" t="inlineStr"/>
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S55" s="5" t="inlineStr">
+      <c r="T55" s="5" t="inlineStr">
         <is>
           <t>2023-03-042</t>
         </is>
       </c>
-      <c r="T55" s="7" t="n">
+      <c r="U55" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U55" s="7" t="n">
+      <c r="V55" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V55" s="7" t="n">
+      <c r="W55" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W55" s="7" t="n">
+      <c r="X55" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X55" s="7" t="n">
+      <c r="Y55" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y55" s="5" t="inlineStr">
+      <c r="Z55" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z55" s="5" t="inlineStr"/>
-      <c r="AA55" s="6" t="n"/>
+      <c r="AA55" s="5" t="inlineStr"/>
+      <c r="AB55" s="6" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="5" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="E56" s="5" t="n">
         <v>500165</v>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>Antonio Lee Llacer Sr. Integrated School</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>BATUAN</t>
         </is>
       </c>
-      <c r="G56" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H56" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="J56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="L56" s="5" t="n">
         <v>610169</v>
       </c>
-      <c r="L56" s="5" t="inlineStr">
+      <c r="M56" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M56" s="5" t="inlineStr"/>
-      <c r="N56" s="5" t="inlineStr">
+      <c r="N56" s="5" t="inlineStr"/>
+      <c r="O56" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="7" t="n">
+      <c r="P56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q56" s="5" t="inlineStr"/>
-      <c r="R56" s="5" t="inlineStr">
+      <c r="R56" s="5" t="inlineStr"/>
+      <c r="S56" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S56" s="5" t="inlineStr">
+      <c r="T56" s="5" t="inlineStr">
         <is>
           <t>2023-03-042</t>
         </is>
       </c>
-      <c r="T56" s="7" t="n">
+      <c r="U56" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U56" s="7" t="n">
+      <c r="V56" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V56" s="7" t="n">
+      <c r="W56" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W56" s="7" t="n">
+      <c r="X56" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X56" s="7" t="n">
+      <c r="Y56" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y56" s="5" t="inlineStr">
+      <c r="Z56" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z56" s="5" t="inlineStr"/>
-      <c r="AA56" s="6" t="n"/>
+      <c r="AA56" s="5" t="inlineStr"/>
+      <c r="AB56" s="6" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="5" t="n">
+        <v>1326</v>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="E57" s="5" t="n">
         <v>113620</v>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>Baras ES</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G57" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H57" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="J57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="L57" s="5" t="n">
         <v>440032</v>
       </c>
-      <c r="L57" s="5" t="inlineStr">
+      <c r="M57" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M57" s="5" t="inlineStr"/>
-      <c r="N57" s="5" t="inlineStr">
+      <c r="N57" s="5" t="inlineStr"/>
+      <c r="O57" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="7" t="n">
+      <c r="P57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q57" s="5" t="inlineStr"/>
-      <c r="R57" s="5" t="inlineStr">
+      <c r="R57" s="5" t="inlineStr"/>
+      <c r="S57" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S57" s="5" t="inlineStr">
+      <c r="T57" s="5" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T57" s="7" t="n">
+      <c r="U57" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U57" s="7" t="n">
+      <c r="V57" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V57" s="7" t="n">
+      <c r="W57" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W57" s="7" t="n">
+      <c r="X57" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X57" s="7" t="n">
+      <c r="Y57" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y57" s="5" t="inlineStr">
+      <c r="Z57" s="5" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z57" s="5" t="inlineStr"/>
-      <c r="AA57" s="6" t="n"/>
+      <c r="AA57" s="5" t="inlineStr"/>
+      <c r="AB57" s="6" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+      <c r="A58" s="5" t="n">
+        <v>1327</v>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="D58" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D58" s="5" t="n">
+      <c r="E58" s="5" t="n">
         <v>113627</v>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>Masbaranon ES</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G58" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H58" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J58" s="5" t="inlineStr">
+      <c r="J58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="L58" s="5" t="n">
         <v>440031</v>
       </c>
-      <c r="L58" s="5" t="inlineStr">
+      <c r="M58" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M58" s="5" t="inlineStr"/>
-      <c r="N58" s="5" t="inlineStr">
+      <c r="N58" s="5" t="inlineStr"/>
+      <c r="O58" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="7" t="n">
+      <c r="P58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q58" s="5" t="inlineStr"/>
-      <c r="R58" s="5" t="inlineStr">
+      <c r="R58" s="5" t="inlineStr"/>
+      <c r="S58" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S58" s="5" t="inlineStr">
+      <c r="T58" s="5" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T58" s="7" t="n">
+      <c r="U58" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U58" s="7" t="n">
+      <c r="V58" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V58" s="7" t="n">
+      <c r="W58" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W58" s="7" t="n">
+      <c r="X58" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X58" s="7" t="n">
+      <c r="Y58" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y58" s="5" t="inlineStr">
+      <c r="Z58" s="5" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z58" s="5" t="inlineStr"/>
-      <c r="AA58" s="6" t="n"/>
+      <c r="AA58" s="5" t="inlineStr"/>
+      <c r="AB58" s="6" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+      <c r="A59" s="5" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="E59" s="5" t="n">
         <v>113634</v>
       </c>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>Tawad ES</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G59" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H59" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J59" s="5" t="inlineStr">
+      <c r="J59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="L59" s="5" t="n">
         <v>440031</v>
       </c>
-      <c r="L59" s="5" t="inlineStr">
+      <c r="M59" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M59" s="5" t="inlineStr"/>
-      <c r="N59" s="5" t="inlineStr">
+      <c r="N59" s="5" t="inlineStr"/>
+      <c r="O59" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="7" t="n">
+      <c r="P59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q59" s="5" t="inlineStr"/>
-      <c r="R59" s="5" t="inlineStr">
+      <c r="R59" s="5" t="inlineStr"/>
+      <c r="S59" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S59" s="5" t="inlineStr">
+      <c r="T59" s="5" t="inlineStr">
         <is>
           <t>2023-11-045</t>
         </is>
       </c>
-      <c r="T59" s="7" t="n">
+      <c r="U59" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U59" s="7" t="n">
+      <c r="V59" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V59" s="7" t="n">
+      <c r="W59" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W59" s="7" t="n">
+      <c r="X59" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X59" s="7" t="n">
+      <c r="Y59" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y59" s="5" t="inlineStr">
+      <c r="Z59" s="5" t="inlineStr">
         <is>
           <t>3R3M CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z59" s="5" t="inlineStr"/>
-      <c r="AA59" s="6" t="n"/>
+      <c r="AA59" s="5" t="inlineStr"/>
+      <c r="AB59" s="6" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+      <c r="A60" s="5" t="n">
+        <v>1329</v>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="E60" s="5" t="n">
         <v>113636</v>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>Villa ES</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G60" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H60" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J60" s="5" t="inlineStr">
+      <c r="J60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K60" s="5" t="n">
+      <c r="L60" s="5" t="n">
         <v>440031</v>
       </c>
-      <c r="L60" s="5" t="inlineStr">
+      <c r="M60" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M60" s="5" t="inlineStr"/>
-      <c r="N60" s="5" t="inlineStr">
+      <c r="N60" s="5" t="inlineStr"/>
+      <c r="O60" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="7" t="n">
+      <c r="P60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q60" s="5" t="inlineStr"/>
-      <c r="R60" s="5" t="inlineStr">
+      <c r="R60" s="5" t="inlineStr"/>
+      <c r="S60" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S60" s="5" t="inlineStr">
+      <c r="T60" s="5" t="inlineStr">
         <is>
           <t>2023-11-046</t>
         </is>
       </c>
-      <c r="T60" s="7" t="n">
+      <c r="U60" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U60" s="7" t="n">
+      <c r="V60" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V60" s="7" t="n">
+      <c r="W60" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W60" s="7" t="n">
+      <c r="X60" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X60" s="7" t="n">
+      <c r="Y60" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y60" s="5" t="inlineStr">
+      <c r="Z60" s="5" t="inlineStr">
         <is>
           <t>JRMG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z60" s="5" t="inlineStr"/>
-      <c r="AA60" s="6" t="n"/>
+      <c r="AA60" s="5" t="inlineStr"/>
+      <c r="AB60" s="6" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
+      <c r="A61" s="5" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
+      <c r="D61" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="E61" s="5" t="n">
         <v>302171</v>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>Santos E. Conag National High School</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>Esperanza</t>
         </is>
       </c>
-      <c r="G61" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H61" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J61" s="5" t="inlineStr">
+      <c r="J61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
         <is>
           <t>Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="L61" s="5" t="n">
         <v>440032</v>
       </c>
-      <c r="L61" s="5" t="inlineStr">
+      <c r="M61" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M61" s="5" t="inlineStr"/>
-      <c r="N61" s="5" t="inlineStr">
+      <c r="N61" s="5" t="inlineStr"/>
+      <c r="O61" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="7" t="n">
+      <c r="P61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="Q61" s="5" t="inlineStr"/>
-      <c r="R61" s="5" t="inlineStr">
+      <c r="R61" s="5" t="inlineStr"/>
+      <c r="S61" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S61" s="5" t="inlineStr">
+      <c r="T61" s="5" t="inlineStr">
         <is>
           <t>2023-11-046</t>
         </is>
       </c>
-      <c r="T61" s="7" t="n">
+      <c r="U61" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U61" s="7" t="n">
+      <c r="V61" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V61" s="7" t="n">
+      <c r="W61" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W61" s="7" t="n">
+      <c r="X61" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X61" s="7" t="n">
+      <c r="Y61" s="7" t="n">
         <v>45247</v>
       </c>
-      <c r="Y61" s="5" t="inlineStr">
+      <c r="Z61" s="5" t="inlineStr">
         <is>
           <t>JRMG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z61" s="5" t="inlineStr"/>
-      <c r="AA61" s="6" t="n"/>
+      <c r="AA61" s="5" t="inlineStr"/>
+      <c r="AB61" s="6" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
+      <c r="A62" s="5" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
+      <c r="D62" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="E62" s="5" t="n">
         <v>113863</v>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>Buyo ES</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G62" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H62" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J62" s="5" t="inlineStr">
+      <c r="J62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="L62" s="5" t="n">
         <v>717068</v>
       </c>
-      <c r="L62" s="5" t="inlineStr">
+      <c r="M62" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M62" s="5" t="inlineStr"/>
-      <c r="N62" s="5" t="inlineStr">
+      <c r="N62" s="5" t="inlineStr"/>
+      <c r="O62" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="7" t="n">
+      <c r="P62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q62" s="7" t="n">
+      <c r="R62" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="R62" s="5" t="inlineStr">
+      <c r="S62" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S62" s="5" t="inlineStr">
+      <c r="T62" s="5" t="inlineStr">
         <is>
           <t>2023-11-043</t>
         </is>
       </c>
-      <c r="T62" s="7" t="n">
+      <c r="U62" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U62" s="7" t="n">
+      <c r="V62" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V62" s="7" t="n">
+      <c r="W62" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W62" s="7" t="n">
+      <c r="X62" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X62" s="7" t="n">
+      <c r="Y62" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="Y62" s="5" t="inlineStr">
+      <c r="Z62" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z62" s="5" t="inlineStr"/>
-      <c r="AA62" s="6" t="n"/>
+      <c r="AA62" s="5" t="inlineStr"/>
+      <c r="AB62" s="6" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
+      <c r="A63" s="5" t="n">
+        <v>1332</v>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="D63" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D63" s="5" t="n">
+      <c r="E63" s="5" t="n">
         <v>113872</v>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>P. Basas ES</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G63" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H63" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J63" s="5" t="inlineStr">
+      <c r="J63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K63" s="5" t="n">
+      <c r="L63" s="5" t="n">
         <v>780368</v>
       </c>
-      <c r="L63" s="5" t="inlineStr">
+      <c r="M63" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M63" s="5" t="inlineStr"/>
-      <c r="N63" s="5" t="inlineStr">
+      <c r="N63" s="5" t="inlineStr"/>
+      <c r="O63" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="7" t="n">
+      <c r="P63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q63" s="5" t="inlineStr"/>
-      <c r="R63" s="5" t="inlineStr">
+      <c r="R63" s="5" t="inlineStr"/>
+      <c r="S63" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S63" s="5" t="inlineStr">
+      <c r="T63" s="5" t="inlineStr">
         <is>
           <t>2023-11-043</t>
         </is>
       </c>
-      <c r="T63" s="7" t="n">
+      <c r="U63" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U63" s="7" t="n">
+      <c r="V63" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V63" s="7" t="n">
+      <c r="W63" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W63" s="7" t="n">
+      <c r="X63" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X63" s="7" t="n">
+      <c r="Y63" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="Y63" s="5" t="inlineStr">
+      <c r="Z63" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z63" s="5" t="inlineStr"/>
-      <c r="AA63" s="6" t="n"/>
+      <c r="AA63" s="5" t="inlineStr"/>
+      <c r="AB63" s="6" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="inlineStr">
+      <c r="A64" s="5" t="n">
+        <v>1333</v>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
+      <c r="D64" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D64" s="5" t="n">
+      <c r="E64" s="5" t="n">
         <v>113873</v>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>Progreso ES</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G64" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H64" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J64" s="5" t="inlineStr">
+      <c r="J64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="L64" s="5" t="n">
         <v>758724</v>
       </c>
-      <c r="L64" s="5" t="inlineStr">
+      <c r="M64" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M64" s="5" t="inlineStr"/>
-      <c r="N64" s="5" t="inlineStr">
+      <c r="N64" s="5" t="inlineStr"/>
+      <c r="O64" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O64" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="7" t="n">
+      <c r="P64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q64" s="7" t="n">
+      <c r="R64" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="R64" s="5" t="inlineStr">
+      <c r="S64" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S64" s="5" t="inlineStr">
+      <c r="T64" s="5" t="inlineStr">
         <is>
           <t>2023-11-044</t>
         </is>
       </c>
-      <c r="T64" s="7" t="n">
+      <c r="U64" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U64" s="7" t="n">
+      <c r="V64" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V64" s="7" t="n">
+      <c r="W64" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W64" s="7" t="n">
+      <c r="X64" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X64" s="7" t="n">
+      <c r="Y64" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="Y64" s="5" t="inlineStr">
+      <c r="Z64" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z64" s="5" t="inlineStr"/>
-      <c r="AA64" s="6" t="n"/>
+      <c r="AA64" s="5" t="inlineStr"/>
+      <c r="AB64" s="6" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="inlineStr">
+      <c r="A65" s="5" t="n">
+        <v>1334</v>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C65" s="5" t="inlineStr">
+      <c r="D65" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D65" s="5" t="n">
+      <c r="E65" s="5" t="n">
         <v>113881</v>
       </c>
-      <c r="E65" s="5" t="inlineStr">
+      <c r="F65" s="5" t="inlineStr">
         <is>
           <t>Valparaiso ES</t>
         </is>
       </c>
-      <c r="F65" s="5" t="inlineStr">
+      <c r="G65" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G65" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H65" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J65" s="5" t="inlineStr">
+      <c r="J65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF HEALTH FACILITIES</t>
         </is>
       </c>
-      <c r="K65" s="5" t="n">
+      <c r="L65" s="5" t="n">
         <v>710556</v>
       </c>
-      <c r="L65" s="5" t="inlineStr">
+      <c r="M65" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M65" s="5" t="inlineStr"/>
-      <c r="N65" s="5" t="inlineStr">
+      <c r="N65" s="5" t="inlineStr"/>
+      <c r="O65" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O65" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="7" t="n">
+      <c r="P65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q65" s="5" t="inlineStr"/>
-      <c r="R65" s="5" t="inlineStr">
+      <c r="R65" s="5" t="inlineStr"/>
+      <c r="S65" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-09-003</t>
         </is>
       </c>
-      <c r="S65" s="5" t="inlineStr">
+      <c r="T65" s="5" t="inlineStr">
         <is>
           <t>2023-11-044</t>
         </is>
       </c>
-      <c r="T65" s="7" t="n">
+      <c r="U65" s="7" t="n">
         <v>45197</v>
       </c>
-      <c r="U65" s="7" t="n">
+      <c r="V65" s="7" t="n">
         <v>45205</v>
       </c>
-      <c r="V65" s="7" t="n">
+      <c r="W65" s="7" t="n">
         <v>45217</v>
       </c>
-      <c r="W65" s="7" t="n">
+      <c r="X65" s="7" t="n">
         <v>45233</v>
       </c>
-      <c r="X65" s="7" t="n">
+      <c r="Y65" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="Y65" s="5" t="inlineStr">
+      <c r="Z65" s="5" t="inlineStr">
         <is>
           <t>CAMSUR BICOL TRADING INC.</t>
         </is>
       </c>
-      <c r="Z65" s="5" t="inlineStr"/>
-      <c r="AA65" s="6" t="n"/>
+      <c r="AA65" s="5" t="inlineStr"/>
+      <c r="AB65" s="6" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="inlineStr">
+      <c r="A66" s="5" t="n">
+        <v>1335</v>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
+      <c r="C66" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C66" s="5" t="inlineStr">
+      <c r="D66" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D66" s="5" t="n">
+      <c r="E66" s="5" t="n">
         <v>113987</v>
       </c>
-      <c r="E66" s="5" t="inlineStr">
+      <c r="F66" s="5" t="inlineStr">
         <is>
           <t>Macabari Elementary School</t>
         </is>
       </c>
-      <c r="F66" s="5" t="inlineStr">
+      <c r="G66" s="5" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G66" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H66" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J66" s="5" t="inlineStr">
+      <c r="J66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K66" s="5" t="n">
+      <c r="L66" s="5" t="n">
         <v>620000</v>
       </c>
-      <c r="L66" s="5" t="inlineStr">
+      <c r="M66" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M66" s="5" t="n">
+      <c r="N66" s="5" t="n">
         <v>409181.1</v>
       </c>
-      <c r="N66" s="5" t="inlineStr">
+      <c r="O66" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O66" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" s="7" t="n">
+      <c r="P66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="7" t="n">
         <v>45086</v>
       </c>
-      <c r="Q66" s="7" t="n">
+      <c r="R66" s="7" t="n">
         <v>45210</v>
       </c>
-      <c r="R66" s="5" t="inlineStr">
+      <c r="S66" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S66" s="5" t="inlineStr">
+      <c r="T66" s="5" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T66" s="7" t="n">
+      <c r="U66" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U66" s="7" t="n">
+      <c r="V66" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V66" s="7" t="n">
+      <c r="W66" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W66" s="7" t="n">
+      <c r="X66" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X66" s="7" t="n">
+      <c r="Y66" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y66" s="5" t="inlineStr">
+      <c r="Z66" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z66" s="5" t="inlineStr"/>
-      <c r="AA66" s="6" t="n"/>
+      <c r="AA66" s="5" t="inlineStr"/>
+      <c r="AB66" s="6" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="inlineStr">
+      <c r="A67" s="5" t="n">
+        <v>1336</v>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C67" s="5" t="inlineStr">
+      <c r="D67" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D67" s="5" t="n">
+      <c r="E67" s="5" t="n">
         <v>302184</v>
       </c>
-      <c r="E67" s="5" t="inlineStr">
+      <c r="F67" s="5" t="inlineStr">
         <is>
           <t>Barcelona National Comprehensive High School</t>
         </is>
       </c>
-      <c r="F67" s="5" t="inlineStr">
+      <c r="G67" s="5" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G67" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H67" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J67" s="5" t="inlineStr">
+      <c r="J67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K67" s="5" t="n">
+      <c r="L67" s="5" t="n">
         <v>600000</v>
       </c>
-      <c r="L67" s="5" t="inlineStr">
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M67" s="5" t="n">
+      <c r="N67" s="5" t="n">
         <v>395982.07</v>
       </c>
-      <c r="N67" s="5" t="inlineStr">
+      <c r="O67" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O67" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" s="7" t="n">
+      <c r="P67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="7" t="n">
         <v>45086</v>
       </c>
-      <c r="Q67" s="7" t="n">
+      <c r="R67" s="7" t="n">
         <v>45160</v>
       </c>
-      <c r="R67" s="5" t="inlineStr">
+      <c r="S67" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S67" s="5" t="inlineStr">
+      <c r="T67" s="5" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T67" s="7" t="n">
+      <c r="U67" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U67" s="7" t="n">
+      <c r="V67" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V67" s="7" t="n">
+      <c r="W67" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W67" s="7" t="n">
+      <c r="X67" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X67" s="7" t="n">
+      <c r="Y67" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y67" s="5" t="inlineStr">
+      <c r="Z67" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z67" s="5" t="inlineStr"/>
-      <c r="AA67" s="6" t="n"/>
+      <c r="AA67" s="5" t="inlineStr"/>
+      <c r="AB67" s="6" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="inlineStr">
+      <c r="A68" s="5" t="n">
+        <v>1337</v>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="C68" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C68" s="5" t="inlineStr">
+      <c r="D68" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D68" s="5" t="n">
+      <c r="E68" s="5" t="n">
         <v>302218</v>
       </c>
-      <c r="E68" s="5" t="inlineStr">
+      <c r="F68" s="5" t="inlineStr">
         <is>
           <t>Celso F. Falcotelo National High School</t>
         </is>
       </c>
-      <c r="F68" s="5" t="inlineStr">
+      <c r="G68" s="5" t="inlineStr">
         <is>
           <t>BARCELONA</t>
         </is>
       </c>
-      <c r="G68" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H68" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J68" s="5" t="inlineStr">
+      <c r="J68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K68" s="5" t="n">
+      <c r="L68" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="L68" s="5" t="inlineStr">
+      <c r="M68" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M68" s="5" t="n">
+      <c r="N68" s="5" t="n">
         <v>428986.32</v>
       </c>
-      <c r="N68" s="5" t="inlineStr">
+      <c r="O68" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P68" s="7" t="n">
+      <c r="P68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="7" t="n">
         <v>45086</v>
       </c>
-      <c r="Q68" s="7" t="n">
+      <c r="R68" s="7" t="n">
         <v>45160</v>
       </c>
-      <c r="R68" s="5" t="inlineStr">
+      <c r="S68" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S68" s="5" t="inlineStr">
+      <c r="T68" s="5" t="inlineStr">
         <is>
           <t>23-01-001-01</t>
         </is>
       </c>
-      <c r="T68" s="7" t="n">
+      <c r="U68" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U68" s="7" t="n">
+      <c r="V68" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V68" s="7" t="n">
+      <c r="W68" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W68" s="7" t="n">
+      <c r="X68" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X68" s="7" t="n">
+      <c r="Y68" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y68" s="5" t="inlineStr">
+      <c r="Z68" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z68" s="5" t="inlineStr"/>
-      <c r="AA68" s="6" t="n"/>
+      <c r="AA68" s="5" t="inlineStr"/>
+      <c r="AB68" s="6" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="inlineStr">
+      <c r="A69" s="5" t="n">
+        <v>1338</v>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C69" s="5" t="inlineStr">
+      <c r="D69" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D69" s="5" t="n">
+      <c r="E69" s="5" t="n">
         <v>114391</v>
       </c>
-      <c r="E69" s="5" t="inlineStr">
+      <c r="F69" s="5" t="inlineStr">
         <is>
           <t>Calao ES</t>
         </is>
       </c>
-      <c r="F69" s="5" t="inlineStr">
+      <c r="G69" s="5" t="inlineStr">
         <is>
           <t>PRIETO DIAZ</t>
         </is>
       </c>
-      <c r="G69" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H69" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J69" s="5" t="inlineStr">
+      <c r="J69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K69" s="5" t="n">
+      <c r="L69" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="L69" s="5" t="inlineStr">
+      <c r="M69" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M69" s="5" t="n">
+      <c r="N69" s="5" t="n">
         <v>428922.22</v>
       </c>
-      <c r="N69" s="5" t="inlineStr">
+      <c r="O69" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O69" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="7" t="n">
+      <c r="P69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="7" t="n">
         <v>45094</v>
       </c>
-      <c r="Q69" s="7" t="n">
+      <c r="R69" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="R69" s="5" t="inlineStr">
+      <c r="S69" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S69" s="5" t="inlineStr">
+      <c r="T69" s="5" t="inlineStr">
         <is>
           <t>23-01-001-02</t>
         </is>
       </c>
-      <c r="T69" s="7" t="n">
+      <c r="U69" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U69" s="7" t="n">
+      <c r="V69" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V69" s="7" t="n">
+      <c r="W69" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W69" s="7" t="n">
+      <c r="X69" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X69" s="7" t="n">
+      <c r="Y69" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y69" s="5" t="inlineStr">
+      <c r="Z69" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z69" s="5" t="inlineStr"/>
-      <c r="AA69" s="6" t="n"/>
+      <c r="AA69" s="5" t="inlineStr"/>
+      <c r="AB69" s="6" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="inlineStr">
+      <c r="A70" s="5" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="C70" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C70" s="5" t="inlineStr">
+      <c r="D70" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D70" s="5" t="n">
+      <c r="E70" s="5" t="n">
         <v>302223</v>
       </c>
-      <c r="E70" s="5" t="inlineStr">
+      <c r="F70" s="5" t="inlineStr">
         <is>
           <t>Manlabong National High School</t>
         </is>
       </c>
-      <c r="F70" s="5" t="inlineStr">
+      <c r="G70" s="5" t="inlineStr">
         <is>
           <t>PRIETO DIAZ</t>
         </is>
       </c>
-      <c r="G70" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H70" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J70" s="5" t="inlineStr">
+      <c r="J70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K70" s="5" t="n">
+      <c r="L70" s="5" t="n">
         <v>653305.03</v>
       </c>
-      <c r="L70" s="5" t="inlineStr">
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M70" s="5" t="n">
+      <c r="N70" s="5" t="n">
         <v>431102.51</v>
       </c>
-      <c r="N70" s="5" t="inlineStr">
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O70" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P70" s="7" t="n">
+      <c r="P70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="7" t="n">
         <v>45094</v>
       </c>
-      <c r="Q70" s="7" t="n">
+      <c r="R70" s="7" t="n">
         <v>45142</v>
       </c>
-      <c r="R70" s="5" t="inlineStr">
+      <c r="S70" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S70" s="5" t="inlineStr">
+      <c r="T70" s="5" t="inlineStr">
         <is>
           <t>23-01-001-02</t>
         </is>
       </c>
-      <c r="T70" s="7" t="n">
+      <c r="U70" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U70" s="7" t="n">
+      <c r="V70" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V70" s="7" t="n">
+      <c r="W70" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W70" s="7" t="n">
+      <c r="X70" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X70" s="7" t="n">
+      <c r="Y70" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y70" s="5" t="inlineStr">
+      <c r="Z70" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z70" s="5" t="inlineStr"/>
-      <c r="AA70" s="6" t="n"/>
+      <c r="AA70" s="5" t="inlineStr"/>
+      <c r="AB70" s="6" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="inlineStr">
+      <c r="A71" s="5" t="n">
+        <v>1340</v>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="C71" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C71" s="5" t="inlineStr">
+      <c r="D71" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D71" s="5" t="n">
+      <c r="E71" s="5" t="n">
         <v>114411</v>
       </c>
-      <c r="E71" s="5" t="inlineStr">
+      <c r="F71" s="5" t="inlineStr">
         <is>
           <t>Salvacion ES</t>
         </is>
       </c>
-      <c r="F71" s="5" t="inlineStr">
+      <c r="G71" s="5" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G71" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H71" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J71" s="5" t="inlineStr">
+      <c r="J71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K71" s="5" t="n">
+      <c r="L71" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="L71" s="5" t="inlineStr">
+      <c r="M71" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M71" s="5" t="n">
+      <c r="N71" s="5" t="n">
         <v>429065.08</v>
       </c>
-      <c r="N71" s="5" t="inlineStr">
+      <c r="O71" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O71" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="7" t="n">
+      <c r="P71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="Q71" s="7" t="n">
+      <c r="R71" s="7" t="n">
         <v>45279</v>
       </c>
-      <c r="R71" s="5" t="inlineStr">
+      <c r="S71" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S71" s="5" t="inlineStr">
+      <c r="T71" s="5" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T71" s="7" t="n">
+      <c r="U71" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U71" s="7" t="n">
+      <c r="V71" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V71" s="7" t="n">
+      <c r="W71" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W71" s="7" t="n">
+      <c r="X71" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X71" s="7" t="n">
+      <c r="Y71" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y71" s="5" t="inlineStr">
+      <c r="Z71" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z71" s="5" t="inlineStr"/>
-      <c r="AA71" s="6" t="n"/>
+      <c r="AA71" s="5" t="inlineStr"/>
+      <c r="AB71" s="6" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
+      <c r="A72" s="5" t="n">
+        <v>1341</v>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="C72" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C72" s="5" t="inlineStr">
+      <c r="D72" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D72" s="5" t="n">
+      <c r="E72" s="5" t="n">
         <v>114416</v>
       </c>
-      <c r="E72" s="5" t="inlineStr">
+      <c r="F72" s="5" t="inlineStr">
         <is>
           <t>Talaonga ES</t>
         </is>
       </c>
-      <c r="F72" s="5" t="inlineStr">
+      <c r="G72" s="5" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G72" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H72" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J72" s="5" t="inlineStr">
+      <c r="J72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K72" s="5" t="n">
+      <c r="L72" s="5" t="n">
         <v>580000</v>
       </c>
-      <c r="L72" s="5" t="inlineStr">
+      <c r="M72" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M72" s="5" t="n">
+      <c r="N72" s="5" t="n">
         <v>382655.47</v>
       </c>
-      <c r="N72" s="5" t="inlineStr">
+      <c r="O72" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O72" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P72" s="7" t="n">
+      <c r="P72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="Q72" s="7" t="n">
+      <c r="R72" s="7" t="n">
         <v>45279</v>
       </c>
-      <c r="R72" s="5" t="inlineStr">
+      <c r="S72" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S72" s="5" t="inlineStr">
+      <c r="T72" s="5" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T72" s="7" t="n">
+      <c r="U72" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U72" s="7" t="n">
+      <c r="V72" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V72" s="7" t="n">
+      <c r="W72" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W72" s="7" t="n">
+      <c r="X72" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X72" s="7" t="n">
+      <c r="Y72" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y72" s="5" t="inlineStr">
+      <c r="Z72" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z72" s="5" t="inlineStr"/>
-      <c r="AA72" s="6" t="n"/>
+      <c r="AA72" s="5" t="inlineStr"/>
+      <c r="AB72" s="6" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
+      <c r="A73" s="5" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="C73" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
+      <c r="D73" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D73" s="5" t="n">
+      <c r="E73" s="5" t="n">
         <v>302245</v>
       </c>
-      <c r="E73" s="5" t="inlineStr">
+      <c r="F73" s="5" t="inlineStr">
         <is>
           <t>Sta. Magdalena National High School</t>
         </is>
       </c>
-      <c r="F73" s="5" t="inlineStr">
+      <c r="G73" s="5" t="inlineStr">
         <is>
           <t>SANTA MAGDALENA</t>
         </is>
       </c>
-      <c r="G73" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="H73" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J73" s="5" t="inlineStr">
+      <c r="J73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="5" t="inlineStr">
         <is>
           <t>New Handwashing Facilities</t>
         </is>
       </c>
-      <c r="K73" s="5" t="n">
+      <c r="L73" s="5" t="n">
         <v>650000</v>
       </c>
-      <c r="L73" s="5" t="inlineStr">
+      <c r="M73" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M73" s="5" t="n">
+      <c r="N73" s="5" t="n">
         <v>429065.46</v>
       </c>
-      <c r="N73" s="5" t="inlineStr">
+      <c r="O73" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O73" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P73" s="7" t="n">
+      <c r="P73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="Q73" s="7" t="n">
+      <c r="R73" s="7" t="n">
         <v>45279</v>
       </c>
-      <c r="R73" s="5" t="inlineStr">
+      <c r="S73" s="5" t="inlineStr">
         <is>
           <t>23-01-001</t>
         </is>
       </c>
-      <c r="S73" s="5" t="inlineStr">
+      <c r="T73" s="5" t="inlineStr">
         <is>
           <t>23-01-001-03</t>
         </is>
       </c>
-      <c r="T73" s="7" t="n">
+      <c r="U73" s="7" t="n">
         <v>44930</v>
       </c>
-      <c r="U73" s="7" t="n">
+      <c r="V73" s="7" t="n">
         <v>44938</v>
       </c>
-      <c r="V73" s="7" t="n">
+      <c r="W73" s="7" t="n">
         <v>44950</v>
       </c>
-      <c r="W73" s="7" t="n">
+      <c r="X73" s="7" t="n">
         <v>44956</v>
       </c>
-      <c r="X73" s="7" t="n">
+      <c r="Y73" s="7" t="n">
         <v>44967</v>
       </c>
-      <c r="Y73" s="5" t="inlineStr">
+      <c r="Z73" s="5" t="inlineStr">
         <is>
           <t>NJNY Construction and Supply</t>
         </is>
       </c>
-      <c r="Z73" s="5" t="inlineStr"/>
-      <c r="AA73" s="6" t="n"/>
+      <c r="AA73" s="5" t="inlineStr"/>
+      <c r="AB73" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
